--- a/Investment_Strategy.xlsx
+++ b/Investment_Strategy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="435" activeTab="2"/>
+    <workbookView xWindow="242" yWindow="104" windowWidth="14803" windowHeight="8018" tabRatio="435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="3" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="558">
   <si>
     <t>price-to-earnings (PE) &lt;20 ?</t>
   </si>
@@ -2631,6 +2631,14 @@
   </si>
   <si>
     <t>Just watch for major correction</t>
+  </si>
+  <si>
+    <t>Find Graham Intrinsic Value to use as an indicator (https://www.cashoverflow.in/stock-market-investment-india/)
+V = EPS * (8.5 + Future Growth)
+EPS: Can use last 12months eps
+G = Expected Annual Growth rate (for the upcoming 7 to 10 years)
+Past G = (Latest EPS/ Initial EPS -5 years old) pow (1/Num_Years) - 1
+Future G can be ~0.75*Past_G</t>
   </si>
 </sst>
 </file>
@@ -3330,7 +3338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3758,6 +3766,75 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="28" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="22" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3770,30 +3847,6 @@
     <xf numFmtId="165" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3812,51 +3865,6 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="28" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3997,13 +4005,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4347,7 +4392,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="134.6640625" customWidth="1"/>
+    <col min="2" max="2" width="134.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="147.6" customHeight="1">
@@ -4369,16 +4414,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
-    <col min="2" max="2" width="21.88671875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="39" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="8.8984375" style="31"/>
+    <col min="2" max="2" width="21.8984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="31"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" s="29" customFormat="1">
@@ -4673,10 +4718,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4687,35 +4732,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W343"/>
+  <dimension ref="A2:W345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="42" customWidth="1"/>
-    <col min="7" max="8" width="11.109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="39.796875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="42" customWidth="1"/>
+    <col min="7" max="8" width="11.09765625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="42" customWidth="1"/>
     <col min="10" max="10" width="36" style="42" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="67" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="42" customWidth="1"/>
-    <col min="14" max="16" width="15.5546875" style="42" customWidth="1"/>
-    <col min="17" max="19" width="16.21875" style="42" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="42" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="42"/>
+    <col min="11" max="11" width="30.69921875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="13.296875" style="42" customWidth="1"/>
+    <col min="14" max="16" width="15.59765625" style="42" customWidth="1"/>
+    <col min="17" max="19" width="16.19921875" style="42" customWidth="1"/>
+    <col min="20" max="20" width="11.296875" style="42" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" style="42" customWidth="1"/>
+    <col min="22" max="16384" width="8.8984375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="168" t="s">
         <v>342</v>
       </c>
       <c r="C2" s="142"/>
@@ -4735,15 +4780,15 @@
       <c r="C4" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="174" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:13">
@@ -4751,40 +4796,40 @@
       <c r="C5" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="174" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
       <c r="K5" s="45"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="171" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="173"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="43"/>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
@@ -4805,22 +4850,22 @@
       <c r="E9" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="169" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="50">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="163" t="s">
         <v>218</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -4844,7 +4889,7 @@
       <c r="B11" s="50">
         <v>2</v>
       </c>
-      <c r="C11" s="149"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="50" t="s">
         <v>213</v>
       </c>
@@ -4866,7 +4911,7 @@
       <c r="B12" s="50">
         <v>3</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="50" t="s">
         <v>214</v>
       </c>
@@ -4888,7 +4933,7 @@
       <c r="B13" s="50">
         <v>4</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="50" t="s">
         <v>223</v>
       </c>
@@ -4910,7 +4955,7 @@
       <c r="B14" s="50">
         <v>5</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="50" t="s">
         <v>251</v>
       </c>
@@ -4930,7 +4975,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="50"/>
-      <c r="C15" s="153"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="50" t="s">
         <v>302</v>
       </c>
@@ -4966,7 +5011,7 @@
       <c r="B17" s="50">
         <v>6</v>
       </c>
-      <c r="C17" s="147" t="s">
+      <c r="C17" s="163" t="s">
         <v>217</v>
       </c>
       <c r="D17" s="50" t="s">
@@ -4990,7 +5035,7 @@
       <c r="B18" s="50">
         <v>7</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="50" t="s">
         <v>222</v>
       </c>
@@ -5023,10 +5068,10 @@
       <c r="M19" s="142"/>
     </row>
     <row r="20" spans="2:13" ht="28.8">
-      <c r="B20" s="155">
+      <c r="B20" s="170">
         <v>8</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="163" t="s">
         <v>224</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -5035,20 +5080,20 @@
       <c r="E20" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="171" t="s">
+      <c r="F20" s="151" t="s">
         <v>310</v>
       </c>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
     </row>
     <row r="21" spans="2:13" ht="28.8">
-      <c r="B21" s="153"/>
-      <c r="C21" s="148"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="165"/>
       <c r="D21" s="50" t="s">
         <v>361</v>
       </c>
@@ -5119,28 +5164,28 @@
       <c r="M24" s="142"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="152"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="50"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
       <c r="F26" s="142"/>
       <c r="G26" s="142"/>
       <c r="H26" s="142"/>
@@ -5161,20 +5206,20 @@
       <c r="E27" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="154" t="s">
+      <c r="F27" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="50"/>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="163" t="s">
         <v>243</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -5194,7 +5239,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="50"/>
-      <c r="C29" s="149"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="50" t="s">
         <v>236</v>
       </c>
@@ -5212,7 +5257,7 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="50"/>
-      <c r="C30" s="148"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="50" t="s">
         <v>66</v>
       </c>
@@ -5316,7 +5361,7 @@
       <c r="L35" s="142"/>
       <c r="M35" s="142"/>
     </row>
-    <row r="36" spans="2:13" ht="28.8">
+    <row r="36" spans="2:13">
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
       <c r="D36" s="50" t="s">
@@ -5363,16 +5408,16 @@
       <c r="E38" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="F38" s="171" t="s">
+      <c r="F38" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="50"/>
@@ -5389,20 +5434,20 @@
       <c r="M39" s="142"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="152"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="52" t="s">
@@ -5415,16 +5460,16 @@
       <c r="E41" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="154" t="s">
+      <c r="F41" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="154"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="50"/>
@@ -5541,20 +5586,20 @@
       <c r="M47" s="142"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="152"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="150"/>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="52" t="s">
@@ -5567,20 +5612,20 @@
       <c r="E49" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="154" t="s">
+      <c r="F49" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="50"/>
-      <c r="C50" s="147" t="s">
+      <c r="C50" s="163" t="s">
         <v>276</v>
       </c>
       <c r="D50" s="50" t="s">
@@ -5602,7 +5647,7 @@
     </row>
     <row r="51" spans="2:13" ht="28.8">
       <c r="B51" s="50"/>
-      <c r="C51" s="148"/>
+      <c r="C51" s="165"/>
       <c r="D51" s="50" t="s">
         <v>280</v>
       </c>
@@ -5634,9 +5679,9 @@
       <c r="L52" s="142"/>
       <c r="M52" s="142"/>
     </row>
-    <row r="53" spans="2:13" ht="43.2">
+    <row r="53" spans="2:13" ht="28.8">
       <c r="B53" s="50"/>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="163" t="s">
         <v>283</v>
       </c>
       <c r="D53" s="50" t="s">
@@ -5658,7 +5703,7 @@
     </row>
     <row r="54" spans="2:13" ht="28.8">
       <c r="B54" s="50"/>
-      <c r="C54" s="149"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="50" t="s">
         <v>287</v>
       </c>
@@ -5678,7 +5723,7 @@
     </row>
     <row r="55" spans="2:13">
       <c r="B55" s="50"/>
-      <c r="C55" s="149"/>
+      <c r="C55" s="164"/>
       <c r="D55" s="50" t="s">
         <v>290</v>
       </c>
@@ -5698,7 +5743,7 @@
     </row>
     <row r="56" spans="2:13">
       <c r="B56" s="50"/>
-      <c r="C56" s="149"/>
+      <c r="C56" s="164"/>
       <c r="D56" s="50" t="s">
         <v>293</v>
       </c>
@@ -5718,7 +5763,7 @@
     </row>
     <row r="57" spans="2:13">
       <c r="B57" s="50"/>
-      <c r="C57" s="149"/>
+      <c r="C57" s="164"/>
       <c r="D57" s="50" t="s">
         <v>296</v>
       </c>
@@ -5738,7 +5783,7 @@
     </row>
     <row r="58" spans="2:13">
       <c r="B58" s="50"/>
-      <c r="C58" s="148"/>
+      <c r="C58" s="165"/>
       <c r="D58" s="50" t="s">
         <v>299</v>
       </c>
@@ -5875,14 +5920,14 @@
       <c r="E66" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="168"/>
-      <c r="M66" s="168"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="2:13" ht="57.6">
       <c r="B67" s="50"/>
@@ -6222,7 +6267,7 @@
       <c r="L87" s="142"/>
       <c r="M87" s="142"/>
     </row>
-    <row r="88" spans="2:13" ht="57.6">
+    <row r="88" spans="2:13" ht="43.2">
       <c r="B88" s="50"/>
       <c r="C88" s="50"/>
       <c r="D88" s="61" t="s">
@@ -6282,7 +6327,7 @@
       <c r="L91" s="142"/>
       <c r="M91" s="142"/>
     </row>
-    <row r="92" spans="2:13" ht="31.2">
+    <row r="92" spans="2:13" ht="32.25">
       <c r="B92" s="50"/>
       <c r="C92" s="50"/>
       <c r="D92" s="62" t="s">
@@ -6301,52 +6346,52 @@
     <row r="93" spans="2:13">
       <c r="B93" s="50"/>
       <c r="C93" s="50"/>
-      <c r="D93" s="169" t="s">
+      <c r="D93" s="156" t="s">
         <v>372</v>
       </c>
       <c r="E93" s="63"/>
-      <c r="F93" s="175" t="s">
+      <c r="F93" s="146" t="s">
         <v>376</v>
       </c>
-      <c r="G93" s="175"/>
-      <c r="H93" s="175"/>
-      <c r="I93" s="175"/>
-      <c r="J93" s="175"/>
-      <c r="K93" s="175"/>
-      <c r="L93" s="175"/>
-      <c r="M93" s="175"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="146"/>
+      <c r="I93" s="146"/>
+      <c r="J93" s="146"/>
+      <c r="K93" s="146"/>
+      <c r="L93" s="146"/>
+      <c r="M93" s="146"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="50"/>
       <c r="C94" s="50"/>
-      <c r="D94" s="170"/>
+      <c r="D94" s="157"/>
       <c r="E94" s="63"/>
-      <c r="F94" s="175" t="s">
+      <c r="F94" s="146" t="s">
         <v>374</v>
       </c>
-      <c r="G94" s="175"/>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="175"/>
-      <c r="L94" s="175"/>
-      <c r="M94" s="175"/>
+      <c r="G94" s="146"/>
+      <c r="H94" s="146"/>
+      <c r="I94" s="146"/>
+      <c r="J94" s="146"/>
+      <c r="K94" s="146"/>
+      <c r="L94" s="146"/>
+      <c r="M94" s="146"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="50"/>
       <c r="C95" s="50"/>
-      <c r="D95" s="153"/>
+      <c r="D95" s="158"/>
       <c r="E95" s="63"/>
-      <c r="F95" s="175" t="s">
+      <c r="F95" s="146" t="s">
         <v>375</v>
       </c>
-      <c r="G95" s="175"/>
-      <c r="H95" s="175"/>
-      <c r="I95" s="175"/>
-      <c r="J95" s="175"/>
-      <c r="K95" s="175"/>
-      <c r="L95" s="175"/>
-      <c r="M95" s="175"/>
+      <c r="G95" s="146"/>
+      <c r="H95" s="146"/>
+      <c r="I95" s="146"/>
+      <c r="J95" s="146"/>
+      <c r="K95" s="146"/>
+      <c r="L95" s="146"/>
+      <c r="M95" s="146"/>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="50"/>
@@ -6377,11 +6422,11 @@
       <c r="M97" s="60"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="D100" s="166" t="s">
+      <c r="D100" s="153" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="166"/>
-      <c r="F100" s="167"/>
+      <c r="E100" s="153"/>
+      <c r="F100" s="154"/>
       <c r="G100" s="66"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
@@ -6462,307 +6507,244 @@
       <c r="H105" s="66"/>
     </row>
     <row r="109" spans="2:13" ht="28.8" customHeight="1">
-      <c r="B109" s="143" t="s">
+      <c r="B109" s="166" t="s">
         <v>539</v>
       </c>
-      <c r="C109" s="144"/>
-      <c r="D109" s="144"/>
-      <c r="E109" s="144"/>
-      <c r="F109" s="144"/>
-      <c r="G109" s="144"/>
-      <c r="H109" s="144"/>
-      <c r="I109" s="144"/>
+      <c r="C109" s="167"/>
+      <c r="D109" s="167"/>
+      <c r="E109" s="167"/>
+      <c r="F109" s="167"/>
+      <c r="G109" s="167"/>
+      <c r="H109" s="167"/>
+      <c r="I109" s="167"/>
     </row>
     <row r="110" spans="2:13" ht="58.2" customHeight="1">
-      <c r="B110" s="173" t="s">
+      <c r="B110" s="144" t="s">
         <v>549</v>
       </c>
-      <c r="C110" s="174"/>
-      <c r="D110" s="174"/>
-      <c r="E110" s="174"/>
-      <c r="F110" s="174"/>
-      <c r="G110" s="174"/>
-      <c r="H110" s="174"/>
-      <c r="I110" s="174"/>
-    </row>
-    <row r="111" spans="2:13" ht="70.2" customHeight="1">
-      <c r="B111" s="173" t="s">
+      <c r="C110" s="145"/>
+      <c r="D110" s="145"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="145"/>
+      <c r="G110" s="145"/>
+      <c r="H110" s="145"/>
+      <c r="I110" s="145"/>
+    </row>
+    <row r="111" spans="2:13" ht="70.3" customHeight="1">
+      <c r="B111" s="144" t="s">
         <v>541</v>
       </c>
-      <c r="C111" s="174"/>
-      <c r="D111" s="174"/>
-      <c r="E111" s="174"/>
-      <c r="F111" s="174"/>
-      <c r="G111" s="174"/>
-      <c r="H111" s="174"/>
-      <c r="I111" s="174"/>
-    </row>
-    <row r="112" spans="2:13" ht="99" customHeight="1">
-      <c r="B112" s="173" t="s">
+      <c r="C111" s="145"/>
+      <c r="D111" s="145"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="145"/>
+      <c r="G111" s="145"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="145"/>
+    </row>
+    <row r="112" spans="2:13" ht="99.1" customHeight="1">
+      <c r="B112" s="144" t="s">
         <v>542</v>
       </c>
-      <c r="C112" s="174"/>
-      <c r="D112" s="174"/>
-      <c r="E112" s="174"/>
-      <c r="F112" s="174"/>
-      <c r="G112" s="174"/>
-      <c r="H112" s="174"/>
-      <c r="I112" s="174"/>
-    </row>
-    <row r="113" spans="2:23" ht="58.8" customHeight="1">
-      <c r="B113" s="173" t="s">
+      <c r="C112" s="145"/>
+      <c r="D112" s="145"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="145"/>
+      <c r="G112" s="145"/>
+      <c r="H112" s="145"/>
+      <c r="I112" s="145"/>
+    </row>
+    <row r="113" spans="2:23" ht="58.75" customHeight="1">
+      <c r="B113" s="144" t="s">
         <v>543</v>
       </c>
-      <c r="C113" s="174"/>
-      <c r="D113" s="174"/>
-      <c r="E113" s="174"/>
-      <c r="F113" s="174"/>
-      <c r="G113" s="174"/>
-      <c r="H113" s="174"/>
-      <c r="I113" s="174"/>
-    </row>
-    <row r="114" spans="2:23" ht="110.4" customHeight="1">
-      <c r="B114" s="173" t="s">
+      <c r="C113" s="145"/>
+      <c r="D113" s="145"/>
+      <c r="E113" s="145"/>
+      <c r="F113" s="145"/>
+      <c r="G113" s="145"/>
+      <c r="H113" s="145"/>
+      <c r="I113" s="145"/>
+    </row>
+    <row r="114" spans="2:23" ht="110.45" customHeight="1">
+      <c r="B114" s="144" t="s">
         <v>544</v>
       </c>
-      <c r="C114" s="174"/>
-      <c r="D114" s="174"/>
-      <c r="E114" s="174"/>
-      <c r="F114" s="174"/>
-      <c r="G114" s="174"/>
-      <c r="H114" s="174"/>
-      <c r="I114" s="174"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="145"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="145"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="145"/>
+      <c r="I114" s="145"/>
     </row>
     <row r="115" spans="2:23" ht="58.2" customHeight="1">
-      <c r="B115" s="173" t="s">
+      <c r="B115" s="144" t="s">
         <v>545</v>
       </c>
-      <c r="C115" s="174"/>
-      <c r="D115" s="174"/>
-      <c r="E115" s="174"/>
-      <c r="F115" s="174"/>
-      <c r="G115" s="174"/>
-      <c r="H115" s="174"/>
-      <c r="I115" s="174"/>
+      <c r="C115" s="145"/>
+      <c r="D115" s="145"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="145"/>
+      <c r="G115" s="145"/>
+      <c r="H115" s="145"/>
+      <c r="I115" s="145"/>
     </row>
     <row r="116" spans="2:23" ht="76.2" customHeight="1">
-      <c r="B116" s="173" t="s">
+      <c r="B116" s="144" t="s">
         <v>546</v>
       </c>
-      <c r="C116" s="174"/>
-      <c r="D116" s="174"/>
-      <c r="E116" s="174"/>
-      <c r="F116" s="174"/>
-      <c r="G116" s="174"/>
-      <c r="H116" s="174"/>
-      <c r="I116" s="174"/>
-    </row>
-    <row r="117" spans="2:23" ht="60.6" customHeight="1">
-      <c r="B117" s="173" t="s">
+      <c r="C116" s="145"/>
+      <c r="D116" s="145"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="145"/>
+      <c r="G116" s="145"/>
+      <c r="H116" s="145"/>
+      <c r="I116" s="145"/>
+    </row>
+    <row r="117" spans="2:23" ht="60.65" customHeight="1">
+      <c r="B117" s="144" t="s">
         <v>547</v>
       </c>
-      <c r="C117" s="174"/>
-      <c r="D117" s="174"/>
-      <c r="E117" s="174"/>
-      <c r="F117" s="174"/>
-      <c r="G117" s="174"/>
-      <c r="H117" s="174"/>
-      <c r="I117" s="174"/>
-    </row>
-    <row r="118" spans="2:23" ht="60.6" customHeight="1">
-      <c r="B118" s="173" t="s">
+      <c r="C117" s="145"/>
+      <c r="D117" s="145"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="145"/>
+      <c r="G117" s="145"/>
+      <c r="H117" s="145"/>
+      <c r="I117" s="145"/>
+    </row>
+    <row r="118" spans="2:23" ht="60.65" customHeight="1">
+      <c r="B118" s="144" t="s">
         <v>548</v>
       </c>
-      <c r="C118" s="174"/>
-      <c r="D118" s="174"/>
-      <c r="E118" s="174"/>
-      <c r="F118" s="174"/>
-      <c r="G118" s="174"/>
-      <c r="H118" s="174"/>
-      <c r="I118" s="174"/>
-    </row>
-    <row r="119" spans="2:23" ht="15.6">
-      <c r="C119" s="172"/>
-      <c r="D119" s="172"/>
-      <c r="E119" s="172"/>
-      <c r="F119" s="172"/>
-      <c r="G119" s="172"/>
-      <c r="H119" s="172"/>
-      <c r="I119" s="172"/>
-    </row>
-    <row r="122" spans="2:23" ht="28.8">
-      <c r="B122" s="165" t="s">
+      <c r="C118" s="145"/>
+      <c r="D118" s="145"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="145"/>
+      <c r="G118" s="145"/>
+      <c r="H118" s="145"/>
+      <c r="I118" s="145"/>
+    </row>
+    <row r="119" spans="2:23" ht="60.65" customHeight="1">
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="143"/>
+    </row>
+    <row r="120" spans="2:23" ht="10.95" customHeight="1">
+      <c r="C120" s="143"/>
+      <c r="D120" s="143"/>
+      <c r="E120" s="143"/>
+      <c r="F120" s="143"/>
+      <c r="G120" s="143"/>
+      <c r="H120" s="143"/>
+      <c r="I120" s="143"/>
+    </row>
+    <row r="121" spans="2:23" ht="138.85" customHeight="1">
+      <c r="B121" s="223" t="s">
+        <v>557</v>
+      </c>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="224"/>
+      <c r="G121" s="224"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="225"/>
+    </row>
+    <row r="124" spans="2:23" ht="28.8">
+      <c r="B124" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="C122" s="165"/>
-      <c r="D122" s="43"/>
-      <c r="G122" s="72" t="s">
+      <c r="C124" s="152"/>
+      <c r="D124" s="43"/>
+      <c r="G124" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="I122" s="73">
+      <c r="I124" s="73">
         <v>42330</v>
       </c>
     </row>
-    <row r="123" spans="2:23" s="81" customFormat="1" ht="70.2">
-      <c r="B123" s="74" t="s">
+    <row r="125" spans="2:23" s="81" customFormat="1" ht="69.150000000000006">
+      <c r="B125" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="C123" s="74" t="s">
+      <c r="C125" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D125" s="75" t="s">
         <v>514</v>
       </c>
-      <c r="E123" s="48" t="s">
+      <c r="E125" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="F123" s="76" t="s">
+      <c r="F125" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="G123" s="116" t="s">
+      <c r="G125" s="116" t="s">
         <v>555</v>
       </c>
-      <c r="H123" s="102" t="s">
+      <c r="H125" s="102" t="s">
         <v>508</v>
       </c>
-      <c r="I123" s="77" t="s">
+      <c r="I125" s="77" t="s">
         <v>509</v>
       </c>
-      <c r="J123" s="78" t="s">
+      <c r="J125" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="K123" s="79" t="s">
+      <c r="K125" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="L123" s="80" t="s">
+      <c r="L125" s="80" t="s">
         <v>411</v>
       </c>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="80"/>
-      <c r="Q123" s="80"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="80"/>
-      <c r="V123" s="59"/>
-      <c r="W123" s="59"/>
-    </row>
-    <row r="124" spans="2:23">
-      <c r="B124" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="D124" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="E124" s="43">
-        <v>120</v>
-      </c>
-      <c r="F124" s="70">
-        <v>150</v>
-      </c>
-      <c r="G124" s="43">
-        <f>F124*1.03</f>
-        <v>154.5</v>
-      </c>
-      <c r="H124" s="98"/>
-      <c r="I124" s="86">
-        <v>240</v>
-      </c>
-      <c r="J124" s="43"/>
-      <c r="K124" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="L124" s="43">
-        <v>1</v>
-      </c>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-    </row>
-    <row r="125" spans="2:23">
-      <c r="B125" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D125" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="85">
-        <v>400</v>
-      </c>
-      <c r="F125" s="70">
-        <v>615</v>
-      </c>
-      <c r="G125" s="139">
-        <f t="shared" ref="G125:G156" si="0">F125*1.03</f>
-        <v>633.45000000000005</v>
-      </c>
-      <c r="H125" s="98"/>
-      <c r="I125" s="86">
-        <v>950</v>
-      </c>
-      <c r="J125" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="K125" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="L125" s="43"/>
-      <c r="M125" s="43"/>
-      <c r="N125" s="43"/>
-      <c r="O125" s="43"/>
-      <c r="P125" s="43"/>
-      <c r="Q125" s="43"/>
-      <c r="R125" s="43"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="43"/>
-      <c r="U125" s="43"/>
+      <c r="M125" s="80"/>
+      <c r="N125" s="80"/>
+      <c r="O125" s="80"/>
+      <c r="P125" s="80"/>
+      <c r="Q125" s="80"/>
+      <c r="R125" s="80"/>
+      <c r="S125" s="80"/>
+      <c r="T125" s="80"/>
+      <c r="U125" s="80"/>
+      <c r="V125" s="59"/>
+      <c r="W125" s="59"/>
     </row>
     <row r="126" spans="2:23">
       <c r="B126" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D126" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="E126" s="85">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="E126" s="43">
+        <v>120</v>
       </c>
       <c r="F126" s="70">
-        <v>300</v>
-      </c>
-      <c r="G126" s="139">
-        <f t="shared" si="0"/>
-        <v>309</v>
-      </c>
-      <c r="H126" s="98">
-        <v>414</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G126" s="43">
+        <f>F126*1.03</f>
+        <v>154.5</v>
+      </c>
+      <c r="H126" s="98"/>
       <c r="I126" s="86">
-        <v>600</v>
-      </c>
-      <c r="J126" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="K126" s="83"/>
+        <v>240</v>
+      </c>
+      <c r="J126" s="43"/>
+      <c r="K126" s="83" t="s">
+        <v>418</v>
+      </c>
       <c r="L126" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M126" s="43"/>
       <c r="N126" s="43"/>
@@ -6776,35 +6758,35 @@
     </row>
     <row r="127" spans="2:23">
       <c r="B127" s="43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="D127" s="107" t="s">
-        <v>385</v>
+        <v>421</v>
+      </c>
+      <c r="D127" s="108" t="s">
+        <v>99</v>
       </c>
       <c r="E127" s="85">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F127" s="70">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="G127" s="139">
-        <f t="shared" si="0"/>
-        <v>257.5</v>
+        <f t="shared" ref="G127:G158" si="0">F127*1.03</f>
+        <v>633.45000000000005</v>
       </c>
       <c r="H127" s="98"/>
       <c r="I127" s="86">
-        <v>480</v>
-      </c>
-      <c r="J127" s="43"/>
+        <v>950</v>
+      </c>
+      <c r="J127" s="43" t="s">
+        <v>419</v>
+      </c>
       <c r="K127" s="83" t="s">
-        <v>451</v>
-      </c>
-      <c r="L127" s="43">
-        <v>1</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="L127" s="43"/>
       <c r="M127" s="43"/>
       <c r="N127" s="43"/>
       <c r="O127" s="43"/>
@@ -6815,30 +6797,38 @@
       <c r="T127" s="43"/>
       <c r="U127" s="43"/>
     </row>
-    <row r="128" spans="2:23" ht="28.8">
+    <row r="128" spans="2:23">
       <c r="B128" s="43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D128" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="E128" s="85"/>
+        <v>111</v>
+      </c>
+      <c r="E128" s="85">
+        <v>275</v>
+      </c>
       <c r="F128" s="70">
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="G128" s="139">
         <f t="shared" si="0"/>
-        <v>592.25</v>
-      </c>
-      <c r="H128" s="98"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="43"/>
+        <v>309</v>
+      </c>
+      <c r="H128" s="98">
+        <v>414</v>
+      </c>
+      <c r="I128" s="86">
+        <v>600</v>
+      </c>
+      <c r="J128" s="43" t="s">
+        <v>419</v>
+      </c>
       <c r="K128" s="83"/>
       <c r="L128" s="43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M128" s="43"/>
       <c r="N128" s="43"/>
@@ -6850,35 +6840,37 @@
       <c r="T128" s="43"/>
       <c r="U128" s="43"/>
     </row>
-    <row r="129" spans="2:21" ht="28.8">
+    <row r="129" spans="2:21">
       <c r="B129" s="43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D129" s="107" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="E129" s="85">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="F129" s="70">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G129" s="139">
         <f t="shared" si="0"/>
-        <v>463.5</v>
+        <v>257.5</v>
       </c>
       <c r="H129" s="98"/>
       <c r="I129" s="86">
-        <v>750</v>
+        <v>480</v>
       </c>
       <c r="J129" s="43"/>
       <c r="K129" s="83" t="s">
-        <v>434</v>
-      </c>
-      <c r="L129" s="43"/>
+        <v>451</v>
+      </c>
+      <c r="L129" s="43">
+        <v>1</v>
+      </c>
       <c r="M129" s="43"/>
       <c r="N129" s="43"/>
       <c r="O129" s="43"/>
@@ -6889,40 +6881,30 @@
       <c r="T129" s="43"/>
       <c r="U129" s="43"/>
     </row>
-    <row r="130" spans="2:21">
+    <row r="130" spans="2:21" ht="28.8">
       <c r="B130" s="43" t="s">
         <v>430</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="D130" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="E130" s="85">
-        <v>225</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D130" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="85"/>
       <c r="F130" s="70">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="G130" s="139">
         <f t="shared" si="0"/>
-        <v>257.5</v>
-      </c>
-      <c r="H130" s="98">
-        <v>336</v>
-      </c>
-      <c r="I130" s="86">
-        <v>400</v>
-      </c>
-      <c r="J130" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="K130" s="83" t="s">
-        <v>435</v>
-      </c>
+        <v>592.25</v>
+      </c>
+      <c r="H130" s="98"/>
+      <c r="I130" s="82"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="83"/>
       <c r="L130" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" s="43"/>
       <c r="N130" s="43"/>
@@ -6936,33 +6918,31 @@
     </row>
     <row r="131" spans="2:21" ht="28.8">
       <c r="B131" s="43" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="D131" s="108" t="s">
-        <v>176</v>
+        <v>431</v>
+      </c>
+      <c r="D131" s="107" t="s">
+        <v>181</v>
       </c>
       <c r="E131" s="85">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="F131" s="70">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="G131" s="139">
         <f t="shared" si="0"/>
-        <v>262.65000000000003</v>
-      </c>
-      <c r="H131" s="98">
-        <v>294</v>
-      </c>
+        <v>463.5</v>
+      </c>
+      <c r="H131" s="98"/>
       <c r="I131" s="86">
-        <v>355</v>
+        <v>750</v>
       </c>
       <c r="J131" s="43"/>
       <c r="K131" s="83" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L131" s="43"/>
       <c r="M131" s="43"/>
@@ -6977,33 +6957,39 @@
     </row>
     <row r="132" spans="2:21">
       <c r="B132" s="43" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="D132" s="107" t="s">
-        <v>386</v>
+        <v>437</v>
+      </c>
+      <c r="D132" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="E132" s="85">
-        <v>550</v>
+        <v>225</v>
       </c>
       <c r="F132" s="70">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="G132" s="139">
         <f t="shared" si="0"/>
-        <v>669.5</v>
-      </c>
-      <c r="H132" s="98"/>
+        <v>257.5</v>
+      </c>
+      <c r="H132" s="98">
+        <v>336</v>
+      </c>
       <c r="I132" s="86">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="J132" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="K132" s="83"/>
-      <c r="L132" s="43"/>
+        <v>436</v>
+      </c>
+      <c r="K132" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="L132" s="43">
+        <v>2</v>
+      </c>
       <c r="M132" s="43"/>
       <c r="N132" s="43"/>
       <c r="O132" s="43"/>
@@ -7016,30 +7002,34 @@
     </row>
     <row r="133" spans="2:21" ht="28.8">
       <c r="B133" s="43" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="D133" s="107" t="s">
-        <v>205</v>
+        <v>424</v>
+      </c>
+      <c r="D133" s="108" t="s">
+        <v>176</v>
       </c>
       <c r="E133" s="85">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="F133" s="70">
-        <v>600</v>
+        <v>255</v>
       </c>
       <c r="G133" s="139">
         <f t="shared" si="0"/>
-        <v>618</v>
-      </c>
-      <c r="H133" s="98"/>
+        <v>262.65000000000003</v>
+      </c>
+      <c r="H133" s="98">
+        <v>294</v>
+      </c>
       <c r="I133" s="86">
-        <v>1017</v>
+        <v>355</v>
       </c>
       <c r="J133" s="43"/>
-      <c r="K133" s="83"/>
+      <c r="K133" s="83" t="s">
+        <v>440</v>
+      </c>
       <c r="L133" s="43"/>
       <c r="M133" s="43"/>
       <c r="N133" s="43"/>
@@ -7053,35 +7043,33 @@
     </row>
     <row r="134" spans="2:21">
       <c r="B134" s="43" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="D134" s="108" t="s">
-        <v>61</v>
+        <v>441</v>
+      </c>
+      <c r="D134" s="107" t="s">
+        <v>386</v>
       </c>
       <c r="E134" s="85">
-        <v>165</v>
+        <v>550</v>
       </c>
       <c r="F134" s="70">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="G134" s="139">
         <f t="shared" si="0"/>
-        <v>175.1</v>
-      </c>
-      <c r="H134" s="98">
-        <v>233</v>
-      </c>
-      <c r="I134" s="82"/>
+        <v>669.5</v>
+      </c>
+      <c r="H134" s="98"/>
+      <c r="I134" s="86">
+        <v>1050</v>
+      </c>
       <c r="J134" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="K134" s="87"/>
-      <c r="L134" s="42">
-        <v>5</v>
-      </c>
+      <c r="K134" s="83"/>
+      <c r="L134" s="43"/>
       <c r="M134" s="43"/>
       <c r="N134" s="43"/>
       <c r="O134" s="43"/>
@@ -7092,34 +7080,32 @@
       <c r="T134" s="43"/>
       <c r="U134" s="43"/>
     </row>
-    <row r="135" spans="2:21" ht="57.6">
+    <row r="135" spans="2:21">
       <c r="B135" s="43" t="s">
         <v>445</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="D135" s="109" t="s">
-        <v>79</v>
+        <v>444</v>
+      </c>
+      <c r="D135" s="107" t="s">
+        <v>205</v>
       </c>
       <c r="E135" s="85">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="F135" s="70">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G135" s="139">
         <f t="shared" si="0"/>
-        <v>257.5</v>
+        <v>618</v>
       </c>
       <c r="H135" s="98"/>
       <c r="I135" s="86">
-        <v>387</v>
+        <v>1017</v>
       </c>
       <c r="J135" s="43"/>
-      <c r="K135" s="83" t="s">
-        <v>449</v>
-      </c>
+      <c r="K135" s="83"/>
       <c r="L135" s="43"/>
       <c r="M135" s="43"/>
       <c r="N135" s="43"/>
@@ -7131,36 +7117,36 @@
       <c r="T135" s="43"/>
       <c r="U135" s="43"/>
     </row>
-    <row r="136" spans="2:21" ht="28.8">
+    <row r="136" spans="2:21">
       <c r="B136" s="43" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="D136" s="109" t="s">
-        <v>149</v>
+        <v>422</v>
+      </c>
+      <c r="D136" s="108" t="s">
+        <v>61</v>
       </c>
       <c r="E136" s="85">
-        <v>700</v>
+        <v>165</v>
       </c>
       <c r="F136" s="70">
-        <v>820</v>
+        <v>170</v>
       </c>
       <c r="G136" s="139">
         <f t="shared" si="0"/>
-        <v>844.6</v>
-      </c>
-      <c r="H136" s="98"/>
-      <c r="I136" s="86">
-        <v>1680</v>
-      </c>
-      <c r="J136" s="43"/>
-      <c r="K136" s="83" t="s">
-        <v>417</v>
-      </c>
-      <c r="L136" s="43">
-        <v>3</v>
+        <v>175.1</v>
+      </c>
+      <c r="H136" s="98">
+        <v>233</v>
+      </c>
+      <c r="I136" s="82"/>
+      <c r="J136" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="K136" s="87"/>
+      <c r="L136" s="42">
+        <v>5</v>
       </c>
       <c r="M136" s="43"/>
       <c r="N136" s="43"/>
@@ -7172,30 +7158,34 @@
       <c r="T136" s="43"/>
       <c r="U136" s="43"/>
     </row>
-    <row r="137" spans="2:21">
+    <row r="137" spans="2:21" ht="57.6">
       <c r="B137" s="43" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="D137" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="85"/>
+        <v>448</v>
+      </c>
+      <c r="D137" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E137" s="85">
+        <v>225</v>
+      </c>
       <c r="F137" s="70">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G137" s="139">
         <f t="shared" si="0"/>
-        <v>1236</v>
+        <v>257.5</v>
       </c>
       <c r="H137" s="98"/>
       <c r="I137" s="86">
-        <v>2200</v>
+        <v>387</v>
       </c>
       <c r="J137" s="43"/>
-      <c r="K137" s="83"/>
+      <c r="K137" s="83" t="s">
+        <v>449</v>
+      </c>
       <c r="L137" s="43"/>
       <c r="M137" s="43"/>
       <c r="N137" s="43"/>
@@ -7207,34 +7197,36 @@
       <c r="T137" s="43"/>
       <c r="U137" s="43"/>
     </row>
-    <row r="138" spans="2:21">
-      <c r="B138" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="C138" s="65" t="s">
-        <v>494</v>
-      </c>
-      <c r="D138" s="108" t="s">
-        <v>189</v>
-      </c>
-      <c r="E138" s="85"/>
+    <row r="138" spans="2:21" ht="28.8">
+      <c r="B138" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C138" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D138" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" s="85">
+        <v>700</v>
+      </c>
       <c r="F138" s="70">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="G138" s="139">
         <f t="shared" si="0"/>
-        <v>824</v>
+        <v>844.6</v>
       </c>
       <c r="H138" s="98"/>
       <c r="I138" s="86">
-        <v>1470</v>
+        <v>1680</v>
       </c>
       <c r="J138" s="43"/>
       <c r="K138" s="83" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="L138" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M138" s="43"/>
       <c r="N138" s="43"/>
@@ -7247,27 +7239,29 @@
       <c r="U138" s="43"/>
     </row>
     <row r="139" spans="2:21">
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
+      <c r="B139" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="C139" s="43" t="s">
+        <v>431</v>
+      </c>
       <c r="D139" s="108" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E139" s="85"/>
       <c r="F139" s="70">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="G139" s="139">
-        <f>F139*1.03</f>
-        <v>3450.5</v>
+        <f t="shared" si="0"/>
+        <v>1236</v>
       </c>
       <c r="H139" s="98"/>
       <c r="I139" s="86">
-        <v>5090</v>
+        <v>2200</v>
       </c>
       <c r="J139" s="43"/>
-      <c r="K139" s="83" t="s">
-        <v>496</v>
-      </c>
+      <c r="K139" s="83"/>
       <c r="L139" s="43"/>
       <c r="M139" s="43"/>
       <c r="N139" s="43"/>
@@ -7279,33 +7273,35 @@
       <c r="T139" s="43"/>
       <c r="U139" s="43"/>
     </row>
-    <row r="140" spans="2:21" ht="28.8">
-      <c r="B140" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="C140" s="43" t="s">
-        <v>424</v>
+    <row r="140" spans="2:21">
+      <c r="B140" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" s="65" t="s">
+        <v>494</v>
       </c>
       <c r="D140" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="E140" s="85">
-        <v>140</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E140" s="85"/>
       <c r="F140" s="70">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="G140" s="139">
         <f t="shared" si="0"/>
-        <v>154.5</v>
+        <v>824</v>
       </c>
       <c r="H140" s="98"/>
-      <c r="I140" s="82"/>
+      <c r="I140" s="86">
+        <v>1470</v>
+      </c>
       <c r="J140" s="43"/>
       <c r="K140" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="L140" s="43"/>
+        <v>493</v>
+      </c>
+      <c r="L140" s="43">
+        <v>2</v>
+      </c>
       <c r="M140" s="43"/>
       <c r="N140" s="43"/>
       <c r="O140" s="43"/>
@@ -7317,36 +7313,26 @@
       <c r="U140" s="43"/>
     </row>
     <row r="141" spans="2:21">
-      <c r="B141" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="C141" s="43" t="s">
-        <v>456</v>
-      </c>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
       <c r="D141" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="E141" s="85">
-        <v>85</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E141" s="85"/>
       <c r="F141" s="70">
-        <v>100</v>
+        <v>3350</v>
       </c>
       <c r="G141" s="139">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="H141" s="98">
-        <v>131</v>
-      </c>
+        <f>F141*1.03</f>
+        <v>3450.5</v>
+      </c>
+      <c r="H141" s="98"/>
       <c r="I141" s="86">
-        <v>173</v>
-      </c>
-      <c r="J141" s="43" t="s">
-        <v>419</v>
-      </c>
+        <v>5090</v>
+      </c>
+      <c r="J141" s="43"/>
       <c r="K141" s="83" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="L141" s="43"/>
       <c r="M141" s="43"/>
@@ -7361,35 +7347,31 @@
     </row>
     <row r="142" spans="2:21" ht="28.8">
       <c r="B142" s="43" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="D142" s="107" t="s">
-        <v>387</v>
+        <v>424</v>
+      </c>
+      <c r="D142" s="108" t="s">
+        <v>113</v>
       </c>
       <c r="E142" s="85">
+        <v>140</v>
+      </c>
+      <c r="F142" s="70">
         <v>150</v>
-      </c>
-      <c r="F142" s="70">
-        <v>145</v>
       </c>
       <c r="G142" s="139">
         <f t="shared" si="0"/>
-        <v>149.35</v>
+        <v>154.5</v>
       </c>
       <c r="H142" s="98"/>
-      <c r="I142" s="86">
-        <v>300</v>
-      </c>
+      <c r="I142" s="82"/>
       <c r="J142" s="43"/>
       <c r="K142" s="83" t="s">
-        <v>454</v>
-      </c>
-      <c r="L142" s="43">
-        <v>7</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="L142" s="43"/>
       <c r="M142" s="43"/>
       <c r="N142" s="43"/>
       <c r="O142" s="43"/>
@@ -7402,33 +7384,37 @@
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D143" s="108" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E143" s="85">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="F143" s="70">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G143" s="139">
         <f t="shared" si="0"/>
-        <v>618</v>
-      </c>
-      <c r="H143" s="98"/>
-      <c r="I143" s="82"/>
-      <c r="J143" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="H143" s="98">
+        <v>131</v>
+      </c>
+      <c r="I143" s="86">
+        <v>173</v>
+      </c>
+      <c r="J143" s="43" t="s">
+        <v>419</v>
+      </c>
       <c r="K143" s="83" t="s">
-        <v>530</v>
-      </c>
-      <c r="L143" s="43">
-        <v>2</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="L143" s="43"/>
       <c r="M143" s="43"/>
       <c r="N143" s="43"/>
       <c r="O143" s="43"/>
@@ -7439,65 +7425,73 @@
       <c r="T143" s="43"/>
       <c r="U143" s="43"/>
     </row>
-    <row r="144" spans="2:21">
-      <c r="B144" s="117" t="s">
-        <v>442</v>
-      </c>
-      <c r="C144" s="117" t="s">
-        <v>441</v>
+    <row r="144" spans="2:21" ht="28.8">
+      <c r="B144" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>422</v>
       </c>
       <c r="D144" s="107" t="s">
-        <v>535</v>
-      </c>
-      <c r="E144" s="85"/>
+        <v>387</v>
+      </c>
+      <c r="E144" s="85">
+        <v>150</v>
+      </c>
       <c r="F144" s="70">
-        <v>1875</v>
+        <v>145</v>
       </c>
       <c r="G144" s="139">
         <f t="shared" si="0"/>
-        <v>1931.25</v>
-      </c>
-      <c r="H144" s="117"/>
-      <c r="I144" s="82"/>
-      <c r="J144" s="117"/>
-      <c r="K144" s="83"/>
-      <c r="L144" s="117"/>
-      <c r="M144" s="117"/>
-      <c r="N144" s="117"/>
-      <c r="O144" s="117"/>
-      <c r="P144" s="117"/>
-      <c r="Q144" s="117"/>
-      <c r="R144" s="117"/>
-      <c r="S144" s="117"/>
-      <c r="T144" s="117"/>
-      <c r="U144" s="117"/>
+        <v>149.35</v>
+      </c>
+      <c r="H144" s="98"/>
+      <c r="I144" s="86">
+        <v>300</v>
+      </c>
+      <c r="J144" s="43"/>
+      <c r="K144" s="83" t="s">
+        <v>454</v>
+      </c>
+      <c r="L144" s="43">
+        <v>7</v>
+      </c>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="43"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="43"/>
+      <c r="U144" s="43"/>
     </row>
     <row r="145" spans="2:21">
       <c r="B145" s="43" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C145" s="43" t="s">
-        <v>457</v>
-      </c>
-      <c r="D145" s="107" t="s">
-        <v>150</v>
+        <v>431</v>
+      </c>
+      <c r="D145" s="108" t="s">
+        <v>63</v>
       </c>
       <c r="E145" s="85">
-        <v>175</v>
+        <v>550</v>
       </c>
       <c r="F145" s="70">
-        <v>185</v>
+        <v>600</v>
       </c>
       <c r="G145" s="139">
         <f t="shared" si="0"/>
-        <v>190.55</v>
+        <v>618</v>
       </c>
       <c r="H145" s="98"/>
-      <c r="I145" s="86">
-        <v>320</v>
-      </c>
+      <c r="I145" s="82"/>
       <c r="J145" s="43"/>
-      <c r="K145" s="83"/>
+      <c r="K145" s="83" t="s">
+        <v>530</v>
+      </c>
       <c r="L145" s="43">
         <v>2</v>
       </c>
@@ -7511,70 +7505,68 @@
       <c r="T145" s="43"/>
       <c r="U145" s="43"/>
     </row>
-    <row r="146" spans="2:21" ht="28.8">
-      <c r="B146" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="C146" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="D146" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="E146" s="85">
-        <v>170</v>
-      </c>
+    <row r="146" spans="2:21">
+      <c r="B146" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="C146" s="117" t="s">
+        <v>441</v>
+      </c>
+      <c r="D146" s="107" t="s">
+        <v>535</v>
+      </c>
+      <c r="E146" s="85"/>
       <c r="F146" s="70">
-        <v>175</v>
+        <v>1875</v>
       </c>
       <c r="G146" s="139">
         <f t="shared" si="0"/>
-        <v>180.25</v>
-      </c>
-      <c r="H146" s="98">
-        <v>219</v>
-      </c>
+        <v>1931.25</v>
+      </c>
+      <c r="H146" s="117"/>
       <c r="I146" s="82"/>
-      <c r="J146" s="43"/>
-      <c r="K146" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="L146" s="43"/>
-      <c r="M146" s="43"/>
-      <c r="N146" s="43"/>
-      <c r="O146" s="43"/>
-      <c r="P146" s="43"/>
-      <c r="Q146" s="43"/>
-      <c r="R146" s="43"/>
-      <c r="S146" s="43"/>
-      <c r="T146" s="43"/>
-      <c r="U146" s="43"/>
-    </row>
-    <row r="147" spans="2:21" ht="28.8">
-      <c r="B147" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="C147" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="D147" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="E147" s="43"/>
+      <c r="J146" s="117"/>
+      <c r="K146" s="83"/>
+      <c r="L146" s="117"/>
+      <c r="M146" s="117"/>
+      <c r="N146" s="117"/>
+      <c r="O146" s="117"/>
+      <c r="P146" s="117"/>
+      <c r="Q146" s="117"/>
+      <c r="R146" s="117"/>
+      <c r="S146" s="117"/>
+      <c r="T146" s="117"/>
+      <c r="U146" s="117"/>
+    </row>
+    <row r="147" spans="2:21">
+      <c r="B147" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C147" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D147" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="E147" s="85">
+        <v>175</v>
+      </c>
       <c r="F147" s="70">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="G147" s="139">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>190.55</v>
       </c>
       <c r="H147" s="98"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="101" t="s">
-        <v>511</v>
-      </c>
+      <c r="I147" s="86">
+        <v>320</v>
+      </c>
+      <c r="J147" s="43"/>
       <c r="K147" s="83"/>
-      <c r="L147" s="43"/>
+      <c r="L147" s="43">
+        <v>2</v>
+      </c>
       <c r="M147" s="43"/>
       <c r="N147" s="43"/>
       <c r="O147" s="43"/>
@@ -7585,68 +7577,70 @@
       <c r="T147" s="43"/>
       <c r="U147" s="43"/>
     </row>
-    <row r="148" spans="2:21">
-      <c r="B148" s="114" t="s">
-        <v>426</v>
-      </c>
-      <c r="C148" s="114" t="s">
-        <v>420</v>
-      </c>
-      <c r="D148" s="107" t="s">
-        <v>533</v>
-      </c>
-      <c r="E148" s="85"/>
+    <row r="148" spans="2:21" ht="28.8">
+      <c r="B148" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C148" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D148" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="85">
+        <v>170</v>
+      </c>
       <c r="F148" s="70">
-        <v>2000</v>
+        <v>175</v>
       </c>
       <c r="G148" s="139">
         <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="H148" s="114"/>
+        <v>180.25</v>
+      </c>
+      <c r="H148" s="98">
+        <v>219</v>
+      </c>
       <c r="I148" s="82"/>
-      <c r="J148" s="114"/>
-      <c r="K148" s="83"/>
-      <c r="L148" s="114"/>
-      <c r="M148" s="114"/>
-      <c r="N148" s="114"/>
-      <c r="O148" s="114"/>
-      <c r="P148" s="114"/>
-      <c r="Q148" s="114"/>
-      <c r="R148" s="114"/>
-      <c r="S148" s="114"/>
-      <c r="T148" s="114"/>
-      <c r="U148" s="114"/>
-    </row>
-    <row r="149" spans="2:21">
-      <c r="B149" s="43" t="s">
+      <c r="J148" s="43"/>
+      <c r="K148" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="43"/>
+      <c r="P148" s="43"/>
+      <c r="Q148" s="43"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="43"/>
+      <c r="U148" s="43"/>
+    </row>
+    <row r="149" spans="2:21" ht="28.8">
+      <c r="B149" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="D149" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="E149" s="85">
-        <v>325</v>
-      </c>
+      <c r="D149" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="E149" s="43"/>
       <c r="F149" s="70">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G149" s="139">
         <f t="shared" si="0"/>
-        <v>427.45</v>
+        <v>412</v>
       </c>
       <c r="H149" s="98"/>
-      <c r="I149" s="86">
-        <v>680</v>
-      </c>
-      <c r="J149" s="43"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="101" t="s">
+        <v>511</v>
+      </c>
       <c r="K149" s="83"/>
-      <c r="L149" s="43">
-        <v>2</v>
-      </c>
+      <c r="L149" s="43"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
       <c r="O149" s="43"/>
@@ -7658,53 +7652,67 @@
       <c r="U149" s="43"/>
     </row>
     <row r="150" spans="2:21">
-      <c r="B150" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="C150" s="65" t="s">
-        <v>507</v>
+      <c r="B150" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="C150" s="114" t="s">
+        <v>420</v>
       </c>
       <c r="D150" s="107" t="s">
-        <v>202</v>
+        <v>533</v>
       </c>
       <c r="E150" s="85"/>
       <c r="F150" s="70">
-        <v>275</v>
+        <v>2000</v>
       </c>
       <c r="G150" s="139">
         <f t="shared" si="0"/>
-        <v>283.25</v>
-      </c>
-      <c r="H150" s="98"/>
+        <v>2060</v>
+      </c>
+      <c r="H150" s="114"/>
       <c r="I150" s="82"/>
-      <c r="J150" s="43"/>
+      <c r="J150" s="114"/>
       <c r="K150" s="83"/>
-      <c r="L150" s="43"/>
-      <c r="M150" s="43"/>
-      <c r="N150" s="43"/>
-      <c r="O150" s="43"/>
-      <c r="P150" s="43"/>
-      <c r="Q150" s="43"/>
-      <c r="R150" s="43"/>
-      <c r="S150" s="43"/>
-      <c r="T150" s="43"/>
-      <c r="U150" s="43"/>
+      <c r="L150" s="114"/>
+      <c r="M150" s="114"/>
+      <c r="N150" s="114"/>
+      <c r="O150" s="114"/>
+      <c r="P150" s="114"/>
+      <c r="Q150" s="114"/>
+      <c r="R150" s="114"/>
+      <c r="S150" s="114"/>
+      <c r="T150" s="114"/>
+      <c r="U150" s="114"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="43"/>
+      <c r="B151" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D151" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151" s="85">
+        <v>325</v>
+      </c>
+      <c r="F151" s="70">
+        <v>415</v>
+      </c>
       <c r="G151" s="139">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>427.45</v>
       </c>
       <c r="H151" s="98"/>
-      <c r="I151" s="82"/>
+      <c r="I151" s="86">
+        <v>680</v>
+      </c>
       <c r="J151" s="43"/>
       <c r="K151" s="83"/>
-      <c r="L151" s="43"/>
+      <c r="L151" s="43">
+        <v>2</v>
+      </c>
       <c r="M151" s="43"/>
       <c r="N151" s="43"/>
       <c r="O151" s="43"/>
@@ -7716,116 +7724,119 @@
       <c r="U151" s="43"/>
     </row>
     <row r="152" spans="2:21">
-      <c r="B152" s="106"/>
-      <c r="C152" s="106"/>
-      <c r="D152" s="88"/>
+      <c r="B152" s="65" t="s">
+        <v>463</v>
+      </c>
+      <c r="C152" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="D152" s="107" t="s">
+        <v>202</v>
+      </c>
       <c r="E152" s="85"/>
-      <c r="F152" s="106"/>
+      <c r="F152" s="70">
+        <v>275</v>
+      </c>
       <c r="G152" s="139">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H152" s="106"/>
+        <v>283.25</v>
+      </c>
+      <c r="H152" s="98"/>
       <c r="I152" s="82"/>
-      <c r="J152" s="106"/>
+      <c r="J152" s="43"/>
       <c r="K152" s="83"/>
-      <c r="L152" s="106"/>
-      <c r="M152" s="106"/>
-      <c r="N152" s="106"/>
-      <c r="O152" s="106"/>
-      <c r="P152" s="106"/>
-      <c r="Q152" s="106"/>
-      <c r="R152" s="106"/>
-      <c r="S152" s="106"/>
-      <c r="T152" s="106"/>
-      <c r="U152" s="106"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
+      <c r="P152" s="43"/>
+      <c r="Q152" s="43"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="43"/>
+      <c r="T152" s="43"/>
+      <c r="U152" s="43"/>
     </row>
     <row r="153" spans="2:21">
-      <c r="B153" s="98"/>
-      <c r="C153" s="98"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
       <c r="D153" s="88"/>
       <c r="E153" s="85"/>
-      <c r="F153" s="98"/>
+      <c r="F153" s="43"/>
       <c r="G153" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H153" s="98"/>
       <c r="I153" s="82"/>
-      <c r="J153" s="98"/>
+      <c r="J153" s="43"/>
       <c r="K153" s="83"/>
-      <c r="L153" s="98"/>
-      <c r="M153" s="98"/>
-      <c r="N153" s="98"/>
-      <c r="O153" s="98"/>
-      <c r="P153" s="98"/>
-      <c r="Q153" s="98"/>
-      <c r="R153" s="98"/>
-      <c r="S153" s="98"/>
-      <c r="T153" s="98"/>
-      <c r="U153" s="98"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
     </row>
     <row r="154" spans="2:21">
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="82"/>
+      <c r="B154" s="106"/>
+      <c r="C154" s="106"/>
+      <c r="D154" s="88"/>
       <c r="E154" s="85"/>
-      <c r="F154" s="43"/>
+      <c r="F154" s="106"/>
       <c r="G154" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H154" s="98"/>
+      <c r="H154" s="106"/>
       <c r="I154" s="82"/>
-      <c r="J154" s="43"/>
+      <c r="J154" s="106"/>
       <c r="K154" s="83"/>
-      <c r="L154" s="43"/>
-      <c r="M154" s="43"/>
-      <c r="N154" s="43"/>
-      <c r="O154" s="43"/>
-      <c r="P154" s="43"/>
-      <c r="Q154" s="43"/>
-      <c r="R154" s="43"/>
-      <c r="S154" s="43"/>
-      <c r="T154" s="43"/>
-      <c r="U154" s="43"/>
+      <c r="L154" s="106"/>
+      <c r="M154" s="106"/>
+      <c r="N154" s="106"/>
+      <c r="O154" s="106"/>
+      <c r="P154" s="106"/>
+      <c r="Q154" s="106"/>
+      <c r="R154" s="106"/>
+      <c r="S154" s="106"/>
+      <c r="T154" s="106"/>
+      <c r="U154" s="106"/>
     </row>
     <row r="155" spans="2:21">
-      <c r="B155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="C155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="D155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="E155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="F155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="G155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="H155" s="99"/>
-      <c r="I155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="J155" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="K155" s="99" t="s">
-        <v>481</v>
-      </c>
+      <c r="B155" s="98"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="98"/>
+      <c r="G155" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="98"/>
+      <c r="I155" s="82"/>
+      <c r="J155" s="98"/>
+      <c r="K155" s="83"/>
+      <c r="L155" s="98"/>
+      <c r="M155" s="98"/>
+      <c r="N155" s="98"/>
+      <c r="O155" s="98"/>
+      <c r="P155" s="98"/>
+      <c r="Q155" s="98"/>
+      <c r="R155" s="98"/>
+      <c r="S155" s="98"/>
+      <c r="T155" s="98"/>
+      <c r="U155" s="98"/>
     </row>
     <row r="156" spans="2:21">
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="82"/>
       <c r="E156" s="85"/>
-      <c r="F156" s="82"/>
+      <c r="F156" s="43"/>
       <c r="G156" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7846,142 +7857,133 @@
       <c r="U156" s="43"/>
     </row>
     <row r="157" spans="2:21">
-      <c r="B157" s="98"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="82"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="82"/>
-      <c r="G157" s="98"/>
-      <c r="H157" s="98"/>
-      <c r="I157" s="82"/>
-      <c r="J157" s="98"/>
-      <c r="K157" s="83"/>
-      <c r="L157" s="98"/>
-      <c r="M157" s="98"/>
-      <c r="N157" s="98"/>
-      <c r="O157" s="98"/>
-      <c r="P157" s="98"/>
-      <c r="Q157" s="98"/>
-      <c r="R157" s="98"/>
-      <c r="S157" s="98"/>
-      <c r="T157" s="98"/>
-      <c r="U157" s="98"/>
+      <c r="B157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="C157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="D157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="E157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="F157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="G157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="H157" s="99"/>
+      <c r="I157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="J157" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K157" s="99" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="158" spans="2:21">
-      <c r="B158" s="98"/>
-      <c r="C158" s="98"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
       <c r="D158" s="82"/>
       <c r="E158" s="85"/>
       <c r="F158" s="82"/>
-      <c r="G158" s="98"/>
+      <c r="G158" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H158" s="98"/>
       <c r="I158" s="82"/>
-      <c r="J158" s="98"/>
+      <c r="J158" s="43"/>
       <c r="K158" s="83"/>
-      <c r="L158" s="98"/>
-      <c r="M158" s="98"/>
-      <c r="N158" s="98"/>
-      <c r="O158" s="98"/>
-      <c r="P158" s="98"/>
-      <c r="Q158" s="98"/>
-      <c r="R158" s="98"/>
-      <c r="S158" s="98"/>
-      <c r="T158" s="98"/>
-      <c r="U158" s="98"/>
+      <c r="L158" s="43"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
+      <c r="O158" s="43"/>
+      <c r="P158" s="43"/>
+      <c r="Q158" s="43"/>
+      <c r="R158" s="43"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="43"/>
+      <c r="U158" s="43"/>
     </row>
     <row r="159" spans="2:21">
-      <c r="B159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="C159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="D159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="E159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="F159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="G159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="H159" s="89"/>
-      <c r="I159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="J159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="K159" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="L159" s="43"/>
-      <c r="M159" s="43"/>
-      <c r="N159" s="43"/>
-      <c r="O159" s="43"/>
-      <c r="P159" s="43"/>
-      <c r="Q159" s="43"/>
-      <c r="R159" s="43"/>
-      <c r="S159" s="43"/>
-      <c r="T159" s="43"/>
-      <c r="U159" s="43"/>
-    </row>
-    <row r="160" spans="2:21" ht="28.8">
-      <c r="B160" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="C160" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="D160" s="90" t="s">
-        <v>383</v>
-      </c>
-      <c r="E160" s="85">
-        <v>950</v>
-      </c>
-      <c r="F160" s="43">
-        <v>1220</v>
-      </c>
-      <c r="G160" s="43">
-        <f>F160*1.03</f>
-        <v>1256.6000000000001</v>
-      </c>
+      <c r="B159" s="98"/>
+      <c r="C159" s="98"/>
+      <c r="D159" s="82"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="82"/>
+      <c r="G159" s="98"/>
+      <c r="H159" s="98"/>
+      <c r="I159" s="82"/>
+      <c r="J159" s="98"/>
+      <c r="K159" s="83"/>
+      <c r="L159" s="98"/>
+      <c r="M159" s="98"/>
+      <c r="N159" s="98"/>
+      <c r="O159" s="98"/>
+      <c r="P159" s="98"/>
+      <c r="Q159" s="98"/>
+      <c r="R159" s="98"/>
+      <c r="S159" s="98"/>
+      <c r="T159" s="98"/>
+      <c r="U159" s="98"/>
+    </row>
+    <row r="160" spans="2:21">
+      <c r="B160" s="98"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="82"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="82"/>
+      <c r="G160" s="98"/>
       <c r="H160" s="98"/>
       <c r="I160" s="82"/>
-      <c r="J160" s="43"/>
-      <c r="K160" s="83" t="s">
-        <v>417</v>
-      </c>
-      <c r="L160" s="43"/>
-      <c r="M160" s="43"/>
-      <c r="N160" s="43"/>
-      <c r="O160" s="43"/>
-      <c r="P160" s="43"/>
-      <c r="Q160" s="43"/>
-      <c r="R160" s="43"/>
-      <c r="S160" s="43"/>
-      <c r="T160" s="43"/>
-      <c r="U160" s="43"/>
-    </row>
-    <row r="161" spans="2:23">
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="91" t="s">
-        <v>392</v>
-      </c>
-      <c r="E161" s="85"/>
-      <c r="F161" s="82"/>
-      <c r="G161" s="139">
-        <f t="shared" ref="G161:G167" si="1">F161*1.03</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="98"/>
-      <c r="I161" s="82"/>
-      <c r="J161" s="43"/>
-      <c r="K161" s="83"/>
+      <c r="J160" s="98"/>
+      <c r="K160" s="83"/>
+      <c r="L160" s="98"/>
+      <c r="M160" s="98"/>
+      <c r="N160" s="98"/>
+      <c r="O160" s="98"/>
+      <c r="P160" s="98"/>
+      <c r="Q160" s="98"/>
+      <c r="R160" s="98"/>
+      <c r="S160" s="98"/>
+      <c r="T160" s="98"/>
+      <c r="U160" s="98"/>
+    </row>
+    <row r="161" spans="2:21">
+      <c r="B161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="D161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="E161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="F161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="G161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="H161" s="89"/>
+      <c r="I161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="J161" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="K161" s="89" t="s">
+        <v>391</v>
+      </c>
       <c r="L161" s="43"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
@@ -7993,22 +7995,32 @@
       <c r="T161" s="43"/>
       <c r="U161" s="43"/>
     </row>
-    <row r="162" spans="2:23">
-      <c r="B162" s="43"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="85"/>
-      <c r="F162" s="82"/>
-      <c r="G162" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="162" spans="2:21" ht="28.8">
+      <c r="B162" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="C162" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D162" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="E162" s="85">
+        <v>950</v>
+      </c>
+      <c r="F162" s="43">
+        <v>1220</v>
+      </c>
+      <c r="G162" s="43">
+        <f>F162*1.03</f>
+        <v>1256.6000000000001</v>
       </c>
       <c r="H162" s="98"/>
       <c r="I162" s="82"/>
       <c r="J162" s="43"/>
-      <c r="K162" s="83"/>
+      <c r="K162" s="83" t="s">
+        <v>417</v>
+      </c>
       <c r="L162" s="43"/>
       <c r="M162" s="43"/>
       <c r="N162" s="43"/>
@@ -8020,16 +8032,16 @@
       <c r="T162" s="43"/>
       <c r="U162" s="43"/>
     </row>
-    <row r="163" spans="2:23">
+    <row r="163" spans="2:21">
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E163" s="85"/>
       <c r="F163" s="82"/>
       <c r="G163" s="139">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G163:G169" si="1">F163*1.03</f>
         <v>0</v>
       </c>
       <c r="H163" s="98"/>
@@ -8047,35 +8059,23 @@
       <c r="T163" s="43"/>
       <c r="U163" s="43"/>
     </row>
-    <row r="164" spans="2:23">
-      <c r="B164" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="C164" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="D164" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E164" s="85">
-        <v>850</v>
-      </c>
-      <c r="F164" s="85">
-        <v>935</v>
-      </c>
+    <row r="164" spans="2:21">
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="85"/>
+      <c r="F164" s="82"/>
       <c r="G164" s="139">
         <f t="shared" si="1"/>
-        <v>963.05000000000007</v>
+        <v>0</v>
       </c>
       <c r="H164" s="98"/>
       <c r="I164" s="82"/>
       <c r="J164" s="43"/>
-      <c r="K164" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="L164" s="43">
-        <v>4</v>
-      </c>
+      <c r="K164" s="83"/>
+      <c r="L164" s="43"/>
       <c r="M164" s="43"/>
       <c r="N164" s="43"/>
       <c r="O164" s="43"/>
@@ -8086,26 +8086,22 @@
       <c r="T164" s="43"/>
       <c r="U164" s="43"/>
     </row>
-    <row r="165" spans="2:23">
+    <row r="165" spans="2:21">
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
-      <c r="D165" s="90" t="s">
-        <v>75</v>
+      <c r="D165" s="91" t="s">
+        <v>393</v>
       </c>
       <c r="E165" s="85"/>
-      <c r="F165" s="43">
-        <v>115</v>
-      </c>
+      <c r="F165" s="82"/>
       <c r="G165" s="139">
         <f t="shared" si="1"/>
-        <v>118.45</v>
+        <v>0</v>
       </c>
       <c r="H165" s="98"/>
       <c r="I165" s="82"/>
       <c r="J165" s="43"/>
-      <c r="K165" s="83" t="s">
-        <v>452</v>
-      </c>
+      <c r="K165" s="83"/>
       <c r="L165" s="43"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
@@ -8117,21 +8113,35 @@
       <c r="T165" s="43"/>
       <c r="U165" s="43"/>
     </row>
-    <row r="166" spans="2:23">
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
-      <c r="D166" s="91"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="82"/>
+    <row r="166" spans="2:21">
+      <c r="B166" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="C166" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D166" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="E166" s="85">
+        <v>850</v>
+      </c>
+      <c r="F166" s="85">
+        <v>935</v>
+      </c>
       <c r="G166" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>963.05000000000007</v>
       </c>
       <c r="H166" s="98"/>
       <c r="I166" s="82"/>
       <c r="J166" s="43"/>
-      <c r="K166" s="83"/>
-      <c r="L166" s="43"/>
+      <c r="K166" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="L166" s="43">
+        <v>4</v>
+      </c>
       <c r="M166" s="43"/>
       <c r="N166" s="43"/>
       <c r="O166" s="43"/>
@@ -8142,20 +8152,26 @@
       <c r="T166" s="43"/>
       <c r="U166" s="43"/>
     </row>
-    <row r="167" spans="2:23">
+    <row r="167" spans="2:21">
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
-      <c r="D167" s="91"/>
+      <c r="D167" s="90" t="s">
+        <v>75</v>
+      </c>
       <c r="E167" s="85"/>
-      <c r="F167" s="82"/>
+      <c r="F167" s="43">
+        <v>115</v>
+      </c>
       <c r="G167" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118.45</v>
       </c>
       <c r="H167" s="98"/>
       <c r="I167" s="82"/>
       <c r="J167" s="43"/>
-      <c r="K167" s="83"/>
+      <c r="K167" s="83" t="s">
+        <v>452</v>
+      </c>
       <c r="L167" s="43"/>
       <c r="M167" s="43"/>
       <c r="N167" s="43"/>
@@ -8167,13 +8183,16 @@
       <c r="T167" s="43"/>
       <c r="U167" s="43"/>
     </row>
-    <row r="168" spans="2:23">
+    <row r="168" spans="2:21">
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
       <c r="D168" s="91"/>
       <c r="E168" s="85"/>
       <c r="F168" s="82"/>
-      <c r="G168" s="43"/>
+      <c r="G168" s="139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H168" s="98"/>
       <c r="I168" s="82"/>
       <c r="J168" s="43"/>
@@ -8189,13 +8208,16 @@
       <c r="T168" s="43"/>
       <c r="U168" s="43"/>
     </row>
-    <row r="169" spans="2:23">
+    <row r="169" spans="2:21">
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
-      <c r="D169" s="82"/>
+      <c r="D169" s="91"/>
       <c r="E169" s="85"/>
       <c r="F169" s="82"/>
-      <c r="G169" s="43"/>
+      <c r="G169" s="139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H169" s="98"/>
       <c r="I169" s="82"/>
       <c r="J169" s="43"/>
@@ -8211,10 +8233,10 @@
       <c r="T169" s="43"/>
       <c r="U169" s="43"/>
     </row>
-    <row r="170" spans="2:23">
+    <row r="170" spans="2:21">
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
-      <c r="D170" s="82"/>
+      <c r="D170" s="91"/>
       <c r="E170" s="85"/>
       <c r="F170" s="82"/>
       <c r="G170" s="43"/>
@@ -8233,7 +8255,7 @@
       <c r="T170" s="43"/>
       <c r="U170" s="43"/>
     </row>
-    <row r="171" spans="2:23">
+    <row r="171" spans="2:21">
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
       <c r="D171" s="82"/>
@@ -8255,7 +8277,7 @@
       <c r="T171" s="43"/>
       <c r="U171" s="43"/>
     </row>
-    <row r="172" spans="2:23">
+    <row r="172" spans="2:21">
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
       <c r="D172" s="82"/>
@@ -8277,16 +8299,15 @@
       <c r="T172" s="43"/>
       <c r="U172" s="43"/>
     </row>
-    <row r="173" spans="2:23">
+    <row r="173" spans="2:21">
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
       <c r="D173" s="82"/>
       <c r="E173" s="85"/>
+      <c r="F173" s="82"/>
       <c r="G173" s="43"/>
       <c r="H173" s="98"/>
-      <c r="I173" s="43" t="s">
-        <v>350</v>
-      </c>
+      <c r="I173" s="82"/>
       <c r="J173" s="43"/>
       <c r="K173" s="83"/>
       <c r="L173" s="43"/>
@@ -8300,19 +8321,15 @@
       <c r="T173" s="43"/>
       <c r="U173" s="43"/>
     </row>
-    <row r="174" spans="2:23" ht="28.8">
-      <c r="B174" s="165" t="s">
-        <v>433</v>
-      </c>
-      <c r="C174" s="165"/>
+    <row r="174" spans="2:21">
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
       <c r="D174" s="82"/>
-      <c r="E174" s="43"/>
-      <c r="G174" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="I174" s="73">
-        <v>42330</v>
-      </c>
+      <c r="E174" s="85"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="98"/>
+      <c r="I174" s="82"/>
       <c r="J174" s="43"/>
       <c r="K174" s="83"/>
       <c r="L174" s="43"/>
@@ -8326,81 +8343,45 @@
       <c r="T174" s="43"/>
       <c r="U174" s="43"/>
     </row>
-    <row r="175" spans="2:23" s="81" customFormat="1" ht="70.2">
-      <c r="B175" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="C175" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="D175" s="75" t="s">
-        <v>536</v>
-      </c>
-      <c r="E175" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="F175" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="G175" s="116" t="s">
-        <v>555</v>
-      </c>
-      <c r="H175" s="102" t="s">
-        <v>508</v>
-      </c>
-      <c r="I175" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="J175" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="K175" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="L175" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="M175" s="80"/>
-      <c r="N175" s="80"/>
-      <c r="O175" s="80"/>
-      <c r="P175" s="80"/>
-      <c r="Q175" s="80"/>
-      <c r="R175" s="80"/>
-      <c r="S175" s="80"/>
-      <c r="T175" s="80"/>
-      <c r="U175" s="80"/>
-      <c r="V175" s="59"/>
-      <c r="W175" s="59"/>
-    </row>
-    <row r="176" spans="2:23">
-      <c r="B176" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="C176" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="D176" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E176" s="85">
-        <v>475</v>
-      </c>
-      <c r="F176" s="43">
-        <v>550</v>
-      </c>
-      <c r="G176" s="43">
-        <f>F176*1.03</f>
-        <v>566.5</v>
-      </c>
-      <c r="H176" s="98"/>
-      <c r="I176" s="82"/>
+    <row r="175" spans="2:21">
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="82"/>
+      <c r="E175" s="85"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="98"/>
+      <c r="I175" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J175" s="43"/>
+      <c r="K175" s="83"/>
+      <c r="L175" s="43"/>
+      <c r="M175" s="43"/>
+      <c r="N175" s="43"/>
+      <c r="O175" s="43"/>
+      <c r="P175" s="43"/>
+      <c r="Q175" s="43"/>
+      <c r="R175" s="43"/>
+      <c r="S175" s="43"/>
+      <c r="T175" s="43"/>
+      <c r="U175" s="43"/>
+    </row>
+    <row r="176" spans="2:21" ht="28.8">
+      <c r="B176" s="152" t="s">
+        <v>433</v>
+      </c>
+      <c r="C176" s="152"/>
+      <c r="D176" s="82"/>
+      <c r="E176" s="43"/>
+      <c r="G176" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="I176" s="73">
+        <v>42330</v>
+      </c>
       <c r="J176" s="43"/>
-      <c r="K176" s="83" t="s">
-        <v>466</v>
-      </c>
-      <c r="L176" s="43">
-        <v>3</v>
-      </c>
+      <c r="K176" s="83"/>
+      <c r="L176" s="43"/>
       <c r="M176" s="43"/>
       <c r="N176" s="43"/>
       <c r="O176" s="43"/>
@@ -8411,73 +8392,80 @@
       <c r="T176" s="43"/>
       <c r="U176" s="43"/>
     </row>
-    <row r="177" spans="2:21" ht="28.8">
-      <c r="B177" s="106" t="s">
+    <row r="177" spans="2:23" s="81" customFormat="1" ht="69.150000000000006">
+      <c r="B177" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C177" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D177" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="E177" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="F177" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="G177" s="116" t="s">
+        <v>555</v>
+      </c>
+      <c r="H177" s="102" t="s">
+        <v>508</v>
+      </c>
+      <c r="I177" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="J177" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="K177" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="L177" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="M177" s="80"/>
+      <c r="N177" s="80"/>
+      <c r="O177" s="80"/>
+      <c r="P177" s="80"/>
+      <c r="Q177" s="80"/>
+      <c r="R177" s="80"/>
+      <c r="S177" s="80"/>
+      <c r="T177" s="80"/>
+      <c r="U177" s="80"/>
+      <c r="V177" s="59"/>
+      <c r="W177" s="59"/>
+    </row>
+    <row r="178" spans="2:23">
+      <c r="B178" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="C177" s="106" t="s">
-        <v>515</v>
-      </c>
-      <c r="D177" s="111" t="s">
-        <v>516</v>
-      </c>
-      <c r="E177" s="85"/>
-      <c r="F177" s="106">
-        <v>750</v>
-      </c>
-      <c r="G177" s="139">
-        <f t="shared" ref="G177:G197" si="2">F177*1.03</f>
-        <v>772.5</v>
-      </c>
-      <c r="H177" s="106"/>
-      <c r="I177" s="82"/>
-      <c r="J177" s="106"/>
-      <c r="K177" s="83" t="s">
-        <v>517</v>
-      </c>
-      <c r="L177" s="106"/>
-      <c r="M177" s="106"/>
-      <c r="N177" s="106"/>
-      <c r="O177" s="106"/>
-      <c r="P177" s="106"/>
-      <c r="Q177" s="106"/>
-      <c r="R177" s="106"/>
-      <c r="S177" s="106"/>
-      <c r="T177" s="106"/>
-      <c r="U177" s="106"/>
-    </row>
-    <row r="178" spans="2:21" ht="28.8">
-      <c r="B178" s="65" t="s">
-        <v>432</v>
-      </c>
       <c r="C178" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="D178" s="111" t="s">
-        <v>190</v>
+        <v>467</v>
+      </c>
+      <c r="D178" s="110" t="s">
+        <v>69</v>
       </c>
       <c r="E178" s="85">
-        <v>225</v>
-      </c>
-      <c r="F178" s="70">
-        <v>255</v>
-      </c>
-      <c r="G178" s="139">
-        <f t="shared" si="2"/>
-        <v>262.65000000000003</v>
-      </c>
-      <c r="H178" s="98">
-        <v>327</v>
-      </c>
-      <c r="I178" s="86">
-        <v>415</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F178" s="43">
+        <v>550</v>
+      </c>
+      <c r="G178" s="43">
+        <f>F178*1.03</f>
+        <v>566.5</v>
+      </c>
+      <c r="H178" s="98"/>
+      <c r="I178" s="82"/>
       <c r="J178" s="43"/>
       <c r="K178" s="83" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="L178" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M178" s="43"/>
       <c r="N178" s="43"/>
@@ -8489,40 +8477,42 @@
       <c r="T178" s="43"/>
       <c r="U178" s="43"/>
     </row>
-    <row r="179" spans="2:21" ht="28.8">
-      <c r="B179" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="C179" s="101" t="s">
-        <v>444</v>
+    <row r="179" spans="2:23" ht="28.8">
+      <c r="B179" s="106" t="s">
+        <v>468</v>
+      </c>
+      <c r="C179" s="106" t="s">
+        <v>515</v>
       </c>
       <c r="D179" s="111" t="s">
-        <v>512</v>
-      </c>
-      <c r="E179" s="43"/>
-      <c r="F179" s="70">
-        <v>175</v>
+        <v>516</v>
+      </c>
+      <c r="E179" s="85"/>
+      <c r="F179" s="106">
+        <v>750</v>
       </c>
       <c r="G179" s="139">
-        <f t="shared" si="2"/>
-        <v>180.25</v>
-      </c>
-      <c r="H179" s="98"/>
+        <f t="shared" ref="G179:G199" si="2">F179*1.03</f>
+        <v>772.5</v>
+      </c>
+      <c r="H179" s="106"/>
       <c r="I179" s="82"/>
-      <c r="J179" s="43"/>
-      <c r="K179" s="83"/>
-      <c r="L179" s="43"/>
-      <c r="M179" s="43"/>
-      <c r="N179" s="43"/>
-      <c r="O179" s="43"/>
-      <c r="P179" s="43"/>
-      <c r="Q179" s="43"/>
-      <c r="R179" s="43"/>
-      <c r="S179" s="43"/>
-      <c r="T179" s="43"/>
-      <c r="U179" s="43"/>
-    </row>
-    <row r="180" spans="2:21">
+      <c r="J179" s="106"/>
+      <c r="K179" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="L179" s="106"/>
+      <c r="M179" s="106"/>
+      <c r="N179" s="106"/>
+      <c r="O179" s="106"/>
+      <c r="P179" s="106"/>
+      <c r="Q179" s="106"/>
+      <c r="R179" s="106"/>
+      <c r="S179" s="106"/>
+      <c r="T179" s="106"/>
+      <c r="U179" s="106"/>
+    </row>
+    <row r="180" spans="2:23" ht="28.8">
       <c r="B180" s="65" t="s">
         <v>432</v>
       </c>
@@ -8530,21 +8520,31 @@
         <v>431</v>
       </c>
       <c r="D180" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="E180" s="85"/>
-      <c r="F180" s="43">
-        <v>675</v>
+        <v>190</v>
+      </c>
+      <c r="E180" s="85">
+        <v>225</v>
+      </c>
+      <c r="F180" s="70">
+        <v>255</v>
       </c>
       <c r="G180" s="139">
         <f t="shared" si="2"/>
-        <v>695.25</v>
-      </c>
-      <c r="H180" s="98"/>
-      <c r="I180" s="82"/>
+        <v>262.65000000000003</v>
+      </c>
+      <c r="H180" s="98">
+        <v>327</v>
+      </c>
+      <c r="I180" s="86">
+        <v>415</v>
+      </c>
       <c r="J180" s="43"/>
-      <c r="K180" s="83"/>
-      <c r="L180" s="43"/>
+      <c r="K180" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="L180" s="43">
+        <v>1</v>
+      </c>
       <c r="M180" s="43"/>
       <c r="N180" s="43"/>
       <c r="O180" s="43"/>
@@ -8555,37 +8555,29 @@
       <c r="T180" s="43"/>
       <c r="U180" s="43"/>
     </row>
-    <row r="181" spans="2:21" ht="43.2">
-      <c r="B181" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="C181" s="65" t="s">
-        <v>431</v>
+    <row r="181" spans="2:23">
+      <c r="B181" s="101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C181" s="101" t="s">
+        <v>444</v>
       </c>
       <c r="D181" s="111" t="s">
-        <v>377</v>
-      </c>
-      <c r="E181" s="85">
-        <v>2500</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="E181" s="43"/>
       <c r="F181" s="70">
-        <v>2350</v>
+        <v>175</v>
       </c>
       <c r="G181" s="139">
         <f t="shared" si="2"/>
-        <v>2420.5</v>
-      </c>
-      <c r="H181" s="98">
-        <v>2940</v>
-      </c>
-      <c r="I181" s="86"/>
+        <v>180.25</v>
+      </c>
+      <c r="H181" s="98"/>
+      <c r="I181" s="82"/>
       <c r="J181" s="43"/>
-      <c r="K181" s="83" t="s">
-        <v>480</v>
-      </c>
-      <c r="L181" s="43">
-        <v>2</v>
-      </c>
+      <c r="K181" s="83"/>
+      <c r="L181" s="43"/>
       <c r="M181" s="43"/>
       <c r="N181" s="43"/>
       <c r="O181" s="43"/>
@@ -8596,37 +8588,29 @@
       <c r="T181" s="43"/>
       <c r="U181" s="43"/>
     </row>
-    <row r="182" spans="2:21">
+    <row r="182" spans="2:23">
       <c r="B182" s="65" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C182" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="D182" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="E182" s="85">
-        <v>110</v>
-      </c>
-      <c r="F182" s="70">
-        <v>105</v>
+        <v>431</v>
+      </c>
+      <c r="D182" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182" s="85"/>
+      <c r="F182" s="43">
+        <v>675</v>
       </c>
       <c r="G182" s="139">
         <f t="shared" si="2"/>
-        <v>108.15</v>
-      </c>
-      <c r="H182" s="98">
-        <v>144</v>
-      </c>
-      <c r="I182" s="86">
-        <v>175</v>
-      </c>
+        <v>695.25</v>
+      </c>
+      <c r="H182" s="98"/>
+      <c r="I182" s="82"/>
       <c r="J182" s="43"/>
       <c r="K182" s="83"/>
-      <c r="L182" s="43">
-        <v>1</v>
-      </c>
+      <c r="L182" s="43"/>
       <c r="M182" s="43"/>
       <c r="N182" s="43"/>
       <c r="O182" s="43"/>
@@ -8637,31 +8621,37 @@
       <c r="T182" s="43"/>
       <c r="U182" s="43"/>
     </row>
-    <row r="183" spans="2:21">
+    <row r="183" spans="2:23" ht="43.2">
       <c r="B183" s="65" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C183" s="65" t="s">
-        <v>487</v>
-      </c>
-      <c r="D183" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="E183" s="85"/>
-      <c r="F183" s="43">
-        <v>175</v>
+        <v>431</v>
+      </c>
+      <c r="D183" s="111" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" s="85">
+        <v>2500</v>
+      </c>
+      <c r="F183" s="70">
+        <v>2350</v>
       </c>
       <c r="G183" s="139">
         <f t="shared" si="2"/>
-        <v>180.25</v>
-      </c>
-      <c r="H183" s="98"/>
-      <c r="I183" s="82"/>
+        <v>2420.5</v>
+      </c>
+      <c r="H183" s="98">
+        <v>2940</v>
+      </c>
+      <c r="I183" s="86"/>
       <c r="J183" s="43"/>
       <c r="K183" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="L183" s="43"/>
+        <v>480</v>
+      </c>
+      <c r="L183" s="43">
+        <v>2</v>
+      </c>
       <c r="M183" s="43"/>
       <c r="N183" s="43"/>
       <c r="O183" s="43"/>
@@ -8672,31 +8662,37 @@
       <c r="T183" s="43"/>
       <c r="U183" s="43"/>
     </row>
-    <row r="184" spans="2:21" ht="28.8">
+    <row r="184" spans="2:23">
       <c r="B184" s="65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C184" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="D184" s="111" t="s">
-        <v>531</v>
+        <v>467</v>
+      </c>
+      <c r="D184" s="110" t="s">
+        <v>175</v>
       </c>
       <c r="E184" s="85">
-        <v>1900</v>
+        <v>110</v>
       </c>
       <c r="F184" s="70">
-        <v>1900</v>
+        <v>105</v>
       </c>
       <c r="G184" s="139">
         <f t="shared" si="2"/>
-        <v>1957</v>
-      </c>
-      <c r="H184" s="98"/>
-      <c r="I184" s="82"/>
+        <v>108.15</v>
+      </c>
+      <c r="H184" s="98">
+        <v>144</v>
+      </c>
+      <c r="I184" s="86">
+        <v>175</v>
+      </c>
       <c r="J184" s="43"/>
       <c r="K184" s="83"/>
-      <c r="L184" s="43"/>
+      <c r="L184" s="43">
+        <v>1</v>
+      </c>
       <c r="M184" s="43"/>
       <c r="N184" s="43"/>
       <c r="O184" s="43"/>
@@ -8707,30 +8703,31 @@
       <c r="T184" s="43"/>
       <c r="U184" s="43"/>
     </row>
-    <row r="185" spans="2:21">
+    <row r="185" spans="2:23">
       <c r="B185" s="65" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="C185" s="65" t="s">
-        <v>423</v>
-      </c>
-      <c r="D185" s="111" t="s">
-        <v>206</v>
+        <v>487</v>
+      </c>
+      <c r="D185" s="110" t="s">
+        <v>67</v>
       </c>
       <c r="E185" s="85"/>
-      <c r="F185" s="70">
-        <v>90</v>
+      <c r="F185" s="43">
+        <v>175</v>
       </c>
       <c r="G185" s="139">
         <f t="shared" si="2"/>
-        <v>92.7</v>
+        <v>180.25</v>
       </c>
       <c r="H185" s="98"/>
-      <c r="I185" s="86">
-        <v>170</v>
-      </c>
+      <c r="I185" s="82"/>
       <c r="J185" s="43"/>
-      <c r="K185" s="87"/>
+      <c r="K185" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="L185" s="43"/>
       <c r="M185" s="43"/>
       <c r="N185" s="43"/>
       <c r="O185" s="43"/>
@@ -8741,32 +8738,30 @@
       <c r="T185" s="43"/>
       <c r="U185" s="43"/>
     </row>
-    <row r="186" spans="2:21">
+    <row r="186" spans="2:23">
       <c r="B186" s="65" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="C186" s="65" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D186" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="E186" s="85"/>
+        <v>531</v>
+      </c>
+      <c r="E186" s="85">
+        <v>1900</v>
+      </c>
       <c r="F186" s="70">
-        <v>135</v>
+        <v>1900</v>
       </c>
       <c r="G186" s="139">
         <f t="shared" si="2"/>
-        <v>139.05000000000001</v>
+        <v>1957</v>
       </c>
       <c r="H186" s="98"/>
-      <c r="I186" s="86">
-        <v>240</v>
-      </c>
+      <c r="I186" s="82"/>
       <c r="J186" s="43"/>
-      <c r="K186" s="83" t="s">
-        <v>532</v>
-      </c>
+      <c r="K186" s="83"/>
       <c r="L186" s="43"/>
       <c r="M186" s="43"/>
       <c r="N186" s="43"/>
@@ -8778,29 +8773,30 @@
       <c r="T186" s="43"/>
       <c r="U186" s="43"/>
     </row>
-    <row r="187" spans="2:21">
+    <row r="187" spans="2:23">
       <c r="B187" s="65" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="C187" s="65" t="s">
-        <v>497</v>
-      </c>
-      <c r="D187" s="110" t="s">
-        <v>55</v>
+        <v>423</v>
+      </c>
+      <c r="D187" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="E187" s="85"/>
-      <c r="F187" s="43">
-        <v>175</v>
+      <c r="F187" s="70">
+        <v>90</v>
       </c>
       <c r="G187" s="139">
         <f t="shared" si="2"/>
-        <v>180.25</v>
+        <v>92.7</v>
       </c>
       <c r="H187" s="98"/>
-      <c r="I187" s="82"/>
+      <c r="I187" s="86">
+        <v>170</v>
+      </c>
       <c r="J187" s="43"/>
-      <c r="K187" s="83"/>
-      <c r="L187" s="43"/>
+      <c r="K187" s="87"/>
       <c r="M187" s="43"/>
       <c r="N187" s="43"/>
       <c r="O187" s="43"/>
@@ -8811,29 +8807,31 @@
       <c r="T187" s="43"/>
       <c r="U187" s="43"/>
     </row>
-    <row r="188" spans="2:21">
-      <c r="B188" s="43"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="110" t="s">
-        <v>379</v>
+    <row r="188" spans="2:23">
+      <c r="B188" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="D188" s="111" t="s">
+        <v>195</v>
       </c>
       <c r="E188" s="85"/>
       <c r="F188" s="70">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="G188" s="139">
         <f t="shared" si="2"/>
-        <v>283.25</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="H188" s="98"/>
       <c r="I188" s="86">
-        <v>430</v>
-      </c>
-      <c r="J188" s="113" t="s">
-        <v>525</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J188" s="43"/>
       <c r="K188" s="83" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="L188" s="43"/>
       <c r="M188" s="43"/>
@@ -8846,32 +8844,28 @@
       <c r="T188" s="43"/>
       <c r="U188" s="43"/>
     </row>
-    <row r="189" spans="2:21">
+    <row r="189" spans="2:23">
       <c r="B189" s="65" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C189" s="65" t="s">
-        <v>503</v>
-      </c>
-      <c r="D189" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="E189" s="85">
-        <v>125</v>
-      </c>
-      <c r="F189" s="70">
-        <v>130</v>
+        <v>497</v>
+      </c>
+      <c r="D189" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="85"/>
+      <c r="F189" s="43">
+        <v>175</v>
       </c>
       <c r="G189" s="139">
         <f t="shared" si="2"/>
-        <v>133.9</v>
+        <v>180.25</v>
       </c>
       <c r="H189" s="98"/>
       <c r="I189" s="82"/>
       <c r="J189" s="43"/>
-      <c r="K189" s="83" t="s">
-        <v>502</v>
-      </c>
+      <c r="K189" s="83"/>
       <c r="L189" s="43"/>
       <c r="M189" s="43"/>
       <c r="N189" s="43"/>
@@ -8883,28 +8877,30 @@
       <c r="T189" s="43"/>
       <c r="U189" s="43"/>
     </row>
-    <row r="190" spans="2:21" ht="28.8">
-      <c r="B190" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="C190" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="D190" s="111" t="s">
-        <v>348</v>
+    <row r="190" spans="2:23">
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="110" t="s">
+        <v>379</v>
       </c>
       <c r="E190" s="85"/>
-      <c r="F190" s="43">
-        <v>135</v>
+      <c r="F190" s="70">
+        <v>275</v>
       </c>
       <c r="G190" s="139">
         <f t="shared" si="2"/>
-        <v>139.05000000000001</v>
+        <v>283.25</v>
       </c>
       <c r="H190" s="98"/>
-      <c r="I190" s="82"/>
-      <c r="J190" s="43"/>
-      <c r="K190" s="83"/>
+      <c r="I190" s="86">
+        <v>430</v>
+      </c>
+      <c r="J190" s="113" t="s">
+        <v>525</v>
+      </c>
+      <c r="K190" s="83" t="s">
+        <v>499</v>
+      </c>
       <c r="L190" s="43"/>
       <c r="M190" s="43"/>
       <c r="N190" s="43"/>
@@ -8916,28 +8912,32 @@
       <c r="T190" s="43"/>
       <c r="U190" s="43"/>
     </row>
-    <row r="191" spans="2:21">
+    <row r="191" spans="2:23">
       <c r="B191" s="65" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C191" s="65" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D191" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="E191" s="85"/>
+        <v>338</v>
+      </c>
+      <c r="E191" s="85">
+        <v>125</v>
+      </c>
       <c r="F191" s="70">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="G191" s="139">
         <f t="shared" si="2"/>
-        <v>257.5</v>
+        <v>133.9</v>
       </c>
       <c r="H191" s="98"/>
       <c r="I191" s="82"/>
       <c r="J191" s="43"/>
-      <c r="K191" s="83"/>
+      <c r="K191" s="83" t="s">
+        <v>502</v>
+      </c>
       <c r="L191" s="43"/>
       <c r="M191" s="43"/>
       <c r="N191" s="43"/>
@@ -8949,28 +8949,26 @@
       <c r="T191" s="43"/>
       <c r="U191" s="43"/>
     </row>
-    <row r="192" spans="2:21">
-      <c r="B192" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="C192" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="D192" s="110" t="s">
-        <v>62</v>
+    <row r="192" spans="2:23">
+      <c r="B192" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="C192" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D192" s="111" t="s">
+        <v>348</v>
       </c>
       <c r="E192" s="85"/>
-      <c r="F192" s="70">
-        <v>464</v>
+      <c r="F192" s="43">
+        <v>135</v>
       </c>
       <c r="G192" s="139">
         <f t="shared" si="2"/>
-        <v>477.92</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="H192" s="98"/>
-      <c r="I192" s="86">
-        <v>850</v>
-      </c>
+      <c r="I192" s="82"/>
       <c r="J192" s="43"/>
       <c r="K192" s="83"/>
       <c r="L192" s="43"/>
@@ -8985,14 +8983,22 @@
       <c r="U192" s="43"/>
     </row>
     <row r="193" spans="2:21">
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="82"/>
+      <c r="B193" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="D193" s="111" t="s">
+        <v>196</v>
+      </c>
       <c r="E193" s="85"/>
-      <c r="F193" s="43"/>
+      <c r="F193" s="70">
+        <v>250</v>
+      </c>
       <c r="G193" s="139">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>257.5</v>
       </c>
       <c r="H193" s="98"/>
       <c r="I193" s="82"/>
@@ -9010,24 +9016,68 @@
       <c r="U193" s="43"/>
     </row>
     <row r="194" spans="2:21">
-      <c r="D194" s="93"/>
-      <c r="E194" s="94"/>
+      <c r="B194" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D194" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E194" s="85"/>
+      <c r="F194" s="70">
+        <v>464</v>
+      </c>
       <c r="G194" s="139">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H194" s="66"/>
-      <c r="I194" s="93"/>
+        <v>477.92</v>
+      </c>
+      <c r="H194" s="98"/>
+      <c r="I194" s="86">
+        <v>850</v>
+      </c>
+      <c r="J194" s="43"/>
+      <c r="K194" s="83"/>
+      <c r="L194" s="43"/>
+      <c r="M194" s="43"/>
+      <c r="N194" s="43"/>
+      <c r="O194" s="43"/>
+      <c r="P194" s="43"/>
+      <c r="Q194" s="43"/>
+      <c r="R194" s="43"/>
+      <c r="S194" s="43"/>
+      <c r="T194" s="43"/>
+      <c r="U194" s="43"/>
     </row>
     <row r="195" spans="2:21">
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="82"/>
+      <c r="E195" s="85"/>
+      <c r="F195" s="43"/>
       <c r="G195" s="139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H195" s="66"/>
-      <c r="I195" s="93"/>
+      <c r="H195" s="98"/>
+      <c r="I195" s="82"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="83"/>
+      <c r="L195" s="43"/>
+      <c r="M195" s="43"/>
+      <c r="N195" s="43"/>
+      <c r="O195" s="43"/>
+      <c r="P195" s="43"/>
+      <c r="Q195" s="43"/>
+      <c r="R195" s="43"/>
+      <c r="S195" s="43"/>
+      <c r="T195" s="43"/>
+      <c r="U195" s="43"/>
     </row>
     <row r="196" spans="2:21">
+      <c r="D196" s="93"/>
+      <c r="E196" s="94"/>
       <c r="G196" s="139">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9043,118 +9093,70 @@
       <c r="H197" s="66"/>
       <c r="I197" s="93"/>
     </row>
-    <row r="198" spans="2:21" ht="25.8" customHeight="1">
-      <c r="B198" s="99" t="s">
+    <row r="198" spans="2:21">
+      <c r="G198" s="139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="66"/>
+      <c r="I198" s="93"/>
+    </row>
+    <row r="199" spans="2:21">
+      <c r="G199" s="139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="66"/>
+      <c r="I199" s="93"/>
+    </row>
+    <row r="200" spans="2:21" ht="25.8" customHeight="1">
+      <c r="B200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="C198" s="99" t="s">
+      <c r="C200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="D198" s="99" t="s">
+      <c r="D200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="E198" s="99" t="s">
+      <c r="E200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="F198" s="99" t="s">
+      <c r="F200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="G198" s="99" t="s">
+      <c r="G200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="H198" s="99"/>
-      <c r="I198" s="99" t="s">
+      <c r="H200" s="99"/>
+      <c r="I200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="J198" s="99" t="s">
+      <c r="J200" s="99" t="s">
         <v>481</v>
       </c>
-      <c r="K198" s="99" t="s">
+      <c r="K200" s="99" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="199" spans="2:21">
-      <c r="B199" s="43"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="E199" s="85"/>
-      <c r="F199" s="43">
-        <v>1200</v>
-      </c>
-      <c r="G199" s="43">
-        <f>F199*1.03</f>
-        <v>1236</v>
-      </c>
-      <c r="H199" s="98"/>
-      <c r="I199" s="82"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="83"/>
-      <c r="L199" s="43"/>
-      <c r="M199" s="43"/>
-      <c r="N199" s="43"/>
-      <c r="O199" s="43"/>
-      <c r="P199" s="43"/>
-      <c r="Q199" s="43"/>
-      <c r="R199" s="43"/>
-      <c r="S199" s="43"/>
-      <c r="T199" s="43"/>
-      <c r="U199" s="43"/>
-    </row>
-    <row r="200" spans="2:21">
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E200" s="85"/>
-      <c r="F200" s="43">
-        <v>750</v>
-      </c>
-      <c r="G200" s="139">
-        <f t="shared" ref="G200:G205" si="3">F200*1.03</f>
-        <v>772.5</v>
-      </c>
-      <c r="H200" s="98"/>
-      <c r="I200" s="86">
-        <v>1800</v>
-      </c>
-      <c r="J200" s="43"/>
-      <c r="K200" s="83"/>
-      <c r="L200" s="43"/>
-      <c r="M200" s="43"/>
-      <c r="N200" s="43"/>
-      <c r="O200" s="43"/>
-      <c r="P200" s="43"/>
-      <c r="Q200" s="43"/>
-      <c r="R200" s="43"/>
-      <c r="S200" s="43"/>
-      <c r="T200" s="43"/>
-      <c r="U200" s="43"/>
     </row>
     <row r="201" spans="2:21">
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
-      <c r="D201" s="141" t="s">
-        <v>182</v>
+      <c r="D201" s="82" t="s">
+        <v>390</v>
       </c>
       <c r="E201" s="85"/>
       <c r="F201" s="43">
-        <v>1250</v>
-      </c>
-      <c r="G201" s="139">
-        <f t="shared" si="3"/>
-        <v>1287.5</v>
+        <v>1200</v>
+      </c>
+      <c r="G201" s="43">
+        <f>F201*1.03</f>
+        <v>1236</v>
       </c>
       <c r="H201" s="98"/>
-      <c r="I201" s="86">
-        <v>4170</v>
-      </c>
+      <c r="I201" s="82"/>
       <c r="J201" s="43"/>
-      <c r="K201" s="83" t="s">
-        <v>453</v>
-      </c>
+      <c r="K201" s="83"/>
       <c r="L201" s="43"/>
       <c r="M201" s="43"/>
       <c r="N201" s="43"/>
@@ -9169,28 +9171,24 @@
     <row r="202" spans="2:21">
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
-      <c r="D202" s="141" t="s">
-        <v>64</v>
-      </c>
-      <c r="E202" s="85">
-        <v>200</v>
-      </c>
-      <c r="F202" s="98">
-        <v>125</v>
+      <c r="D202" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202" s="85"/>
+      <c r="F202" s="43">
+        <v>750</v>
       </c>
       <c r="G202" s="139">
-        <f t="shared" si="3"/>
-        <v>128.75</v>
+        <f t="shared" ref="G202:G207" si="3">F202*1.03</f>
+        <v>772.5</v>
       </c>
       <c r="H202" s="98"/>
       <c r="I202" s="86">
-        <v>384</v>
+        <v>1800</v>
       </c>
       <c r="J202" s="43"/>
-      <c r="K202" s="98"/>
-      <c r="L202" s="42">
-        <v>5</v>
-      </c>
+      <c r="K202" s="83"/>
+      <c r="L202" s="43"/>
       <c r="M202" s="43"/>
       <c r="N202" s="43"/>
       <c r="O202" s="43"/>
@@ -9202,25 +9200,74 @@
       <c r="U202" s="43"/>
     </row>
     <row r="203" spans="2:21">
+      <c r="B203" s="43"/>
+      <c r="C203" s="43"/>
+      <c r="D203" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" s="85"/>
+      <c r="F203" s="43">
+        <v>1250</v>
+      </c>
       <c r="G203" s="139">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H203" s="66"/>
-      <c r="I203" s="93"/>
+        <v>1287.5</v>
+      </c>
+      <c r="H203" s="98"/>
+      <c r="I203" s="86">
+        <v>4170</v>
+      </c>
+      <c r="J203" s="43"/>
+      <c r="K203" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="L203" s="43"/>
+      <c r="M203" s="43"/>
+      <c r="N203" s="43"/>
+      <c r="O203" s="43"/>
+      <c r="P203" s="43"/>
+      <c r="Q203" s="43"/>
+      <c r="R203" s="43"/>
+      <c r="S203" s="43"/>
+      <c r="T203" s="43"/>
+      <c r="U203" s="43"/>
     </row>
     <row r="204" spans="2:21">
+      <c r="B204" s="43"/>
+      <c r="C204" s="43"/>
+      <c r="D204" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="85">
+        <v>200</v>
+      </c>
+      <c r="F204" s="98">
+        <v>125</v>
+      </c>
       <c r="G204" s="139">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H204" s="66"/>
-      <c r="I204" s="93"/>
+        <v>128.75</v>
+      </c>
+      <c r="H204" s="98"/>
+      <c r="I204" s="86">
+        <v>384</v>
+      </c>
+      <c r="J204" s="43"/>
+      <c r="K204" s="98"/>
+      <c r="L204" s="42">
+        <v>5</v>
+      </c>
+      <c r="M204" s="43"/>
+      <c r="N204" s="43"/>
+      <c r="O204" s="43"/>
+      <c r="P204" s="43"/>
+      <c r="Q204" s="43"/>
+      <c r="R204" s="43"/>
+      <c r="S204" s="43"/>
+      <c r="T204" s="43"/>
+      <c r="U204" s="43"/>
     </row>
     <row r="205" spans="2:21">
-      <c r="D205" s="140" t="s">
-        <v>556</v>
-      </c>
       <c r="G205" s="139">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9229,132 +9276,85 @@
       <c r="I205" s="93"/>
     </row>
     <row r="206" spans="2:21">
-      <c r="B206" s="89" t="s">
+      <c r="G206" s="139">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H206" s="66"/>
+      <c r="I206" s="93"/>
+    </row>
+    <row r="207" spans="2:21">
+      <c r="D207" s="140" t="s">
+        <v>556</v>
+      </c>
+      <c r="G207" s="139">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H207" s="66"/>
+      <c r="I207" s="93"/>
+    </row>
+    <row r="208" spans="2:21">
+      <c r="B208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="C206" s="89" t="s">
+      <c r="C208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="D206" s="89" t="s">
+      <c r="D208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="E206" s="89" t="s">
+      <c r="E208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="F206" s="89" t="s">
+      <c r="F208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="G206" s="89" t="s">
+      <c r="G208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="H206" s="89"/>
-      <c r="I206" s="89" t="s">
+      <c r="H208" s="89"/>
+      <c r="I208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="J206" s="89" t="s">
+      <c r="J208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="K206" s="89" t="s">
+      <c r="K208" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="L206" s="65"/>
-      <c r="M206" s="65"/>
-      <c r="N206" s="65"/>
-      <c r="O206" s="65"/>
-      <c r="P206" s="65"/>
-      <c r="Q206" s="65"/>
-      <c r="R206" s="65"/>
-      <c r="S206" s="65"/>
-      <c r="T206" s="65"/>
-      <c r="U206" s="65"/>
-    </row>
-    <row r="207" spans="2:21" ht="28.8">
-      <c r="B207" s="65"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="90" t="s">
-        <v>345</v>
-      </c>
-      <c r="E207" s="85">
-        <v>225</v>
-      </c>
-      <c r="F207" s="85">
-        <v>225</v>
-      </c>
-      <c r="G207" s="43">
-        <f>F207*1.03</f>
-        <v>231.75</v>
-      </c>
-      <c r="H207" s="98"/>
-      <c r="I207" s="82"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="83" t="s">
-        <v>464</v>
-      </c>
-      <c r="L207" s="43"/>
-      <c r="M207" s="43"/>
-      <c r="N207" s="43"/>
-      <c r="O207" s="43"/>
-      <c r="P207" s="43"/>
-      <c r="Q207" s="43"/>
-      <c r="R207" s="43"/>
-      <c r="S207" s="43"/>
-      <c r="T207" s="43"/>
-      <c r="U207" s="43"/>
-    </row>
-    <row r="208" spans="2:21">
-      <c r="B208" s="65"/>
-      <c r="C208" s="65"/>
-      <c r="D208" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="E208" s="85"/>
-      <c r="F208" s="43">
-        <v>475</v>
-      </c>
-      <c r="G208" s="139">
-        <f t="shared" ref="G208:G251" si="4">F208*1.03</f>
-        <v>489.25</v>
-      </c>
-      <c r="H208" s="98"/>
-      <c r="I208" s="82"/>
-      <c r="J208" s="43"/>
-      <c r="K208" s="83" t="s">
-        <v>465</v>
-      </c>
-      <c r="L208" s="43">
-        <v>1</v>
-      </c>
-      <c r="M208" s="43"/>
-      <c r="N208" s="43"/>
-      <c r="O208" s="43"/>
-      <c r="P208" s="43"/>
-      <c r="Q208" s="43"/>
-      <c r="R208" s="43"/>
-      <c r="S208" s="43"/>
-      <c r="T208" s="43"/>
-      <c r="U208" s="43"/>
-    </row>
-    <row r="209" spans="2:21">
+      <c r="L208" s="65"/>
+      <c r="M208" s="65"/>
+      <c r="N208" s="65"/>
+      <c r="O208" s="65"/>
+      <c r="P208" s="65"/>
+      <c r="Q208" s="65"/>
+      <c r="R208" s="65"/>
+      <c r="S208" s="65"/>
+      <c r="T208" s="65"/>
+      <c r="U208" s="65"/>
+    </row>
+    <row r="209" spans="2:21" ht="28.8">
       <c r="B209" s="65"/>
       <c r="C209" s="65"/>
-      <c r="D209" s="140" t="s">
-        <v>324</v>
-      </c>
-      <c r="E209" s="85"/>
+      <c r="D209" s="90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E209" s="85">
+        <v>225</v>
+      </c>
       <c r="F209" s="85">
-        <v>700</v>
-      </c>
-      <c r="G209" s="139">
-        <f t="shared" si="4"/>
-        <v>721</v>
-      </c>
-      <c r="H209" s="85"/>
-      <c r="I209" s="86">
-        <v>1900</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G209" s="43">
+        <f>F209*1.03</f>
+        <v>231.75</v>
+      </c>
+      <c r="H209" s="98"/>
+      <c r="I209" s="82"/>
       <c r="J209" s="43"/>
       <c r="K209" s="83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L209" s="43"/>
       <c r="M209" s="43"/>
@@ -9371,23 +9371,25 @@
       <c r="B210" s="65"/>
       <c r="C210" s="65"/>
       <c r="D210" s="140" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="E210" s="85"/>
-      <c r="F210" s="85">
-        <v>450</v>
+      <c r="F210" s="43">
+        <v>475</v>
       </c>
       <c r="G210" s="139">
-        <f t="shared" si="4"/>
-        <v>463.5</v>
-      </c>
-      <c r="H210" s="85"/>
+        <f t="shared" ref="G210:G253" si="4">F210*1.03</f>
+        <v>489.25</v>
+      </c>
+      <c r="H210" s="98"/>
       <c r="I210" s="82"/>
       <c r="J210" s="43"/>
       <c r="K210" s="83" t="s">
-        <v>471</v>
-      </c>
-      <c r="L210" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="L210" s="43">
+        <v>1</v>
+      </c>
       <c r="M210" s="43"/>
       <c r="N210" s="43"/>
       <c r="O210" s="43"/>
@@ -9399,28 +9401,28 @@
       <c r="U210" s="43"/>
     </row>
     <row r="211" spans="2:21">
-      <c r="B211" s="43"/>
-      <c r="C211" s="43"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="65"/>
       <c r="D211" s="140" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="E211" s="85"/>
       <c r="F211" s="85">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G211" s="139">
         <f t="shared" si="4"/>
-        <v>1545</v>
+        <v>721</v>
       </c>
       <c r="H211" s="85"/>
-      <c r="I211" s="82"/>
+      <c r="I211" s="86">
+        <v>1900</v>
+      </c>
       <c r="J211" s="43"/>
       <c r="K211" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="L211" s="43">
-        <v>1</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="L211" s="43"/>
       <c r="M211" s="43"/>
       <c r="N211" s="43"/>
       <c r="O211" s="43"/>
@@ -9432,27 +9434,25 @@
       <c r="U211" s="43"/>
     </row>
     <row r="212" spans="2:21">
-      <c r="B212" s="43"/>
-      <c r="C212" s="43"/>
-      <c r="D212" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E212" s="85">
-        <v>350</v>
-      </c>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="E212" s="85"/>
       <c r="F212" s="85">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G212" s="139">
         <f t="shared" si="4"/>
-        <v>515</v>
+        <v>463.5</v>
       </c>
       <c r="H212" s="85"/>
       <c r="I212" s="82"/>
-      <c r="J212" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="K212" s="83"/>
+      <c r="J212" s="43"/>
+      <c r="K212" s="83" t="s">
+        <v>471</v>
+      </c>
       <c r="L212" s="43"/>
       <c r="M212" s="43"/>
       <c r="N212" s="43"/>
@@ -9468,15 +9468,15 @@
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
       <c r="D213" s="140" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="E213" s="85"/>
       <c r="F213" s="85">
-        <v>125</v>
+        <v>1500</v>
       </c>
       <c r="G213" s="139">
         <f t="shared" si="4"/>
-        <v>128.75</v>
+        <v>1545</v>
       </c>
       <c r="H213" s="85"/>
       <c r="I213" s="82"/>
@@ -9484,7 +9484,9 @@
       <c r="K213" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="L213" s="43"/>
+      <c r="L213" s="43">
+        <v>1</v>
+      </c>
       <c r="M213" s="43"/>
       <c r="N213" s="43"/>
       <c r="O213" s="43"/>
@@ -9498,28 +9500,26 @@
     <row r="214" spans="2:21">
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
-      <c r="D214" s="140" t="s">
-        <v>388</v>
+      <c r="D214" s="91" t="s">
+        <v>68</v>
       </c>
       <c r="E214" s="85">
+        <v>350</v>
+      </c>
+      <c r="F214" s="85">
         <v>500</v>
-      </c>
-      <c r="F214" s="85">
-        <v>450</v>
       </c>
       <c r="G214" s="139">
         <f t="shared" si="4"/>
-        <v>463.5</v>
+        <v>515</v>
       </c>
       <c r="H214" s="85"/>
       <c r="I214" s="82"/>
-      <c r="J214" s="43"/>
-      <c r="K214" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="L214" s="43">
-        <v>1</v>
-      </c>
+      <c r="J214" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K214" s="83"/>
+      <c r="L214" s="43"/>
       <c r="M214" s="43"/>
       <c r="N214" s="43"/>
       <c r="O214" s="43"/>
@@ -9534,15 +9534,15 @@
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
       <c r="D215" s="140" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="E215" s="85"/>
       <c r="F215" s="85">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="G215" s="139">
         <f t="shared" si="4"/>
-        <v>1236</v>
+        <v>128.75</v>
       </c>
       <c r="H215" s="85"/>
       <c r="I215" s="82"/>
@@ -9564,26 +9564,28 @@
     <row r="216" spans="2:21">
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
-      <c r="D216" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="E216" s="85"/>
+      <c r="D216" s="140" t="s">
+        <v>388</v>
+      </c>
+      <c r="E216" s="85">
+        <v>500</v>
+      </c>
       <c r="F216" s="85">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G216" s="139">
         <f t="shared" si="4"/>
-        <v>515</v>
+        <v>463.5</v>
       </c>
       <c r="H216" s="85"/>
-      <c r="I216" s="86">
-        <v>660</v>
-      </c>
+      <c r="I216" s="82"/>
       <c r="J216" s="43"/>
       <c r="K216" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="L216" s="43"/>
+        <v>483</v>
+      </c>
+      <c r="L216" s="43">
+        <v>1</v>
+      </c>
       <c r="M216" s="43"/>
       <c r="N216" s="43"/>
       <c r="O216" s="43"/>
@@ -9597,26 +9599,22 @@
     <row r="217" spans="2:21">
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
-      <c r="D217" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="E217" s="85">
-        <v>1000</v>
-      </c>
+      <c r="D217" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="E217" s="85"/>
       <c r="F217" s="85">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="G217" s="139">
         <f t="shared" si="4"/>
-        <v>1287.5</v>
+        <v>1236</v>
       </c>
       <c r="H217" s="85"/>
-      <c r="I217" s="86">
-        <v>1700</v>
-      </c>
+      <c r="I217" s="82"/>
       <c r="J217" s="43"/>
       <c r="K217" s="83" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="L217" s="43"/>
       <c r="M217" s="43"/>
@@ -9632,22 +9630,24 @@
     <row r="218" spans="2:21">
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
-      <c r="D218" s="91" t="s">
-        <v>199</v>
+      <c r="D218" s="90" t="s">
+        <v>187</v>
       </c>
       <c r="E218" s="85"/>
-      <c r="F218" s="43">
-        <v>160</v>
+      <c r="F218" s="85">
+        <v>500</v>
       </c>
       <c r="G218" s="139">
         <f t="shared" si="4"/>
-        <v>164.8</v>
-      </c>
-      <c r="H218" s="98"/>
-      <c r="I218" s="82"/>
+        <v>515</v>
+      </c>
+      <c r="H218" s="85"/>
+      <c r="I218" s="86">
+        <v>660</v>
+      </c>
       <c r="J218" s="43"/>
       <c r="K218" s="83" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="L218" s="43"/>
       <c r="M218" s="43"/>
@@ -9663,21 +9663,23 @@
     <row r="219" spans="2:21">
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
-      <c r="D219" s="91" t="s">
-        <v>100</v>
+      <c r="D219" s="90" t="s">
+        <v>177</v>
       </c>
       <c r="E219" s="85">
-        <v>900</v>
-      </c>
-      <c r="F219" s="43">
-        <v>900</v>
+        <v>1000</v>
+      </c>
+      <c r="F219" s="85">
+        <v>1250</v>
       </c>
       <c r="G219" s="139">
         <f t="shared" si="4"/>
-        <v>927</v>
-      </c>
-      <c r="H219" s="98"/>
-      <c r="I219" s="82"/>
+        <v>1287.5</v>
+      </c>
+      <c r="H219" s="85"/>
+      <c r="I219" s="86">
+        <v>1700</v>
+      </c>
       <c r="J219" s="43"/>
       <c r="K219" s="83" t="s">
         <v>453</v>
@@ -9693,25 +9695,25 @@
       <c r="T219" s="43"/>
       <c r="U219" s="43"/>
     </row>
-    <row r="220" spans="2:21" ht="28.8">
+    <row r="220" spans="2:21">
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="90" t="s">
-        <v>389</v>
+      <c r="D220" s="91" t="s">
+        <v>199</v>
       </c>
       <c r="E220" s="85"/>
       <c r="F220" s="43">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="G220" s="139">
         <f t="shared" si="4"/>
-        <v>288.40000000000003</v>
+        <v>164.8</v>
       </c>
       <c r="H220" s="98"/>
       <c r="I220" s="82"/>
       <c r="J220" s="43"/>
       <c r="K220" s="83" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="L220" s="43"/>
       <c r="M220" s="43"/>
@@ -9727,24 +9729,24 @@
     <row r="221" spans="2:21">
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
-      <c r="D221" s="140" t="s">
-        <v>309</v>
-      </c>
-      <c r="E221" s="85"/>
+      <c r="D221" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E221" s="85">
+        <v>900</v>
+      </c>
       <c r="F221" s="43">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G221" s="139">
         <f t="shared" si="4"/>
-        <v>515</v>
+        <v>927</v>
       </c>
       <c r="H221" s="98"/>
       <c r="I221" s="82"/>
-      <c r="J221" s="113" t="s">
-        <v>521</v>
-      </c>
+      <c r="J221" s="43"/>
       <c r="K221" s="83" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="L221" s="43"/>
       <c r="M221" s="43"/>
@@ -9757,29 +9759,25 @@
       <c r="T221" s="43"/>
       <c r="U221" s="43"/>
     </row>
-    <row r="222" spans="2:21" ht="28.8">
+    <row r="222" spans="2:21">
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
-      <c r="D222" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E222" s="85">
-        <v>150</v>
-      </c>
+      <c r="D222" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="E222" s="85"/>
       <c r="F222" s="43">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="G222" s="139">
         <f t="shared" si="4"/>
-        <v>190.55</v>
+        <v>288.40000000000003</v>
       </c>
       <c r="H222" s="98"/>
       <c r="I222" s="82"/>
-      <c r="J222" s="43" t="s">
-        <v>406</v>
-      </c>
+      <c r="J222" s="43"/>
       <c r="K222" s="83" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L222" s="43"/>
       <c r="M222" s="43"/>
@@ -9796,25 +9794,25 @@
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
       <c r="D223" s="140" t="s">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="E223" s="85"/>
       <c r="F223" s="43">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G223" s="139">
         <f t="shared" si="4"/>
-        <v>1545</v>
+        <v>515</v>
       </c>
       <c r="H223" s="98"/>
       <c r="I223" s="82"/>
-      <c r="J223" s="43"/>
+      <c r="J223" s="113" t="s">
+        <v>521</v>
+      </c>
       <c r="K223" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="L223" s="43">
-        <v>5</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="L223" s="43"/>
       <c r="M223" s="43"/>
       <c r="N223" s="43"/>
       <c r="O223" s="43"/>
@@ -9825,27 +9823,29 @@
       <c r="T223" s="43"/>
       <c r="U223" s="43"/>
     </row>
-    <row r="224" spans="2:21">
+    <row r="224" spans="2:21" ht="28.8">
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
       <c r="D224" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E224" s="85"/>
-      <c r="F224" s="82">
-        <v>850</v>
+        <v>82</v>
+      </c>
+      <c r="E224" s="85">
+        <v>150</v>
+      </c>
+      <c r="F224" s="43">
+        <v>185</v>
       </c>
       <c r="G224" s="139">
         <f t="shared" si="4"/>
-        <v>875.5</v>
+        <v>190.55</v>
       </c>
       <c r="H224" s="98"/>
-      <c r="I224" s="86">
-        <v>1140</v>
-      </c>
-      <c r="J224" s="43"/>
+      <c r="I224" s="82"/>
+      <c r="J224" s="43" t="s">
+        <v>406</v>
+      </c>
       <c r="K224" s="83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L224" s="43"/>
       <c r="M224" s="43"/>
@@ -9861,26 +9861,26 @@
     <row r="225" spans="2:21">
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
-      <c r="D225" s="91" t="s">
-        <v>83</v>
+      <c r="D225" s="140" t="s">
+        <v>412</v>
       </c>
       <c r="E225" s="85"/>
       <c r="F225" s="43">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="G225" s="139">
         <f t="shared" si="4"/>
-        <v>463.5</v>
+        <v>1545</v>
       </c>
       <c r="H225" s="98"/>
       <c r="I225" s="82"/>
-      <c r="J225" s="43" t="s">
-        <v>407</v>
-      </c>
+      <c r="J225" s="43"/>
       <c r="K225" s="83" t="s">
-        <v>522</v>
-      </c>
-      <c r="L225" s="43"/>
+        <v>483</v>
+      </c>
+      <c r="L225" s="43">
+        <v>5</v>
+      </c>
       <c r="M225" s="43"/>
       <c r="N225" s="43"/>
       <c r="O225" s="43"/>
@@ -9894,28 +9894,26 @@
     <row r="226" spans="2:21">
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
-      <c r="D226" s="90" t="s">
-        <v>192</v>
+      <c r="D226" s="91" t="s">
+        <v>78</v>
       </c>
       <c r="E226" s="85"/>
-      <c r="F226" s="85">
-        <v>135</v>
+      <c r="F226" s="82">
+        <v>850</v>
       </c>
       <c r="G226" s="139">
         <f t="shared" si="4"/>
-        <v>139.05000000000001</v>
+        <v>875.5</v>
       </c>
       <c r="H226" s="98"/>
       <c r="I226" s="86">
-        <v>195</v>
+        <v>1140</v>
       </c>
       <c r="J226" s="43"/>
       <c r="K226" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="L226" s="43">
-        <v>1</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="L226" s="43"/>
       <c r="M226" s="43"/>
       <c r="N226" s="43"/>
       <c r="O226" s="43"/>
@@ -9929,24 +9927,24 @@
     <row r="227" spans="2:21">
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
-      <c r="D227" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E227" s="85">
-        <v>125</v>
-      </c>
+      <c r="D227" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E227" s="85"/>
       <c r="F227" s="43">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="G227" s="139">
         <f t="shared" si="4"/>
-        <v>128.75</v>
+        <v>463.5</v>
       </c>
       <c r="H227" s="98"/>
       <c r="I227" s="82"/>
-      <c r="J227" s="43"/>
+      <c r="J227" s="43" t="s">
+        <v>407</v>
+      </c>
       <c r="K227" s="83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L227" s="43"/>
       <c r="M227" s="43"/>
@@ -9962,25 +9960,27 @@
     <row r="228" spans="2:21">
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
-      <c r="D228" s="140" t="s">
-        <v>198</v>
+      <c r="D228" s="90" t="s">
+        <v>192</v>
       </c>
       <c r="E228" s="85"/>
-      <c r="F228" s="43">
-        <v>225</v>
+      <c r="F228" s="85">
+        <v>135</v>
       </c>
       <c r="G228" s="139">
         <f t="shared" si="4"/>
-        <v>231.75</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="H228" s="98"/>
-      <c r="I228" s="82"/>
+      <c r="I228" s="86">
+        <v>195</v>
+      </c>
       <c r="J228" s="43"/>
       <c r="K228" s="83" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="L228" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228" s="43"/>
       <c r="N228" s="43"/>
@@ -9995,24 +9995,24 @@
     <row r="229" spans="2:21">
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
-      <c r="D229" s="140" t="s">
-        <v>77</v>
+      <c r="D229" s="90" t="s">
+        <v>14</v>
       </c>
       <c r="E229" s="85">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="F229" s="43">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="G229" s="139">
         <f t="shared" si="4"/>
-        <v>206</v>
+        <v>128.75</v>
       </c>
       <c r="H229" s="98"/>
       <c r="I229" s="82"/>
       <c r="J229" s="43"/>
       <c r="K229" s="83" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="L229" s="43"/>
       <c r="M229" s="43"/>
@@ -10029,25 +10029,25 @@
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
       <c r="D230" s="140" t="s">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="E230" s="85"/>
-      <c r="F230" s="85">
-        <v>100</v>
+      <c r="F230" s="43">
+        <v>225</v>
       </c>
       <c r="G230" s="139">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>231.75</v>
       </c>
       <c r="H230" s="98"/>
-      <c r="I230" s="86">
-        <v>400</v>
-      </c>
+      <c r="I230" s="82"/>
       <c r="J230" s="43"/>
       <c r="K230" s="83" t="s">
         <v>471</v>
       </c>
-      <c r="L230" s="43"/>
+      <c r="L230" s="43">
+        <v>2</v>
+      </c>
       <c r="M230" s="43"/>
       <c r="N230" s="43"/>
       <c r="O230" s="43"/>
@@ -10059,32 +10059,28 @@
       <c r="U230" s="43"/>
     </row>
     <row r="231" spans="2:21">
-      <c r="B231" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="C231" s="43" t="s">
-        <v>422</v>
-      </c>
+      <c r="B231" s="43"/>
+      <c r="C231" s="43"/>
       <c r="D231" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="E231" s="85"/>
+        <v>77</v>
+      </c>
+      <c r="E231" s="85">
+        <v>325</v>
+      </c>
       <c r="F231" s="43">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G231" s="139">
         <f t="shared" si="4"/>
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="H231" s="98"/>
       <c r="I231" s="82"/>
       <c r="J231" s="43"/>
       <c r="K231" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="L231" s="43">
-        <v>2</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="L231" s="43"/>
       <c r="M231" s="43"/>
       <c r="N231" s="43"/>
       <c r="O231" s="43"/>
@@ -10098,24 +10094,24 @@
     <row r="232" spans="2:21">
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
-      <c r="D232" s="91" t="s">
-        <v>81</v>
+      <c r="D232" s="140" t="s">
+        <v>353</v>
       </c>
       <c r="E232" s="85"/>
-      <c r="F232" s="43">
-        <v>1250</v>
+      <c r="F232" s="85">
+        <v>100</v>
       </c>
       <c r="G232" s="139">
         <f t="shared" si="4"/>
-        <v>1287.5</v>
+        <v>103</v>
       </c>
       <c r="H232" s="98"/>
-      <c r="I232" s="82"/>
-      <c r="J232" s="43" t="s">
-        <v>408</v>
-      </c>
+      <c r="I232" s="86">
+        <v>400</v>
+      </c>
+      <c r="J232" s="43"/>
       <c r="K232" s="83" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="L232" s="43"/>
       <c r="M232" s="43"/>
@@ -10129,28 +10125,32 @@
       <c r="U232" s="43"/>
     </row>
     <row r="233" spans="2:21">
-      <c r="B233" s="43"/>
-      <c r="C233" s="43"/>
-      <c r="D233" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E233" s="85">
-        <v>150</v>
-      </c>
+      <c r="B233" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C233" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D233" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="E233" s="85"/>
       <c r="F233" s="43">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="G233" s="139">
         <f t="shared" si="4"/>
-        <v>175.1</v>
+        <v>412</v>
       </c>
       <c r="H233" s="98"/>
       <c r="I233" s="82"/>
       <c r="J233" s="43"/>
       <c r="K233" s="83" t="s">
-        <v>482</v>
-      </c>
-      <c r="L233" s="43"/>
+        <v>418</v>
+      </c>
+      <c r="L233" s="43">
+        <v>2</v>
+      </c>
       <c r="M233" s="43"/>
       <c r="N233" s="43"/>
       <c r="O233" s="43"/>
@@ -10164,20 +10164,22 @@
     <row r="234" spans="2:21">
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
-      <c r="D234" s="90" t="s">
-        <v>86</v>
+      <c r="D234" s="91" t="s">
+        <v>81</v>
       </c>
       <c r="E234" s="85"/>
       <c r="F234" s="43">
-        <v>430</v>
+        <v>1250</v>
       </c>
       <c r="G234" s="139">
         <f t="shared" si="4"/>
-        <v>442.90000000000003</v>
+        <v>1287.5</v>
       </c>
       <c r="H234" s="98"/>
       <c r="I234" s="82"/>
-      <c r="J234" s="43"/>
+      <c r="J234" s="43" t="s">
+        <v>408</v>
+      </c>
       <c r="K234" s="83" t="s">
         <v>453</v>
       </c>
@@ -10192,25 +10194,27 @@
       <c r="T234" s="43"/>
       <c r="U234" s="43"/>
     </row>
-    <row r="235" spans="2:21" ht="28.8">
+    <row r="235" spans="2:21">
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
       <c r="D235" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="E235" s="85"/>
+        <v>85</v>
+      </c>
+      <c r="E235" s="85">
+        <v>150</v>
+      </c>
       <c r="F235" s="43">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="G235" s="139">
         <f t="shared" si="4"/>
-        <v>72.100000000000009</v>
+        <v>175.1</v>
       </c>
       <c r="H235" s="98"/>
       <c r="I235" s="82"/>
       <c r="J235" s="43"/>
       <c r="K235" s="83" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L235" s="43"/>
       <c r="M235" s="43"/>
@@ -10226,16 +10230,16 @@
     <row r="236" spans="2:21">
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
-      <c r="D236" s="91" t="s">
-        <v>58</v>
+      <c r="D236" s="90" t="s">
+        <v>86</v>
       </c>
       <c r="E236" s="85"/>
       <c r="F236" s="43">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="G236" s="139">
         <f t="shared" si="4"/>
-        <v>66.95</v>
+        <v>442.90000000000003</v>
       </c>
       <c r="H236" s="98"/>
       <c r="I236" s="82"/>
@@ -10257,22 +10261,22 @@
     <row r="237" spans="2:21">
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
-      <c r="D237" s="91" t="s">
-        <v>349</v>
+      <c r="D237" s="90" t="s">
+        <v>323</v>
       </c>
       <c r="E237" s="85"/>
       <c r="F237" s="43">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G237" s="139">
         <f t="shared" si="4"/>
-        <v>46.35</v>
+        <v>72.100000000000009</v>
       </c>
       <c r="H237" s="98"/>
       <c r="I237" s="82"/>
       <c r="J237" s="43"/>
       <c r="K237" s="83" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L237" s="43"/>
       <c r="M237" s="43"/>
@@ -10288,22 +10292,22 @@
     <row r="238" spans="2:21">
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
-      <c r="D238" s="90" t="s">
-        <v>92</v>
+      <c r="D238" s="91" t="s">
+        <v>58</v>
       </c>
       <c r="E238" s="85"/>
       <c r="F238" s="43">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="G238" s="139">
         <f t="shared" si="4"/>
-        <v>545.9</v>
+        <v>66.95</v>
       </c>
       <c r="H238" s="98"/>
       <c r="I238" s="82"/>
       <c r="J238" s="43"/>
       <c r="K238" s="83" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="L238" s="43"/>
       <c r="M238" s="43"/>
@@ -10319,24 +10323,22 @@
     <row r="239" spans="2:21">
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
-      <c r="D239" s="90" t="s">
-        <v>80</v>
+      <c r="D239" s="91" t="s">
+        <v>349</v>
       </c>
       <c r="E239" s="85"/>
-      <c r="F239" s="82">
-        <v>75</v>
+      <c r="F239" s="43">
+        <v>45</v>
       </c>
       <c r="G239" s="139">
         <f t="shared" si="4"/>
-        <v>77.25</v>
+        <v>46.35</v>
       </c>
       <c r="H239" s="98"/>
       <c r="I239" s="82"/>
-      <c r="J239" s="43" t="s">
-        <v>409</v>
-      </c>
+      <c r="J239" s="43"/>
       <c r="K239" s="83" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="L239" s="43"/>
       <c r="M239" s="43"/>
@@ -10349,27 +10351,25 @@
       <c r="T239" s="43"/>
       <c r="U239" s="43"/>
     </row>
-    <row r="240" spans="2:21" ht="28.8">
+    <row r="240" spans="2:21">
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
       <c r="D240" s="90" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E240" s="85"/>
       <c r="F240" s="43">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="G240" s="139">
         <f t="shared" si="4"/>
-        <v>216.3</v>
+        <v>545.9</v>
       </c>
       <c r="H240" s="98"/>
-      <c r="I240" s="86">
-        <v>225</v>
-      </c>
+      <c r="I240" s="82"/>
       <c r="J240" s="43"/>
       <c r="K240" s="83" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L240" s="43"/>
       <c r="M240" s="43"/>
@@ -10385,24 +10385,24 @@
     <row r="241" spans="2:21">
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
-      <c r="D241" s="140" t="s">
-        <v>200</v>
+      <c r="D241" s="90" t="s">
+        <v>80</v>
       </c>
       <c r="E241" s="85"/>
-      <c r="F241" s="43">
-        <v>225</v>
+      <c r="F241" s="82">
+        <v>75</v>
       </c>
       <c r="G241" s="139">
         <f t="shared" si="4"/>
-        <v>231.75</v>
+        <v>77.25</v>
       </c>
       <c r="H241" s="98"/>
-      <c r="I241" s="86">
-        <v>645</v>
-      </c>
-      <c r="J241" s="43"/>
+      <c r="I241" s="82"/>
+      <c r="J241" s="43" t="s">
+        <v>409</v>
+      </c>
       <c r="K241" s="83" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="L241" s="43"/>
       <c r="M241" s="43"/>
@@ -10415,27 +10415,27 @@
       <c r="T241" s="43"/>
       <c r="U241" s="43"/>
     </row>
-    <row r="242" spans="2:21">
+    <row r="242" spans="2:21" ht="28.8">
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
       <c r="D242" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E242" s="85">
-        <v>100</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E242" s="85"/>
       <c r="F242" s="43">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="G242" s="139">
         <f t="shared" si="4"/>
-        <v>113.3</v>
+        <v>216.3</v>
       </c>
       <c r="H242" s="98"/>
-      <c r="I242" s="82"/>
+      <c r="I242" s="86">
+        <v>225</v>
+      </c>
       <c r="J242" s="43"/>
       <c r="K242" s="83" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L242" s="43"/>
       <c r="M242" s="43"/>
@@ -10451,22 +10451,24 @@
     <row r="243" spans="2:21">
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
-      <c r="D243" s="90" t="s">
-        <v>194</v>
+      <c r="D243" s="140" t="s">
+        <v>200</v>
       </c>
       <c r="E243" s="85"/>
       <c r="F243" s="43">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="G243" s="139">
         <f t="shared" si="4"/>
-        <v>309</v>
+        <v>231.75</v>
       </c>
       <c r="H243" s="98"/>
-      <c r="I243" s="82"/>
+      <c r="I243" s="86">
+        <v>645</v>
+      </c>
       <c r="J243" s="43"/>
       <c r="K243" s="83" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="L243" s="43"/>
       <c r="M243" s="43"/>
@@ -10482,22 +10484,24 @@
     <row r="244" spans="2:21">
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
-      <c r="D244" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="E244" s="85"/>
+      <c r="D244" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E244" s="85">
+        <v>100</v>
+      </c>
       <c r="F244" s="43">
-        <v>525</v>
+        <v>110</v>
       </c>
       <c r="G244" s="139">
         <f t="shared" si="4"/>
-        <v>540.75</v>
+        <v>113.3</v>
       </c>
       <c r="H244" s="98"/>
       <c r="I244" s="82"/>
       <c r="J244" s="43"/>
       <c r="K244" s="83" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="L244" s="43"/>
       <c r="M244" s="43"/>
@@ -10514,21 +10518,21 @@
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
       <c r="D245" s="90" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="E245" s="85"/>
       <c r="F245" s="43">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G245" s="139">
         <f t="shared" si="4"/>
-        <v>154.5</v>
+        <v>309</v>
       </c>
       <c r="H245" s="98"/>
       <c r="I245" s="82"/>
       <c r="J245" s="43"/>
       <c r="K245" s="83" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L245" s="43"/>
       <c r="M245" s="43"/>
@@ -10545,15 +10549,15 @@
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
       <c r="D246" s="91" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="E246" s="85"/>
       <c r="F246" s="43">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="G246" s="139">
         <f t="shared" si="4"/>
-        <v>55.620000000000005</v>
+        <v>540.75</v>
       </c>
       <c r="H246" s="98"/>
       <c r="I246" s="82"/>
@@ -10575,20 +10579,22 @@
     <row r="247" spans="2:21">
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
-      <c r="D247" s="91" t="s">
-        <v>404</v>
+      <c r="D247" s="90" t="s">
+        <v>90</v>
       </c>
       <c r="E247" s="85"/>
-      <c r="F247" s="43"/>
+      <c r="F247" s="43">
+        <v>150</v>
+      </c>
       <c r="G247" s="139">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>154.5</v>
       </c>
       <c r="H247" s="98"/>
       <c r="I247" s="82"/>
       <c r="J247" s="43"/>
       <c r="K247" s="83" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="L247" s="43"/>
       <c r="M247" s="43"/>
@@ -10604,16 +10610,16 @@
     <row r="248" spans="2:21">
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
-      <c r="D248" s="90" t="s">
-        <v>91</v>
+      <c r="D248" s="91" t="s">
+        <v>207</v>
       </c>
       <c r="E248" s="85"/>
       <c r="F248" s="43">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="G248" s="139">
         <f t="shared" si="4"/>
-        <v>252.35</v>
+        <v>55.620000000000005</v>
       </c>
       <c r="H248" s="98"/>
       <c r="I248" s="82"/>
@@ -10635,24 +10641,20 @@
     <row r="249" spans="2:21">
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
-      <c r="D249" s="90" t="s">
-        <v>70</v>
+      <c r="D249" s="91" t="s">
+        <v>404</v>
       </c>
       <c r="E249" s="85"/>
-      <c r="F249" s="43">
-        <v>835</v>
-      </c>
+      <c r="F249" s="43"/>
       <c r="G249" s="139">
         <f t="shared" si="4"/>
-        <v>860.05000000000007</v>
+        <v>0</v>
       </c>
       <c r="H249" s="98"/>
-      <c r="I249" s="86">
-        <v>1150</v>
-      </c>
+      <c r="I249" s="82"/>
       <c r="J249" s="43"/>
       <c r="K249" s="83" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="L249" s="43"/>
       <c r="M249" s="43"/>
@@ -10669,23 +10671,23 @@
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
       <c r="D250" s="90" t="s">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="E250" s="85"/>
       <c r="F250" s="43">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="G250" s="139">
         <f t="shared" si="4"/>
-        <v>350.2</v>
+        <v>252.35</v>
       </c>
       <c r="H250" s="98"/>
       <c r="I250" s="82"/>
       <c r="J250" s="43"/>
       <c r="K250" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="L250" s="66"/>
+        <v>504</v>
+      </c>
+      <c r="L250" s="43"/>
       <c r="M250" s="43"/>
       <c r="N250" s="43"/>
       <c r="O250" s="43"/>
@@ -10699,24 +10701,26 @@
     <row r="251" spans="2:21">
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
-      <c r="D251" s="91" t="s">
-        <v>405</v>
+      <c r="D251" s="90" t="s">
+        <v>70</v>
       </c>
       <c r="E251" s="85"/>
-      <c r="F251" s="43"/>
+      <c r="F251" s="43">
+        <v>835</v>
+      </c>
       <c r="G251" s="139">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>860.05000000000007</v>
       </c>
       <c r="H251" s="98"/>
-      <c r="I251" s="82"/>
+      <c r="I251" s="86">
+        <v>1150</v>
+      </c>
       <c r="J251" s="43"/>
       <c r="K251" s="83" t="s">
-        <v>471</v>
-      </c>
-      <c r="L251" s="43">
-        <v>2</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="L251" s="43"/>
       <c r="M251" s="43"/>
       <c r="N251" s="43"/>
       <c r="O251" s="43"/>
@@ -10728,17 +10732,69 @@
       <c r="U251" s="43"/>
     </row>
     <row r="252" spans="2:21">
-      <c r="G252" s="43"/>
+      <c r="B252" s="43"/>
+      <c r="C252" s="43"/>
+      <c r="D252" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="E252" s="85"/>
+      <c r="F252" s="43">
+        <v>340</v>
+      </c>
+      <c r="G252" s="139">
+        <f t="shared" si="4"/>
+        <v>350.2</v>
+      </c>
       <c r="H252" s="98"/>
-      <c r="I252" s="65"/>
+      <c r="I252" s="82"/>
+      <c r="J252" s="43"/>
+      <c r="K252" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="L252" s="66"/>
+      <c r="M252" s="43"/>
+      <c r="N252" s="43"/>
+      <c r="O252" s="43"/>
+      <c r="P252" s="43"/>
+      <c r="Q252" s="43"/>
+      <c r="R252" s="43"/>
+      <c r="S252" s="43"/>
+      <c r="T252" s="43"/>
+      <c r="U252" s="43"/>
     </row>
     <row r="253" spans="2:21">
-      <c r="G253" s="65"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="91" t="s">
+        <v>405</v>
+      </c>
+      <c r="E253" s="85"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="H253" s="98"/>
-      <c r="I253" s="65"/>
+      <c r="I253" s="82"/>
+      <c r="J253" s="43"/>
+      <c r="K253" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="L253" s="43">
+        <v>2</v>
+      </c>
+      <c r="M253" s="43"/>
+      <c r="N253" s="43"/>
+      <c r="O253" s="43"/>
+      <c r="P253" s="43"/>
+      <c r="Q253" s="43"/>
+      <c r="R253" s="43"/>
+      <c r="S253" s="43"/>
+      <c r="T253" s="43"/>
+      <c r="U253" s="43"/>
     </row>
     <row r="254" spans="2:21">
-      <c r="G254" s="65"/>
+      <c r="G254" s="43"/>
       <c r="H254" s="98"/>
       <c r="I254" s="65"/>
     </row>
@@ -10748,12 +10804,12 @@
       <c r="I255" s="65"/>
     </row>
     <row r="256" spans="2:21">
-      <c r="G256" s="43"/>
+      <c r="G256" s="65"/>
       <c r="H256" s="98"/>
       <c r="I256" s="65"/>
     </row>
     <row r="257" spans="2:23">
-      <c r="G257" s="43"/>
+      <c r="G257" s="65"/>
       <c r="H257" s="98"/>
       <c r="I257" s="65"/>
     </row>
@@ -10762,304 +10818,248 @@
       <c r="H258" s="98"/>
       <c r="I258" s="65"/>
     </row>
-    <row r="259" spans="2:23" ht="46.8">
-      <c r="D259" s="95" t="s">
-        <v>513</v>
-      </c>
+    <row r="259" spans="2:23">
       <c r="G259" s="43"/>
       <c r="H259" s="98"/>
-      <c r="I259" s="43" t="s">
+      <c r="I259" s="65"/>
+    </row>
+    <row r="260" spans="2:23">
+      <c r="G260" s="43"/>
+      <c r="H260" s="98"/>
+      <c r="I260" s="65"/>
+    </row>
+    <row r="261" spans="2:23" ht="46.1">
+      <c r="D261" s="95" t="s">
+        <v>513</v>
+      </c>
+      <c r="G261" s="43"/>
+      <c r="H261" s="98"/>
+      <c r="I261" s="43" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="260" spans="2:23" ht="28.8">
-      <c r="B260" s="165" t="s">
+    <row r="262" spans="2:23" ht="28.8">
+      <c r="B262" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="C260" s="165"/>
-      <c r="G260" s="72" t="s">
+      <c r="C262" s="152"/>
+      <c r="G262" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="I260" s="73">
+      <c r="I262" s="73">
         <v>42330</v>
       </c>
     </row>
-    <row r="261" spans="2:23" s="81" customFormat="1" ht="46.8">
-      <c r="B261" s="74" t="s">
+    <row r="263" spans="2:23" s="81" customFormat="1" ht="46.1">
+      <c r="B263" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="C261" s="74" t="s">
+      <c r="C263" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="D261" s="75" t="s">
+      <c r="D263" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="E261" s="48" t="s">
+      <c r="E263" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="F261" s="115" t="s">
+      <c r="F263" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="G261" s="116" t="s">
+      <c r="G263" s="116" t="s">
         <v>555</v>
       </c>
-      <c r="H261" s="102" t="s">
+      <c r="H263" s="102" t="s">
         <v>508</v>
       </c>
-      <c r="I261" s="77" t="s">
+      <c r="I263" s="77" t="s">
         <v>509</v>
       </c>
-      <c r="J261" s="78" t="s">
+      <c r="J263" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="K261" s="79" t="s">
+      <c r="K263" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="L261" s="80" t="s">
+      <c r="L263" s="80" t="s">
         <v>411</v>
       </c>
-      <c r="M261" s="80"/>
-      <c r="N261" s="80"/>
-      <c r="O261" s="80"/>
-      <c r="P261" s="80"/>
-      <c r="Q261" s="80"/>
-      <c r="R261" s="80"/>
-      <c r="S261" s="80"/>
-      <c r="T261" s="80"/>
-      <c r="U261" s="80"/>
-      <c r="V261" s="59"/>
-      <c r="W261" s="59"/>
-    </row>
-    <row r="262" spans="2:23">
-      <c r="B262" s="65" t="s">
+      <c r="M263" s="80"/>
+      <c r="N263" s="80"/>
+      <c r="O263" s="80"/>
+      <c r="P263" s="80"/>
+      <c r="Q263" s="80"/>
+      <c r="R263" s="80"/>
+      <c r="S263" s="80"/>
+      <c r="T263" s="80"/>
+      <c r="U263" s="80"/>
+      <c r="V263" s="59"/>
+      <c r="W263" s="59"/>
+    </row>
+    <row r="264" spans="2:23">
+      <c r="B264" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="C262" s="65" t="s">
+      <c r="C264" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="D262" s="112" t="s">
+      <c r="D264" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="E262" s="85">
+      <c r="E264" s="85">
         <v>300</v>
       </c>
-      <c r="F262" s="43">
+      <c r="F264" s="43">
         <v>250</v>
       </c>
-      <c r="G262" s="43">
-        <f>F262*1.03</f>
+      <c r="G264" s="43">
+        <f>F264*1.03</f>
         <v>257.5</v>
       </c>
-      <c r="H262" s="98"/>
-      <c r="I262" s="82"/>
-      <c r="J262" s="65" t="s">
+      <c r="H264" s="98"/>
+      <c r="I264" s="82"/>
+      <c r="J264" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="K262" s="83" t="s">
+      <c r="K264" s="83" t="s">
         <v>418</v>
       </c>
-      <c r="L262" s="43"/>
-      <c r="M262" s="43"/>
-      <c r="N262" s="43"/>
-      <c r="O262" s="43"/>
-      <c r="P262" s="43"/>
-      <c r="Q262" s="43"/>
-      <c r="R262" s="43"/>
-      <c r="S262" s="43"/>
-      <c r="T262" s="43"/>
-      <c r="U262" s="43"/>
-    </row>
-    <row r="263" spans="2:23">
-      <c r="B263" s="65" t="s">
+      <c r="L264" s="43"/>
+      <c r="M264" s="43"/>
+      <c r="N264" s="43"/>
+      <c r="O264" s="43"/>
+      <c r="P264" s="43"/>
+      <c r="Q264" s="43"/>
+      <c r="R264" s="43"/>
+      <c r="S264" s="43"/>
+      <c r="T264" s="43"/>
+      <c r="U264" s="43"/>
+    </row>
+    <row r="265" spans="2:23">
+      <c r="B265" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="C263" s="65" t="s">
+      <c r="C265" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="D263" s="104" t="s">
+      <c r="D265" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="E263" s="85">
+      <c r="E265" s="85">
         <v>80</v>
       </c>
-      <c r="F263" s="70">
+      <c r="F265" s="70">
         <v>110</v>
       </c>
-      <c r="G263" s="139">
-        <f t="shared" ref="G263:G319" si="5">F263*1.03</f>
+      <c r="G265" s="139">
+        <f t="shared" ref="G265:G321" si="5">F265*1.03</f>
         <v>113.3</v>
       </c>
-      <c r="H263" s="98">
+      <c r="H265" s="98">
         <v>159</v>
       </c>
-      <c r="I263" s="86">
+      <c r="I265" s="86">
         <v>200</v>
       </c>
-      <c r="J263" s="43"/>
-      <c r="K263" s="83"/>
-      <c r="L263" s="43"/>
-      <c r="M263" s="43"/>
-      <c r="N263" s="43"/>
-      <c r="O263" s="43"/>
-      <c r="P263" s="43"/>
-      <c r="Q263" s="43"/>
-      <c r="R263" s="43"/>
-      <c r="S263" s="43"/>
-      <c r="T263" s="43"/>
-      <c r="U263" s="43"/>
-    </row>
-    <row r="264" spans="2:23">
-      <c r="B264" s="106" t="s">
+      <c r="J265" s="43"/>
+      <c r="K265" s="83"/>
+      <c r="L265" s="43"/>
+      <c r="M265" s="43"/>
+      <c r="N265" s="43"/>
+      <c r="O265" s="43"/>
+      <c r="P265" s="43"/>
+      <c r="Q265" s="43"/>
+      <c r="R265" s="43"/>
+      <c r="S265" s="43"/>
+      <c r="T265" s="43"/>
+      <c r="U265" s="43"/>
+    </row>
+    <row r="266" spans="2:23">
+      <c r="B266" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="C264" s="106" t="s">
+      <c r="C266" s="106" t="s">
         <v>519</v>
       </c>
-      <c r="D264" s="105" t="s">
+      <c r="D266" s="105" t="s">
         <v>518</v>
       </c>
-      <c r="E264" s="85"/>
-      <c r="F264" s="106">
+      <c r="E266" s="85"/>
+      <c r="F266" s="106">
         <v>150</v>
       </c>
-      <c r="G264" s="139">
+      <c r="G266" s="139">
         <f t="shared" si="5"/>
         <v>154.5</v>
       </c>
-      <c r="H264" s="106"/>
-      <c r="I264" s="86">
+      <c r="H266" s="106"/>
+      <c r="I266" s="86">
         <v>370</v>
       </c>
-      <c r="J264" s="106"/>
-      <c r="K264" s="83"/>
-      <c r="L264" s="106"/>
-      <c r="M264" s="106"/>
-      <c r="N264" s="106"/>
-      <c r="O264" s="106"/>
-      <c r="P264" s="106"/>
-      <c r="Q264" s="106"/>
-      <c r="R264" s="106"/>
-      <c r="S264" s="106"/>
-      <c r="T264" s="106"/>
-      <c r="U264" s="106"/>
-    </row>
-    <row r="265" spans="2:23">
-      <c r="B265" s="106"/>
-      <c r="C265" s="106"/>
-      <c r="D265" s="105" t="s">
+      <c r="J266" s="106"/>
+      <c r="K266" s="83"/>
+      <c r="L266" s="106"/>
+      <c r="M266" s="106"/>
+      <c r="N266" s="106"/>
+      <c r="O266" s="106"/>
+      <c r="P266" s="106"/>
+      <c r="Q266" s="106"/>
+      <c r="R266" s="106"/>
+      <c r="S266" s="106"/>
+      <c r="T266" s="106"/>
+      <c r="U266" s="106"/>
+    </row>
+    <row r="267" spans="2:23">
+      <c r="B267" s="106"/>
+      <c r="C267" s="106"/>
+      <c r="D267" s="105" t="s">
         <v>520</v>
       </c>
-      <c r="E265" s="85"/>
-      <c r="F265" s="70">
+      <c r="E267" s="85"/>
+      <c r="F267" s="70">
         <v>400</v>
       </c>
-      <c r="G265" s="139">
+      <c r="G267" s="139">
         <f t="shared" si="5"/>
         <v>412</v>
       </c>
-      <c r="H265" s="106"/>
-      <c r="I265" s="82"/>
-      <c r="J265" s="106"/>
-      <c r="K265" s="83"/>
-      <c r="L265" s="106"/>
-      <c r="M265" s="106"/>
-      <c r="N265" s="106"/>
-      <c r="O265" s="106"/>
-      <c r="P265" s="106"/>
-      <c r="Q265" s="106"/>
-      <c r="R265" s="106"/>
-      <c r="S265" s="106"/>
-      <c r="T265" s="106"/>
-      <c r="U265" s="106"/>
-    </row>
-    <row r="266" spans="2:23">
-      <c r="B266" s="65" t="s">
+      <c r="H267" s="106"/>
+      <c r="I267" s="82"/>
+      <c r="J267" s="106"/>
+      <c r="K267" s="83"/>
+      <c r="L267" s="106"/>
+      <c r="M267" s="106"/>
+      <c r="N267" s="106"/>
+      <c r="O267" s="106"/>
+      <c r="P267" s="106"/>
+      <c r="Q267" s="106"/>
+      <c r="R267" s="106"/>
+      <c r="S267" s="106"/>
+      <c r="T267" s="106"/>
+      <c r="U267" s="106"/>
+    </row>
+    <row r="268" spans="2:23">
+      <c r="B268" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="C266" s="65" t="s">
+      <c r="C268" s="65" t="s">
         <v>476</v>
       </c>
-      <c r="D266" s="112" t="s">
+      <c r="D268" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="E266" s="85"/>
-      <c r="F266" s="70">
+      <c r="E268" s="85"/>
+      <c r="F268" s="70">
         <v>350</v>
       </c>
-      <c r="G266" s="139">
+      <c r="G268" s="139">
         <f t="shared" si="5"/>
         <v>360.5</v>
       </c>
-      <c r="H266" s="98"/>
-      <c r="I266" s="86">
+      <c r="H268" s="98"/>
+      <c r="I268" s="86">
         <v>580</v>
       </c>
-      <c r="J266" s="43"/>
-      <c r="K266" s="83"/>
-      <c r="L266" s="43"/>
-      <c r="M266" s="43"/>
-      <c r="N266" s="43"/>
-      <c r="O266" s="43"/>
-      <c r="P266" s="43"/>
-      <c r="Q266" s="43"/>
-      <c r="R266" s="43"/>
-      <c r="S266" s="43"/>
-      <c r="T266" s="43"/>
-      <c r="U266" s="43"/>
-    </row>
-    <row r="267" spans="2:23">
-      <c r="B267" s="43"/>
-      <c r="C267" s="43"/>
-      <c r="D267" s="112" t="s">
-        <v>380</v>
-      </c>
-      <c r="E267" s="85"/>
-      <c r="F267" s="70">
-        <v>60</v>
-      </c>
-      <c r="G267" s="139">
-        <f t="shared" si="5"/>
-        <v>61.800000000000004</v>
-      </c>
-      <c r="H267" s="98"/>
-      <c r="I267" s="86">
-        <v>184</v>
-      </c>
-      <c r="J267" s="43"/>
-      <c r="K267" s="83" t="s">
-        <v>524</v>
-      </c>
-      <c r="L267" s="43"/>
-      <c r="M267" s="43"/>
-      <c r="N267" s="43"/>
-      <c r="O267" s="43"/>
-      <c r="P267" s="43"/>
-      <c r="Q267" s="43"/>
-      <c r="R267" s="43"/>
-      <c r="S267" s="43"/>
-      <c r="T267" s="43"/>
-      <c r="U267" s="43"/>
-    </row>
-    <row r="268" spans="2:23">
-      <c r="B268" s="101" t="s">
-        <v>463</v>
-      </c>
-      <c r="C268" s="101" t="s">
-        <v>510</v>
-      </c>
-      <c r="D268" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="E268" s="43"/>
-      <c r="F268" s="43">
-        <v>275</v>
-      </c>
-      <c r="G268" s="139">
-        <f t="shared" si="5"/>
-        <v>283.25</v>
-      </c>
-      <c r="H268" s="98"/>
-      <c r="I268" s="82"/>
       <c r="J268" s="43"/>
       <c r="K268" s="83"/>
       <c r="L268" s="43"/>
@@ -11073,29 +11073,27 @@
       <c r="T268" s="43"/>
       <c r="U268" s="43"/>
     </row>
-    <row r="269" spans="2:23" ht="57.6">
-      <c r="B269" s="65" t="s">
-        <v>445</v>
-      </c>
+    <row r="269" spans="2:23">
+      <c r="B269" s="43"/>
       <c r="C269" s="43"/>
       <c r="D269" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="E269" s="85">
-        <v>225</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E269" s="85"/>
       <c r="F269" s="70">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G269" s="139">
         <f t="shared" si="5"/>
-        <v>206</v>
+        <v>61.800000000000004</v>
       </c>
       <c r="H269" s="98"/>
-      <c r="I269" s="82"/>
+      <c r="I269" s="86">
+        <v>184</v>
+      </c>
       <c r="J269" s="43"/>
       <c r="K269" s="83" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L269" s="43"/>
       <c r="M269" s="43"/>
@@ -11108,23 +11106,23 @@
       <c r="T269" s="43"/>
       <c r="U269" s="43"/>
     </row>
-    <row r="270" spans="2:23" ht="28.8">
-      <c r="B270" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="C270" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="D270" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="E270" s="85"/>
+    <row r="270" spans="2:23">
+      <c r="B270" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="C270" s="101" t="s">
+        <v>510</v>
+      </c>
+      <c r="D270" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="E270" s="43"/>
       <c r="F270" s="43">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="G270" s="139">
         <f t="shared" si="5"/>
-        <v>360.5</v>
+        <v>283.25</v>
       </c>
       <c r="H270" s="98"/>
       <c r="I270" s="82"/>
@@ -11141,28 +11139,30 @@
       <c r="T270" s="43"/>
       <c r="U270" s="43"/>
     </row>
-    <row r="271" spans="2:23">
+    <row r="271" spans="2:23" ht="57.6">
       <c r="B271" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="C271" s="65" t="s">
-        <v>497</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C271" s="43"/>
       <c r="D271" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="E271" s="85"/>
-      <c r="F271" s="43">
-        <v>100</v>
+        <v>178</v>
+      </c>
+      <c r="E271" s="85">
+        <v>225</v>
+      </c>
+      <c r="F271" s="70">
+        <v>200</v>
       </c>
       <c r="G271" s="139">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="H271" s="98"/>
       <c r="I271" s="82"/>
       <c r="J271" s="43"/>
-      <c r="K271" s="83"/>
+      <c r="K271" s="83" t="s">
+        <v>534</v>
+      </c>
       <c r="L271" s="43"/>
       <c r="M271" s="43"/>
       <c r="N271" s="43"/>
@@ -11176,21 +11176,21 @@
     </row>
     <row r="272" spans="2:23">
       <c r="B272" s="65" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="C272" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="D272" s="104" t="s">
-        <v>308</v>
+        <v>491</v>
+      </c>
+      <c r="D272" s="112" t="s">
+        <v>147</v>
       </c>
       <c r="E272" s="85"/>
-      <c r="F272" s="70">
-        <v>400</v>
+      <c r="F272" s="43">
+        <v>350</v>
       </c>
       <c r="G272" s="139">
         <f t="shared" si="5"/>
-        <v>412</v>
+        <v>360.5</v>
       </c>
       <c r="H272" s="98"/>
       <c r="I272" s="82"/>
@@ -11209,21 +11209,21 @@
     </row>
     <row r="273" spans="2:21">
       <c r="B273" s="65" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="C273" s="65" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D273" s="112" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E273" s="85"/>
       <c r="F273" s="43">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="G273" s="139">
         <f t="shared" si="5"/>
-        <v>283.25</v>
+        <v>103</v>
       </c>
       <c r="H273" s="98"/>
       <c r="I273" s="82"/>
@@ -11241,23 +11241,25 @@
       <c r="U273" s="43"/>
     </row>
     <row r="274" spans="2:21">
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
-      <c r="D274" s="112" t="s">
-        <v>352</v>
+      <c r="B274" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="C274" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="D274" s="104" t="s">
+        <v>308</v>
       </c>
       <c r="E274" s="85"/>
-      <c r="F274" s="98">
-        <v>20</v>
+      <c r="F274" s="70">
+        <v>400</v>
       </c>
       <c r="G274" s="139">
         <f t="shared" si="5"/>
-        <v>20.6</v>
+        <v>412</v>
       </c>
       <c r="H274" s="98"/>
-      <c r="I274" s="86">
-        <v>52</v>
-      </c>
+      <c r="I274" s="82"/>
       <c r="J274" s="43"/>
       <c r="K274" s="83"/>
       <c r="L274" s="43"/>
@@ -11272,61 +11274,55 @@
       <c r="U274" s="43"/>
     </row>
     <row r="275" spans="2:21">
-      <c r="B275" s="113" t="s">
-        <v>450</v>
-      </c>
-      <c r="C275" s="113" t="s">
-        <v>450</v>
+      <c r="B275" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="C275" s="65" t="s">
+        <v>501</v>
       </c>
       <c r="D275" s="112" t="s">
-        <v>526</v>
+        <v>56</v>
       </c>
       <c r="E275" s="85"/>
-      <c r="F275" s="70">
-        <v>40</v>
+      <c r="F275" s="43">
+        <v>275</v>
       </c>
       <c r="G275" s="139">
         <f t="shared" si="5"/>
-        <v>41.2</v>
-      </c>
-      <c r="H275" s="101"/>
+        <v>283.25</v>
+      </c>
+      <c r="H275" s="98"/>
       <c r="I275" s="82"/>
-      <c r="J275" s="101"/>
+      <c r="J275" s="43"/>
       <c r="K275" s="83"/>
-      <c r="L275" s="101"/>
-      <c r="M275" s="101"/>
-      <c r="N275" s="101"/>
-      <c r="O275" s="101"/>
-      <c r="P275" s="101"/>
-      <c r="Q275" s="101"/>
-      <c r="R275" s="101"/>
-      <c r="S275" s="101"/>
-      <c r="T275" s="101"/>
-      <c r="U275" s="101"/>
+      <c r="L275" s="43"/>
+      <c r="M275" s="43"/>
+      <c r="N275" s="43"/>
+      <c r="O275" s="43"/>
+      <c r="P275" s="43"/>
+      <c r="Q275" s="43"/>
+      <c r="R275" s="43"/>
+      <c r="S275" s="43"/>
+      <c r="T275" s="43"/>
+      <c r="U275" s="43"/>
     </row>
     <row r="276" spans="2:21">
-      <c r="B276" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="C276" s="65" t="s">
-        <v>505</v>
-      </c>
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
       <c r="D276" s="112" t="s">
-        <v>180</v>
-      </c>
-      <c r="E276" s="85">
-        <v>425</v>
-      </c>
-      <c r="F276" s="70">
-        <v>375</v>
+        <v>352</v>
+      </c>
+      <c r="E276" s="85"/>
+      <c r="F276" s="98">
+        <v>20</v>
       </c>
       <c r="G276" s="139">
         <f t="shared" si="5"/>
-        <v>386.25</v>
+        <v>20.6</v>
       </c>
       <c r="H276" s="98"/>
       <c r="I276" s="86">
-        <v>842</v>
+        <v>52</v>
       </c>
       <c r="J276" s="43"/>
       <c r="K276" s="83"/>
@@ -11343,51 +11339,61 @@
     </row>
     <row r="277" spans="2:21">
       <c r="B277" s="113" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C277" s="113" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="D277" s="112" t="s">
-        <v>87</v>
+        <v>526</v>
       </c>
       <c r="E277" s="85"/>
-      <c r="F277" s="43">
-        <v>110</v>
+      <c r="F277" s="70">
+        <v>40</v>
       </c>
       <c r="G277" s="139">
         <f t="shared" si="5"/>
-        <v>113.3</v>
-      </c>
-      <c r="H277" s="98"/>
+        <v>41.2</v>
+      </c>
+      <c r="H277" s="101"/>
       <c r="I277" s="82"/>
-      <c r="J277" s="43"/>
-      <c r="K277" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="L277" s="43"/>
-      <c r="M277" s="43"/>
-      <c r="N277" s="43"/>
-      <c r="O277" s="43"/>
-      <c r="P277" s="43"/>
-      <c r="Q277" s="43"/>
-      <c r="R277" s="43"/>
-      <c r="S277" s="43"/>
-      <c r="T277" s="43"/>
-      <c r="U277" s="43"/>
+      <c r="J277" s="101"/>
+      <c r="K277" s="83"/>
+      <c r="L277" s="101"/>
+      <c r="M277" s="101"/>
+      <c r="N277" s="101"/>
+      <c r="O277" s="101"/>
+      <c r="P277" s="101"/>
+      <c r="Q277" s="101"/>
+      <c r="R277" s="101"/>
+      <c r="S277" s="101"/>
+      <c r="T277" s="101"/>
+      <c r="U277" s="101"/>
     </row>
     <row r="278" spans="2:21">
-      <c r="B278" s="43"/>
-      <c r="C278" s="43"/>
-      <c r="D278" s="82"/>
-      <c r="E278" s="43"/>
-      <c r="F278" s="43"/>
+      <c r="B278" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="C278" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="D278" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="E278" s="85">
+        <v>425</v>
+      </c>
+      <c r="F278" s="70">
+        <v>375</v>
+      </c>
       <c r="G278" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>386.25</v>
       </c>
       <c r="H278" s="98"/>
-      <c r="I278" s="82"/>
+      <c r="I278" s="86">
+        <v>842</v>
+      </c>
       <c r="J278" s="43"/>
       <c r="K278" s="83"/>
       <c r="L278" s="43"/>
@@ -11402,68 +11408,78 @@
       <c r="U278" s="43"/>
     </row>
     <row r="279" spans="2:21">
-      <c r="B279" s="101"/>
-      <c r="C279" s="101"/>
-      <c r="D279" s="82"/>
-      <c r="E279" s="101"/>
-      <c r="F279" s="101"/>
+      <c r="B279" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="C279" s="113" t="s">
+        <v>527</v>
+      </c>
+      <c r="D279" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="E279" s="85"/>
+      <c r="F279" s="43">
+        <v>110</v>
+      </c>
       <c r="G279" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H279" s="101"/>
+        <v>113.3</v>
+      </c>
+      <c r="H279" s="98"/>
       <c r="I279" s="82"/>
-      <c r="J279" s="101"/>
-      <c r="K279" s="83"/>
-      <c r="L279" s="66"/>
-      <c r="M279" s="66"/>
-      <c r="N279" s="66"/>
-      <c r="O279" s="66"/>
-      <c r="P279" s="66"/>
-      <c r="Q279" s="66"/>
-      <c r="R279" s="66"/>
-      <c r="S279" s="66"/>
-      <c r="T279" s="66"/>
-      <c r="U279" s="66"/>
+      <c r="J279" s="43"/>
+      <c r="K279" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="L279" s="43"/>
+      <c r="M279" s="43"/>
+      <c r="N279" s="43"/>
+      <c r="O279" s="43"/>
+      <c r="P279" s="43"/>
+      <c r="Q279" s="43"/>
+      <c r="R279" s="43"/>
+      <c r="S279" s="43"/>
+      <c r="T279" s="43"/>
+      <c r="U279" s="43"/>
     </row>
     <row r="280" spans="2:21">
-      <c r="B280" s="103"/>
-      <c r="C280" s="103"/>
+      <c r="B280" s="43"/>
+      <c r="C280" s="43"/>
       <c r="D280" s="82"/>
-      <c r="E280" s="103"/>
-      <c r="F280" s="103"/>
+      <c r="E280" s="43"/>
+      <c r="F280" s="43"/>
       <c r="G280" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H280" s="103"/>
+      <c r="H280" s="98"/>
       <c r="I280" s="82"/>
-      <c r="J280" s="103"/>
+      <c r="J280" s="43"/>
       <c r="K280" s="83"/>
-      <c r="L280" s="103"/>
-      <c r="M280" s="103"/>
-      <c r="N280" s="103"/>
-      <c r="O280" s="103"/>
-      <c r="P280" s="103"/>
-      <c r="Q280" s="103"/>
-      <c r="R280" s="103"/>
-      <c r="S280" s="103"/>
-      <c r="T280" s="103"/>
-      <c r="U280" s="103"/>
+      <c r="L280" s="43"/>
+      <c r="M280" s="43"/>
+      <c r="N280" s="43"/>
+      <c r="O280" s="43"/>
+      <c r="P280" s="43"/>
+      <c r="Q280" s="43"/>
+      <c r="R280" s="43"/>
+      <c r="S280" s="43"/>
+      <c r="T280" s="43"/>
+      <c r="U280" s="43"/>
     </row>
     <row r="281" spans="2:21">
-      <c r="B281" s="103"/>
-      <c r="C281" s="103"/>
+      <c r="B281" s="101"/>
+      <c r="C281" s="101"/>
       <c r="D281" s="82"/>
-      <c r="E281" s="103"/>
-      <c r="F281" s="103"/>
+      <c r="E281" s="101"/>
+      <c r="F281" s="101"/>
       <c r="G281" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H281" s="103"/>
+      <c r="H281" s="101"/>
       <c r="I281" s="82"/>
-      <c r="J281" s="103"/>
+      <c r="J281" s="101"/>
       <c r="K281" s="83"/>
       <c r="L281" s="66"/>
       <c r="M281" s="66"/>
@@ -11477,142 +11493,131 @@
       <c r="U281" s="66"/>
     </row>
     <row r="282" spans="2:21">
-      <c r="B282" s="101"/>
-      <c r="C282" s="101"/>
+      <c r="B282" s="103"/>
+      <c r="C282" s="103"/>
       <c r="D282" s="82"/>
-      <c r="E282" s="101"/>
-      <c r="F282" s="101"/>
+      <c r="E282" s="103"/>
+      <c r="F282" s="103"/>
       <c r="G282" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H282" s="101"/>
+      <c r="H282" s="103"/>
       <c r="I282" s="82"/>
-      <c r="J282" s="101"/>
+      <c r="J282" s="103"/>
       <c r="K282" s="83"/>
-      <c r="L282" s="66"/>
-      <c r="M282" s="66"/>
-      <c r="N282" s="66"/>
-      <c r="O282" s="66"/>
-      <c r="P282" s="66"/>
-      <c r="Q282" s="66"/>
-      <c r="R282" s="66"/>
-      <c r="S282" s="66"/>
-      <c r="T282" s="66"/>
-      <c r="U282" s="66"/>
+      <c r="L282" s="103"/>
+      <c r="M282" s="103"/>
+      <c r="N282" s="103"/>
+      <c r="O282" s="103"/>
+      <c r="P282" s="103"/>
+      <c r="Q282" s="103"/>
+      <c r="R282" s="103"/>
+      <c r="S282" s="103"/>
+      <c r="T282" s="103"/>
+      <c r="U282" s="103"/>
     </row>
     <row r="283" spans="2:21">
-      <c r="B283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="C283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="D283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="E283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="F283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="G283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="H283" s="99"/>
-      <c r="I283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="J283" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="K283" s="99" t="s">
-        <v>481</v>
-      </c>
+      <c r="B283" s="103"/>
+      <c r="C283" s="103"/>
+      <c r="D283" s="82"/>
+      <c r="E283" s="103"/>
+      <c r="F283" s="103"/>
+      <c r="G283" s="139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H283" s="103"/>
+      <c r="I283" s="82"/>
+      <c r="J283" s="103"/>
+      <c r="K283" s="83"/>
+      <c r="L283" s="66"/>
+      <c r="M283" s="66"/>
+      <c r="N283" s="66"/>
+      <c r="O283" s="66"/>
+      <c r="P283" s="66"/>
+      <c r="Q283" s="66"/>
+      <c r="R283" s="66"/>
+      <c r="S283" s="66"/>
+      <c r="T283" s="66"/>
+      <c r="U283" s="66"/>
     </row>
     <row r="284" spans="2:21">
-      <c r="B284" s="43"/>
-      <c r="C284" s="43"/>
-      <c r="D284" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="E284" s="85">
-        <v>140</v>
-      </c>
-      <c r="F284" s="92">
-        <v>160</v>
-      </c>
+      <c r="B284" s="101"/>
+      <c r="C284" s="101"/>
+      <c r="D284" s="82"/>
+      <c r="E284" s="101"/>
+      <c r="F284" s="101"/>
       <c r="G284" s="139">
         <f t="shared" si="5"/>
-        <v>164.8</v>
-      </c>
-      <c r="H284" s="98"/>
+        <v>0</v>
+      </c>
+      <c r="H284" s="101"/>
       <c r="I284" s="82"/>
-      <c r="J284" s="43"/>
+      <c r="J284" s="101"/>
       <c r="K284" s="83"/>
-      <c r="L284" s="43"/>
-      <c r="M284" s="43"/>
-      <c r="N284" s="43"/>
-      <c r="O284" s="43"/>
-      <c r="P284" s="43"/>
-      <c r="Q284" s="43"/>
-      <c r="R284" s="43"/>
-      <c r="S284" s="43"/>
-      <c r="T284" s="43"/>
-      <c r="U284" s="43"/>
-    </row>
-    <row r="285" spans="2:21" ht="28.8">
-      <c r="B285" s="43"/>
-      <c r="C285" s="43"/>
-      <c r="D285" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="E285" s="85"/>
-      <c r="F285" s="43">
-        <v>1125</v>
-      </c>
-      <c r="G285" s="139">
-        <f t="shared" si="5"/>
-        <v>1158.75</v>
-      </c>
-      <c r="H285" s="98"/>
-      <c r="I285" s="82"/>
-      <c r="J285" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="K285" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="L285" s="43"/>
-      <c r="M285" s="43"/>
-      <c r="N285" s="43"/>
-      <c r="O285" s="43"/>
-      <c r="P285" s="43"/>
-      <c r="Q285" s="43"/>
-      <c r="R285" s="43"/>
-      <c r="S285" s="43"/>
-      <c r="T285" s="43"/>
-      <c r="U285" s="43"/>
+      <c r="L284" s="66"/>
+      <c r="M284" s="66"/>
+      <c r="N284" s="66"/>
+      <c r="O284" s="66"/>
+      <c r="P284" s="66"/>
+      <c r="Q284" s="66"/>
+      <c r="R284" s="66"/>
+      <c r="S284" s="66"/>
+      <c r="T284" s="66"/>
+      <c r="U284" s="66"/>
+    </row>
+    <row r="285" spans="2:21">
+      <c r="B285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="C285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="D285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="E285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="F285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="G285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="H285" s="99"/>
+      <c r="I285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="J285" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K285" s="99" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="286" spans="2:21">
       <c r="B286" s="43"/>
       <c r="C286" s="43"/>
-      <c r="D286" s="82" t="s">
-        <v>382</v>
-      </c>
-      <c r="E286" s="85"/>
-      <c r="F286" s="43">
-        <v>1450</v>
+      <c r="D286" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="E286" s="85">
+        <v>140</v>
+      </c>
+      <c r="F286" s="92">
+        <v>160</v>
       </c>
       <c r="G286" s="139">
         <f t="shared" si="5"/>
-        <v>1493.5</v>
+        <v>164.8</v>
       </c>
       <c r="H286" s="98"/>
       <c r="I286" s="82"/>
       <c r="J286" s="43"/>
-      <c r="K286" s="98"/>
+      <c r="K286" s="83"/>
+      <c r="L286" s="43"/>
       <c r="M286" s="43"/>
       <c r="N286" s="43"/>
       <c r="O286" s="43"/>
@@ -11626,17 +11631,25 @@
     <row r="287" spans="2:21">
       <c r="B287" s="43"/>
       <c r="C287" s="43"/>
-      <c r="D287" s="82"/>
-      <c r="E287" s="43"/>
-      <c r="F287" s="43"/>
+      <c r="D287" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E287" s="85"/>
+      <c r="F287" s="43">
+        <v>1125</v>
+      </c>
       <c r="G287" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1158.75</v>
       </c>
       <c r="H287" s="98"/>
       <c r="I287" s="82"/>
-      <c r="J287" s="43"/>
-      <c r="K287" s="83"/>
+      <c r="J287" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="K287" s="83" t="s">
+        <v>504</v>
+      </c>
       <c r="L287" s="43"/>
       <c r="M287" s="43"/>
       <c r="N287" s="43"/>
@@ -11649,54 +11662,57 @@
       <c r="U287" s="43"/>
     </row>
     <row r="288" spans="2:21">
-      <c r="B288" s="65"/>
-      <c r="C288" s="65"/>
-      <c r="D288" s="82"/>
-      <c r="E288" s="65"/>
-      <c r="F288" s="65"/>
+      <c r="B288" s="43"/>
+      <c r="C288" s="43"/>
+      <c r="D288" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="E288" s="85"/>
+      <c r="F288" s="43">
+        <v>1450</v>
+      </c>
       <c r="G288" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1493.5</v>
       </c>
       <c r="H288" s="98"/>
       <c r="I288" s="82"/>
-      <c r="J288" s="65"/>
-      <c r="K288" s="83"/>
-      <c r="L288" s="65"/>
-      <c r="M288" s="65"/>
-      <c r="N288" s="65"/>
-      <c r="O288" s="65"/>
-      <c r="P288" s="65"/>
-      <c r="Q288" s="65"/>
-      <c r="R288" s="65"/>
-      <c r="S288" s="65"/>
-      <c r="T288" s="65"/>
-      <c r="U288" s="65"/>
+      <c r="J288" s="43"/>
+      <c r="K288" s="98"/>
+      <c r="M288" s="43"/>
+      <c r="N288" s="43"/>
+      <c r="O288" s="43"/>
+      <c r="P288" s="43"/>
+      <c r="Q288" s="43"/>
+      <c r="R288" s="43"/>
+      <c r="S288" s="43"/>
+      <c r="T288" s="43"/>
+      <c r="U288" s="43"/>
     </row>
     <row r="289" spans="2:21">
-      <c r="B289" s="113"/>
-      <c r="C289" s="113"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
       <c r="D289" s="82"/>
-      <c r="E289" s="113"/>
-      <c r="F289" s="113"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="43"/>
       <c r="G289" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H289" s="113"/>
+      <c r="H289" s="98"/>
       <c r="I289" s="82"/>
-      <c r="J289" s="113"/>
+      <c r="J289" s="43"/>
       <c r="K289" s="83"/>
-      <c r="L289" s="113"/>
-      <c r="M289" s="113"/>
-      <c r="N289" s="113"/>
-      <c r="O289" s="113"/>
-      <c r="P289" s="113"/>
-      <c r="Q289" s="113"/>
-      <c r="R289" s="113"/>
-      <c r="S289" s="113"/>
-      <c r="T289" s="113"/>
-      <c r="U289" s="113"/>
+      <c r="L289" s="43"/>
+      <c r="M289" s="43"/>
+      <c r="N289" s="43"/>
+      <c r="O289" s="43"/>
+      <c r="P289" s="43"/>
+      <c r="Q289" s="43"/>
+      <c r="R289" s="43"/>
+      <c r="S289" s="43"/>
+      <c r="T289" s="43"/>
+      <c r="U289" s="43"/>
     </row>
     <row r="290" spans="2:21">
       <c r="B290" s="65"/>
@@ -11724,79 +11740,60 @@
       <c r="U290" s="65"/>
     </row>
     <row r="291" spans="2:21">
-      <c r="B291" s="43"/>
-      <c r="C291" s="43"/>
+      <c r="B291" s="113"/>
+      <c r="C291" s="113"/>
       <c r="D291" s="82"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="43"/>
+      <c r="E291" s="113"/>
+      <c r="F291" s="113"/>
       <c r="G291" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H291" s="98"/>
+      <c r="H291" s="113"/>
       <c r="I291" s="82"/>
-      <c r="J291" s="43"/>
+      <c r="J291" s="113"/>
       <c r="K291" s="83"/>
-      <c r="L291" s="43"/>
-      <c r="M291" s="43"/>
-      <c r="N291" s="43"/>
-      <c r="O291" s="43"/>
-      <c r="P291" s="43"/>
-      <c r="Q291" s="43"/>
-      <c r="R291" s="43"/>
-      <c r="S291" s="43"/>
-      <c r="T291" s="43"/>
-      <c r="U291" s="43"/>
+      <c r="L291" s="113"/>
+      <c r="M291" s="113"/>
+      <c r="N291" s="113"/>
+      <c r="O291" s="113"/>
+      <c r="P291" s="113"/>
+      <c r="Q291" s="113"/>
+      <c r="R291" s="113"/>
+      <c r="S291" s="113"/>
+      <c r="T291" s="113"/>
+      <c r="U291" s="113"/>
     </row>
     <row r="292" spans="2:21">
-      <c r="B292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="C292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="D292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="E292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="F292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="G292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="H292" s="89"/>
-      <c r="I292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="J292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="K292" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="L292" s="43"/>
-      <c r="M292" s="43"/>
-      <c r="N292" s="43"/>
-      <c r="O292" s="43"/>
-      <c r="P292" s="43"/>
-      <c r="Q292" s="43"/>
-      <c r="R292" s="43"/>
-      <c r="S292" s="43"/>
-      <c r="T292" s="43"/>
-      <c r="U292" s="43"/>
+      <c r="B292" s="65"/>
+      <c r="C292" s="65"/>
+      <c r="D292" s="82"/>
+      <c r="E292" s="65"/>
+      <c r="F292" s="65"/>
+      <c r="G292" s="139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H292" s="98"/>
+      <c r="I292" s="82"/>
+      <c r="J292" s="65"/>
+      <c r="K292" s="83"/>
+      <c r="L292" s="65"/>
+      <c r="M292" s="65"/>
+      <c r="N292" s="65"/>
+      <c r="O292" s="65"/>
+      <c r="P292" s="65"/>
+      <c r="Q292" s="65"/>
+      <c r="R292" s="65"/>
+      <c r="S292" s="65"/>
+      <c r="T292" s="65"/>
+      <c r="U292" s="65"/>
     </row>
     <row r="293" spans="2:21">
       <c r="B293" s="43"/>
       <c r="C293" s="43"/>
-      <c r="D293" s="91" t="s">
-        <v>346</v>
-      </c>
-      <c r="E293" s="43">
-        <v>100</v>
-      </c>
+      <c r="D293" s="82"/>
+      <c r="E293" s="43"/>
       <c r="F293" s="43"/>
       <c r="G293" s="139">
         <f t="shared" si="5"/>
@@ -11805,9 +11802,7 @@
       <c r="H293" s="98"/>
       <c r="I293" s="82"/>
       <c r="J293" s="43"/>
-      <c r="K293" s="83" t="s">
-        <v>528</v>
-      </c>
+      <c r="K293" s="83"/>
       <c r="L293" s="43"/>
       <c r="M293" s="43"/>
       <c r="N293" s="43"/>
@@ -11820,28 +11815,33 @@
       <c r="U293" s="43"/>
     </row>
     <row r="294" spans="2:21">
-      <c r="B294" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="C294" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="D294" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="E294" s="85"/>
-      <c r="F294" s="43">
-        <v>1450</v>
-      </c>
-      <c r="G294" s="139">
-        <f t="shared" si="5"/>
-        <v>1493.5</v>
-      </c>
-      <c r="H294" s="98"/>
-      <c r="I294" s="82"/>
-      <c r="J294" s="43"/>
-      <c r="K294" s="83" t="s">
-        <v>488</v>
+      <c r="B294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="D294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="E294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="F294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="G294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="H294" s="89"/>
+      <c r="I294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="J294" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="K294" s="89" t="s">
+        <v>391</v>
       </c>
       <c r="L294" s="43"/>
       <c r="M294" s="43"/>
@@ -11854,29 +11854,25 @@
       <c r="T294" s="43"/>
       <c r="U294" s="43"/>
     </row>
-    <row r="295" spans="2:21" ht="28.8">
-      <c r="B295" s="65" t="s">
-        <v>475</v>
-      </c>
-      <c r="C295" s="65" t="s">
-        <v>474</v>
-      </c>
+    <row r="295" spans="2:21">
+      <c r="B295" s="43"/>
+      <c r="C295" s="43"/>
       <c r="D295" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E295" s="85"/>
-      <c r="F295" s="85">
-        <v>185</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E295" s="43">
+        <v>100</v>
+      </c>
+      <c r="F295" s="43"/>
       <c r="G295" s="139">
         <f t="shared" si="5"/>
-        <v>190.55</v>
+        <v>0</v>
       </c>
       <c r="H295" s="98"/>
       <c r="I295" s="82"/>
       <c r="J295" s="43"/>
       <c r="K295" s="83" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="L295" s="43"/>
       <c r="M295" s="43"/>
@@ -11890,26 +11886,28 @@
       <c r="U295" s="43"/>
     </row>
     <row r="296" spans="2:21">
-      <c r="B296" s="43"/>
-      <c r="C296" s="43"/>
-      <c r="D296" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="E296" s="85">
-        <v>600</v>
-      </c>
-      <c r="F296" s="85">
-        <v>675</v>
+      <c r="B296" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="C296" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="D296" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E296" s="85"/>
+      <c r="F296" s="43">
+        <v>1450</v>
       </c>
       <c r="G296" s="139">
         <f t="shared" si="5"/>
-        <v>695.25</v>
+        <v>1493.5</v>
       </c>
       <c r="H296" s="98"/>
       <c r="I296" s="82"/>
       <c r="J296" s="43"/>
       <c r="K296" s="83" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L296" s="43"/>
       <c r="M296" s="43"/>
@@ -11922,25 +11920,29 @@
       <c r="T296" s="43"/>
       <c r="U296" s="43"/>
     </row>
-    <row r="297" spans="2:21">
-      <c r="B297" s="43"/>
-      <c r="C297" s="43"/>
-      <c r="D297" s="90" t="s">
-        <v>148</v>
+    <row r="297" spans="2:21" ht="28.8">
+      <c r="B297" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="C297" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="D297" s="91" t="s">
+        <v>378</v>
       </c>
       <c r="E297" s="85"/>
-      <c r="F297" s="43">
-        <v>135</v>
+      <c r="F297" s="85">
+        <v>185</v>
       </c>
       <c r="G297" s="139">
         <f t="shared" si="5"/>
-        <v>139.05000000000001</v>
+        <v>190.55</v>
       </c>
       <c r="H297" s="98"/>
       <c r="I297" s="82"/>
       <c r="J297" s="43"/>
       <c r="K297" s="83" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="L297" s="43"/>
       <c r="M297" s="43"/>
@@ -11956,22 +11958,24 @@
     <row r="298" spans="2:21">
       <c r="B298" s="43"/>
       <c r="C298" s="43"/>
-      <c r="D298" s="90" t="s">
-        <v>334</v>
-      </c>
-      <c r="E298" s="85"/>
-      <c r="F298" s="43">
+      <c r="D298" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E298" s="85">
         <v>600</v>
+      </c>
+      <c r="F298" s="85">
+        <v>675</v>
       </c>
       <c r="G298" s="139">
         <f t="shared" si="5"/>
-        <v>618</v>
+        <v>695.25</v>
       </c>
       <c r="H298" s="98"/>
       <c r="I298" s="82"/>
       <c r="J298" s="43"/>
       <c r="K298" s="83" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L298" s="43"/>
       <c r="M298" s="43"/>
@@ -11987,14 +11991,16 @@
     <row r="299" spans="2:21">
       <c r="B299" s="43"/>
       <c r="C299" s="43"/>
-      <c r="D299" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="E299" s="43"/>
-      <c r="F299" s="43"/>
+      <c r="D299" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E299" s="85"/>
+      <c r="F299" s="43">
+        <v>135</v>
+      </c>
       <c r="G299" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="H299" s="98"/>
       <c r="I299" s="82"/>
@@ -12016,22 +12022,22 @@
     <row r="300" spans="2:21">
       <c r="B300" s="43"/>
       <c r="C300" s="43"/>
-      <c r="D300" s="91" t="s">
-        <v>188</v>
+      <c r="D300" s="90" t="s">
+        <v>334</v>
       </c>
       <c r="E300" s="85"/>
-      <c r="F300" s="85">
-        <v>225</v>
+      <c r="F300" s="43">
+        <v>600</v>
       </c>
       <c r="G300" s="139">
         <f t="shared" si="5"/>
-        <v>231.75</v>
+        <v>618</v>
       </c>
       <c r="H300" s="98"/>
       <c r="I300" s="82"/>
       <c r="J300" s="43"/>
       <c r="K300" s="83" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="L300" s="43"/>
       <c r="M300" s="43"/>
@@ -12048,7 +12054,7 @@
       <c r="B301" s="43"/>
       <c r="C301" s="43"/>
       <c r="D301" s="91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E301" s="43"/>
       <c r="F301" s="43"/>
@@ -12060,7 +12066,7 @@
       <c r="I301" s="82"/>
       <c r="J301" s="43"/>
       <c r="K301" s="83" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="L301" s="43"/>
       <c r="M301" s="43"/>
@@ -12077,15 +12083,15 @@
       <c r="B302" s="43"/>
       <c r="C302" s="43"/>
       <c r="D302" s="91" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E302" s="85"/>
       <c r="F302" s="85">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="G302" s="139">
         <f t="shared" si="5"/>
-        <v>298.7</v>
+        <v>231.75</v>
       </c>
       <c r="H302" s="98"/>
       <c r="I302" s="82"/>
@@ -12093,9 +12099,7 @@
       <c r="K302" s="83" t="s">
         <v>529</v>
       </c>
-      <c r="L302" s="43">
-        <v>1</v>
-      </c>
+      <c r="L302" s="43"/>
       <c r="M302" s="43"/>
       <c r="N302" s="43"/>
       <c r="O302" s="43"/>
@@ -12110,21 +12114,19 @@
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
       <c r="D303" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="E303" s="85"/>
-      <c r="F303" s="85">
-        <v>60</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="E303" s="43"/>
+      <c r="F303" s="43"/>
       <c r="G303" s="139">
         <f t="shared" si="5"/>
-        <v>61.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="H303" s="98"/>
       <c r="I303" s="82"/>
       <c r="J303" s="43"/>
       <c r="K303" s="83" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="L303" s="43"/>
       <c r="M303" s="43"/>
@@ -12140,26 +12142,26 @@
     <row r="304" spans="2:21">
       <c r="B304" s="43"/>
       <c r="C304" s="43"/>
-      <c r="D304" s="90" t="s">
-        <v>101</v>
+      <c r="D304" s="91" t="s">
+        <v>193</v>
       </c>
       <c r="E304" s="85"/>
       <c r="F304" s="85">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="G304" s="139">
         <f t="shared" si="5"/>
-        <v>66.95</v>
+        <v>298.7</v>
       </c>
       <c r="H304" s="98"/>
-      <c r="I304" s="86">
-        <v>85</v>
-      </c>
+      <c r="I304" s="82"/>
       <c r="J304" s="43"/>
       <c r="K304" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="L304" s="43"/>
+        <v>529</v>
+      </c>
+      <c r="L304" s="43">
+        <v>1</v>
+      </c>
       <c r="M304" s="43"/>
       <c r="N304" s="43"/>
       <c r="O304" s="43"/>
@@ -12174,23 +12176,21 @@
       <c r="B305" s="43"/>
       <c r="C305" s="43"/>
       <c r="D305" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="E305" s="43"/>
+        <v>381</v>
+      </c>
+      <c r="E305" s="85"/>
       <c r="F305" s="85">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G305" s="139">
         <f t="shared" si="5"/>
-        <v>87.55</v>
+        <v>61.800000000000004</v>
       </c>
       <c r="H305" s="98"/>
-      <c r="I305" s="86">
-        <v>130</v>
-      </c>
+      <c r="I305" s="82"/>
       <c r="J305" s="43"/>
       <c r="K305" s="83" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L305" s="43"/>
       <c r="M305" s="43"/>
@@ -12204,54 +12204,70 @@
       <c r="U305" s="43"/>
     </row>
     <row r="306" spans="2:21">
-      <c r="B306" s="65"/>
-      <c r="C306" s="65"/>
-      <c r="D306" s="82"/>
-      <c r="E306" s="65"/>
-      <c r="F306" s="65"/>
+      <c r="B306" s="43"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E306" s="85"/>
+      <c r="F306" s="85">
+        <v>65</v>
+      </c>
       <c r="G306" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>66.95</v>
       </c>
       <c r="H306" s="98"/>
-      <c r="I306" s="82"/>
-      <c r="J306" s="65"/>
-      <c r="K306" s="83"/>
-      <c r="L306" s="65"/>
-      <c r="M306" s="65"/>
-      <c r="N306" s="65"/>
-      <c r="O306" s="65"/>
-      <c r="P306" s="65"/>
-      <c r="Q306" s="65"/>
-      <c r="R306" s="65"/>
-      <c r="S306" s="65"/>
-      <c r="T306" s="65"/>
-      <c r="U306" s="65"/>
+      <c r="I306" s="86">
+        <v>85</v>
+      </c>
+      <c r="J306" s="43"/>
+      <c r="K306" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="L306" s="43"/>
+      <c r="M306" s="43"/>
+      <c r="N306" s="43"/>
+      <c r="O306" s="43"/>
+      <c r="P306" s="43"/>
+      <c r="Q306" s="43"/>
+      <c r="R306" s="43"/>
+      <c r="S306" s="43"/>
+      <c r="T306" s="43"/>
+      <c r="U306" s="43"/>
     </row>
     <row r="307" spans="2:21">
-      <c r="B307" s="65"/>
-      <c r="C307" s="65"/>
-      <c r="D307" s="82"/>
-      <c r="E307" s="65"/>
-      <c r="F307" s="65"/>
+      <c r="B307" s="43"/>
+      <c r="C307" s="43"/>
+      <c r="D307" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="E307" s="43"/>
+      <c r="F307" s="85">
+        <v>85</v>
+      </c>
       <c r="G307" s="139">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>87.55</v>
       </c>
       <c r="H307" s="98"/>
-      <c r="I307" s="82"/>
-      <c r="J307" s="65"/>
-      <c r="K307" s="83"/>
-      <c r="L307" s="65"/>
-      <c r="M307" s="65"/>
-      <c r="N307" s="65"/>
-      <c r="O307" s="65"/>
-      <c r="P307" s="65"/>
-      <c r="Q307" s="65"/>
-      <c r="R307" s="65"/>
-      <c r="S307" s="65"/>
-      <c r="T307" s="65"/>
-      <c r="U307" s="65"/>
+      <c r="I307" s="86">
+        <v>130</v>
+      </c>
+      <c r="J307" s="43"/>
+      <c r="K307" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="L307" s="43"/>
+      <c r="M307" s="43"/>
+      <c r="N307" s="43"/>
+      <c r="O307" s="43"/>
+      <c r="P307" s="43"/>
+      <c r="Q307" s="43"/>
+      <c r="R307" s="43"/>
+      <c r="S307" s="43"/>
+      <c r="T307" s="43"/>
+      <c r="U307" s="43"/>
     </row>
     <row r="308" spans="2:21">
       <c r="B308" s="65"/>
@@ -12279,54 +12295,54 @@
       <c r="U308" s="65"/>
     </row>
     <row r="309" spans="2:21">
-      <c r="B309" s="43"/>
-      <c r="C309" s="43"/>
+      <c r="B309" s="65"/>
+      <c r="C309" s="65"/>
       <c r="D309" s="82"/>
-      <c r="E309" s="43"/>
-      <c r="F309" s="43"/>
+      <c r="E309" s="65"/>
+      <c r="F309" s="65"/>
       <c r="G309" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H309" s="98"/>
       <c r="I309" s="82"/>
-      <c r="J309" s="43"/>
+      <c r="J309" s="65"/>
       <c r="K309" s="83"/>
-      <c r="L309" s="43"/>
-      <c r="M309" s="43"/>
-      <c r="N309" s="43"/>
-      <c r="O309" s="43"/>
-      <c r="P309" s="43"/>
-      <c r="Q309" s="43"/>
-      <c r="R309" s="43"/>
-      <c r="S309" s="43"/>
-      <c r="T309" s="43"/>
-      <c r="U309" s="43"/>
+      <c r="L309" s="65"/>
+      <c r="M309" s="65"/>
+      <c r="N309" s="65"/>
+      <c r="O309" s="65"/>
+      <c r="P309" s="65"/>
+      <c r="Q309" s="65"/>
+      <c r="R309" s="65"/>
+      <c r="S309" s="65"/>
+      <c r="T309" s="65"/>
+      <c r="U309" s="65"/>
     </row>
     <row r="310" spans="2:21">
-      <c r="B310" s="43"/>
-      <c r="C310" s="43"/>
+      <c r="B310" s="65"/>
+      <c r="C310" s="65"/>
       <c r="D310" s="82"/>
-      <c r="E310" s="43"/>
-      <c r="F310" s="43"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
       <c r="G310" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H310" s="98"/>
       <c r="I310" s="82"/>
-      <c r="J310" s="43"/>
+      <c r="J310" s="65"/>
       <c r="K310" s="83"/>
-      <c r="L310" s="43"/>
-      <c r="M310" s="43"/>
-      <c r="N310" s="43"/>
-      <c r="O310" s="43"/>
-      <c r="P310" s="43"/>
-      <c r="Q310" s="43"/>
-      <c r="R310" s="43"/>
-      <c r="S310" s="43"/>
-      <c r="T310" s="43"/>
-      <c r="U310" s="43"/>
+      <c r="L310" s="65"/>
+      <c r="M310" s="65"/>
+      <c r="N310" s="65"/>
+      <c r="O310" s="65"/>
+      <c r="P310" s="65"/>
+      <c r="Q310" s="65"/>
+      <c r="R310" s="65"/>
+      <c r="S310" s="65"/>
+      <c r="T310" s="65"/>
+      <c r="U310" s="65"/>
     </row>
     <row r="311" spans="2:21">
       <c r="B311" s="43"/>
@@ -12354,114 +12370,110 @@
       <c r="U311" s="43"/>
     </row>
     <row r="312" spans="2:21">
-      <c r="B312" s="65"/>
-      <c r="C312" s="65"/>
+      <c r="B312" s="43"/>
+      <c r="C312" s="43"/>
       <c r="D312" s="82"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="65"/>
+      <c r="E312" s="43"/>
+      <c r="F312" s="43"/>
       <c r="G312" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H312" s="98"/>
       <c r="I312" s="82"/>
-      <c r="J312" s="65"/>
+      <c r="J312" s="43"/>
       <c r="K312" s="83"/>
-      <c r="L312" s="65"/>
-      <c r="M312" s="65"/>
-      <c r="N312" s="65"/>
-      <c r="O312" s="65"/>
-      <c r="P312" s="65"/>
-      <c r="Q312" s="65"/>
-      <c r="R312" s="65"/>
-      <c r="S312" s="65"/>
-      <c r="T312" s="65"/>
-      <c r="U312" s="65"/>
+      <c r="L312" s="43"/>
+      <c r="M312" s="43"/>
+      <c r="N312" s="43"/>
+      <c r="O312" s="43"/>
+      <c r="P312" s="43"/>
+      <c r="Q312" s="43"/>
+      <c r="R312" s="43"/>
+      <c r="S312" s="43"/>
+      <c r="T312" s="43"/>
+      <c r="U312" s="43"/>
     </row>
     <row r="313" spans="2:21">
-      <c r="B313" s="65"/>
-      <c r="C313" s="65"/>
+      <c r="B313" s="43"/>
+      <c r="C313" s="43"/>
       <c r="D313" s="82"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="65"/>
+      <c r="E313" s="43"/>
+      <c r="F313" s="43"/>
       <c r="G313" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H313" s="98"/>
       <c r="I313" s="82"/>
-      <c r="J313" s="65"/>
+      <c r="J313" s="43"/>
       <c r="K313" s="83"/>
-      <c r="L313" s="65"/>
-      <c r="M313" s="65"/>
-      <c r="N313" s="65"/>
-      <c r="O313" s="65"/>
-      <c r="P313" s="65"/>
-      <c r="Q313" s="65"/>
-      <c r="R313" s="65"/>
-      <c r="S313" s="65"/>
-      <c r="T313" s="65"/>
-      <c r="U313" s="65"/>
+      <c r="L313" s="43"/>
+      <c r="M313" s="43"/>
+      <c r="N313" s="43"/>
+      <c r="O313" s="43"/>
+      <c r="P313" s="43"/>
+      <c r="Q313" s="43"/>
+      <c r="R313" s="43"/>
+      <c r="S313" s="43"/>
+      <c r="T313" s="43"/>
+      <c r="U313" s="43"/>
     </row>
     <row r="314" spans="2:21">
-      <c r="B314" s="43"/>
-      <c r="C314" s="43"/>
-      <c r="D314" s="100" t="s">
-        <v>446</v>
-      </c>
-      <c r="E314" s="43"/>
-      <c r="F314" s="43"/>
+      <c r="B314" s="65"/>
+      <c r="C314" s="65"/>
+      <c r="D314" s="82"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
       <c r="G314" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H314" s="98"/>
       <c r="I314" s="82"/>
-      <c r="J314" s="43"/>
+      <c r="J314" s="65"/>
       <c r="K314" s="83"/>
-      <c r="L314" s="43"/>
-      <c r="M314" s="43"/>
-      <c r="N314" s="43"/>
-      <c r="O314" s="43"/>
-      <c r="P314" s="43"/>
-      <c r="Q314" s="43"/>
-      <c r="R314" s="43"/>
-      <c r="S314" s="43"/>
-      <c r="T314" s="43"/>
-      <c r="U314" s="43"/>
+      <c r="L314" s="65"/>
+      <c r="M314" s="65"/>
+      <c r="N314" s="65"/>
+      <c r="O314" s="65"/>
+      <c r="P314" s="65"/>
+      <c r="Q314" s="65"/>
+      <c r="R314" s="65"/>
+      <c r="S314" s="65"/>
+      <c r="T314" s="65"/>
+      <c r="U314" s="65"/>
     </row>
     <row r="315" spans="2:21">
-      <c r="B315" s="43"/>
-      <c r="C315" s="43"/>
-      <c r="D315" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="E315" s="43"/>
-      <c r="F315" s="43"/>
+      <c r="B315" s="65"/>
+      <c r="C315" s="65"/>
+      <c r="D315" s="82"/>
+      <c r="E315" s="65"/>
+      <c r="F315" s="65"/>
       <c r="G315" s="139">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H315" s="98"/>
       <c r="I315" s="82"/>
-      <c r="J315" s="43"/>
+      <c r="J315" s="65"/>
       <c r="K315" s="83"/>
-      <c r="L315" s="43"/>
-      <c r="M315" s="43"/>
-      <c r="N315" s="43"/>
-      <c r="O315" s="43"/>
-      <c r="P315" s="43"/>
-      <c r="Q315" s="43"/>
-      <c r="R315" s="43"/>
-      <c r="S315" s="43"/>
-      <c r="T315" s="43"/>
-      <c r="U315" s="43"/>
+      <c r="L315" s="65"/>
+      <c r="M315" s="65"/>
+      <c r="N315" s="65"/>
+      <c r="O315" s="65"/>
+      <c r="P315" s="65"/>
+      <c r="Q315" s="65"/>
+      <c r="R315" s="65"/>
+      <c r="S315" s="65"/>
+      <c r="T315" s="65"/>
+      <c r="U315" s="65"/>
     </row>
     <row r="316" spans="2:21">
       <c r="B316" s="43"/>
       <c r="C316" s="43"/>
-      <c r="D316" s="82" t="s">
-        <v>415</v>
+      <c r="D316" s="100" t="s">
+        <v>446</v>
       </c>
       <c r="E316" s="43"/>
       <c r="F316" s="43"/>
@@ -12487,7 +12499,9 @@
     <row r="317" spans="2:21">
       <c r="B317" s="43"/>
       <c r="C317" s="43"/>
-      <c r="D317" s="82"/>
+      <c r="D317" s="82" t="s">
+        <v>414</v>
+      </c>
       <c r="E317" s="43"/>
       <c r="F317" s="43"/>
       <c r="G317" s="139">
@@ -12512,7 +12526,9 @@
     <row r="318" spans="2:21">
       <c r="B318" s="43"/>
       <c r="C318" s="43"/>
-      <c r="D318" s="82"/>
+      <c r="D318" s="82" t="s">
+        <v>415</v>
+      </c>
       <c r="E318" s="43"/>
       <c r="F318" s="43"/>
       <c r="G318" s="139">
@@ -12545,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="H319" s="98"/>
-      <c r="I319" s="43"/>
+      <c r="I319" s="82"/>
       <c r="J319" s="43"/>
       <c r="K319" s="83"/>
       <c r="L319" s="43"/>
@@ -12559,45 +12575,68 @@
       <c r="T319" s="43"/>
       <c r="U319" s="43"/>
     </row>
-    <row r="330" spans="1:23" s="81" customFormat="1">
-      <c r="D330" s="81" t="s">
+    <row r="320" spans="2:21">
+      <c r="B320" s="43"/>
+      <c r="C320" s="43"/>
+      <c r="D320" s="82"/>
+      <c r="E320" s="43"/>
+      <c r="F320" s="43"/>
+      <c r="G320" s="139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H320" s="98"/>
+      <c r="I320" s="82"/>
+      <c r="J320" s="43"/>
+      <c r="K320" s="83"/>
+      <c r="L320" s="43"/>
+      <c r="M320" s="43"/>
+      <c r="N320" s="43"/>
+      <c r="O320" s="43"/>
+      <c r="P320" s="43"/>
+      <c r="Q320" s="43"/>
+      <c r="R320" s="43"/>
+      <c r="S320" s="43"/>
+      <c r="T320" s="43"/>
+      <c r="U320" s="43"/>
+    </row>
+    <row r="321" spans="1:23">
+      <c r="B321" s="43"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="82"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="43"/>
+      <c r="G321" s="139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H321" s="98"/>
+      <c r="I321" s="43"/>
+      <c r="J321" s="43"/>
+      <c r="K321" s="83"/>
+      <c r="L321" s="43"/>
+      <c r="M321" s="43"/>
+      <c r="N321" s="43"/>
+      <c r="O321" s="43"/>
+      <c r="P321" s="43"/>
+      <c r="Q321" s="43"/>
+      <c r="R321" s="43"/>
+      <c r="S321" s="43"/>
+      <c r="T321" s="43"/>
+      <c r="U321" s="43"/>
+    </row>
+    <row r="332" spans="1:23" s="81" customFormat="1">
+      <c r="D332" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K330" s="96"/>
-    </row>
-    <row r="331" spans="1:23" s="59" customFormat="1" ht="86.4">
-      <c r="A331" s="59">
+      <c r="K332" s="96"/>
+    </row>
+    <row r="333" spans="1:23" s="59" customFormat="1" ht="72">
+      <c r="A333" s="59">
         <v>1</v>
       </c>
-      <c r="D331" s="42" t="s">
+      <c r="D333" s="42" t="s">
         <v>15</v>
-      </c>
-      <c r="E331" s="42"/>
-      <c r="F331" s="42"/>
-      <c r="G331" s="42"/>
-      <c r="H331" s="42"/>
-      <c r="I331" s="42"/>
-      <c r="K331" s="67"/>
-      <c r="T331" s="42"/>
-      <c r="U331" s="42"/>
-      <c r="V331" s="42"/>
-      <c r="W331" s="42"/>
-    </row>
-    <row r="332" spans="1:23" s="59" customFormat="1">
-      <c r="D332" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="K332" s="67"/>
-      <c r="M332" s="42"/>
-      <c r="N332" s="42"/>
-      <c r="O332" s="42"/>
-      <c r="P332" s="42"/>
-      <c r="T332" s="42"/>
-      <c r="U332" s="42"/>
-    </row>
-    <row r="333" spans="1:23" s="59" customFormat="1" ht="28.8">
-      <c r="D333" s="42" t="s">
-        <v>12</v>
       </c>
       <c r="E333" s="42"/>
       <c r="F333" s="42"/>
@@ -12605,155 +12644,94 @@
       <c r="H333" s="42"/>
       <c r="I333" s="42"/>
       <c r="K333" s="67"/>
-      <c r="M333" s="42"/>
-      <c r="N333" s="42"/>
-      <c r="O333" s="42"/>
-      <c r="P333" s="42"/>
       <c r="T333" s="42"/>
       <c r="U333" s="42"/>
-    </row>
-    <row r="334" spans="1:23">
-      <c r="D334" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:23">
+      <c r="V333" s="42"/>
+      <c r="W333" s="42"/>
+    </row>
+    <row r="334" spans="1:23" s="59" customFormat="1">
+      <c r="D334" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K334" s="67"/>
+      <c r="M334" s="42"/>
+      <c r="N334" s="42"/>
+      <c r="O334" s="42"/>
+      <c r="P334" s="42"/>
+      <c r="T334" s="42"/>
+      <c r="U334" s="42"/>
+    </row>
+    <row r="335" spans="1:23" s="59" customFormat="1" ht="28.8">
       <c r="D335" s="42" t="s">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E335" s="42"/>
+      <c r="F335" s="42"/>
+      <c r="G335" s="42"/>
+      <c r="H335" s="42"/>
+      <c r="I335" s="42"/>
+      <c r="K335" s="67"/>
+      <c r="M335" s="42"/>
+      <c r="N335" s="42"/>
+      <c r="O335" s="42"/>
+      <c r="P335" s="42"/>
+      <c r="T335" s="42"/>
+      <c r="U335" s="42"/>
     </row>
     <row r="336" spans="1:23">
       <c r="D336" s="42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="4:4">
       <c r="D337" s="42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="4:4">
       <c r="D338" s="42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="4:4">
       <c r="D339" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4">
+      <c r="D340" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341" s="42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="4:4" ht="28.8">
-      <c r="D340" s="42" t="s">
+    <row r="342" spans="4:4" ht="28.8">
+      <c r="D342" s="42" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="4:4" ht="28.8">
-      <c r="D341" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="342" spans="4:4">
-      <c r="D342" s="42" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="343" spans="4:4" ht="28.8">
       <c r="D343" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4">
+      <c r="D344" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" ht="28.8">
+      <c r="D345" s="42" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F68:M68"/>
-    <mergeCell ref="F69:M69"/>
+  <mergeCells count="116">
+    <mergeCell ref="B121:I121"/>
     <mergeCell ref="C119:I119"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B112:I112"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="B116:I116"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="B118:I118"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="F64:M64"/>
-    <mergeCell ref="F60:M60"/>
-    <mergeCell ref="F59:M59"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="F95:M95"/>
-    <mergeCell ref="F91:M91"/>
-    <mergeCell ref="F93:M93"/>
-    <mergeCell ref="F92:M92"/>
-    <mergeCell ref="F94:M94"/>
-    <mergeCell ref="F84:M84"/>
-    <mergeCell ref="F81:M81"/>
-    <mergeCell ref="F78:M78"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="F61:M61"/>
-    <mergeCell ref="F70:M70"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="F67:M67"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="F77:M77"/>
-    <mergeCell ref="F79:M79"/>
-    <mergeCell ref="F80:M80"/>
-    <mergeCell ref="F73:M73"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="F71:M71"/>
-    <mergeCell ref="F82:M82"/>
-    <mergeCell ref="F83:M83"/>
-    <mergeCell ref="F72:M72"/>
-    <mergeCell ref="F76:M76"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="F90:M90"/>
-    <mergeCell ref="F85:M85"/>
-    <mergeCell ref="F86:M86"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F46:M46"/>
-    <mergeCell ref="F58:M58"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="C50:C51"/>
     <mergeCell ref="F87:M87"/>
     <mergeCell ref="F88:M88"/>
     <mergeCell ref="F89:M89"/>
@@ -12778,18 +12756,118 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F46:M46"/>
+    <mergeCell ref="F58:M58"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="F61:M61"/>
+    <mergeCell ref="F70:M70"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="F67:M67"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="F77:M77"/>
+    <mergeCell ref="F79:M79"/>
+    <mergeCell ref="F80:M80"/>
+    <mergeCell ref="F73:M73"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="F71:M71"/>
+    <mergeCell ref="F82:M82"/>
+    <mergeCell ref="F83:M83"/>
+    <mergeCell ref="F72:M72"/>
+    <mergeCell ref="F76:M76"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="F90:M90"/>
+    <mergeCell ref="F85:M85"/>
+    <mergeCell ref="F86:M86"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F68:M68"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B112:I112"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="B116:I116"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="B118:I118"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="F64:M64"/>
+    <mergeCell ref="F60:M60"/>
+    <mergeCell ref="F59:M59"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="F95:M95"/>
+    <mergeCell ref="F91:M91"/>
+    <mergeCell ref="F93:M93"/>
+    <mergeCell ref="F92:M92"/>
+    <mergeCell ref="F94:M94"/>
+    <mergeCell ref="F84:M84"/>
+    <mergeCell ref="F81:M81"/>
+    <mergeCell ref="F78:M78"/>
   </mergeCells>
   <conditionalFormatting sqref="L1:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H108 H119:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="H1:H108 H120 H123:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12810,31 +12888,31 @@
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.149999999999999"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.09765625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="31.2">
+    <row r="2" spans="1:19" ht="32.25">
       <c r="B2" s="25" t="s">
         <v>167</v>
       </c>
@@ -12899,14 +12977,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="16.2" thickBot="1">
+    <row r="6" spans="1:19" ht="16.7" thickBot="1">
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="31.8" thickBot="1">
+    <row r="7" spans="1:19" ht="32.85" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -13301,7 +13379,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:19" ht="38.4" customHeight="1">
+    <row r="18" spans="1:19" ht="38.450000000000003" customHeight="1">
       <c r="A18" s="27">
         <v>8</v>
       </c>
@@ -13342,7 +13420,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="9"/>
       <c r="C21" s="18" t="s">
         <v>39</v>
@@ -13394,7 +13472,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="31.2">
+    <row r="23" spans="1:19" ht="32.25">
       <c r="A23" s="9"/>
       <c r="C23" s="2" t="s">
         <v>40</v>
@@ -13440,7 +13518,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.2" thickBot="1">
+    <row r="26" spans="1:19" ht="16.7" thickBot="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -13455,7 +13533,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:19" ht="18.600000000000001" thickBot="1">
+    <row r="27" spans="1:19" ht="18.45" thickBot="1">
       <c r="A27" s="9"/>
       <c r="B27" s="176" t="s">
         <v>76</v>
@@ -14079,7 +14157,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="72" spans="2:19" ht="31.2">
+    <row r="72" spans="2:19" ht="32.25">
       <c r="B72" s="24" t="s">
         <v>25</v>
       </c>
